--- a/New highs and lows.xlsx
+++ b/New highs and lows.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Google Drive\Trading &amp; Investing\Strategies, patterns &amp; ideas\Growth stock high volume short\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/115e5277c8eb1d13/Documents/GitHub/Growth-stock-high-volume-short/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043AADB6-27D4-4197-986D-AA0DC8992349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{043AADB6-27D4-4197-986D-AA0DC8992349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{484AEC60-089C-48F8-BA23-D70195926568}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="28800" windowHeight="15885" xr2:uid="{56CA8ECF-8D06-4762-A8AA-5F67DF2C767F}"/>
   </bookViews>
@@ -218,7 +218,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>115.4</v>
+        <v>115.14999999999999</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -226,7 +226,7 @@
         <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>1235</v>
+        <v>1218</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -338,7 +338,7 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>163.05000000000001</v>
+        <v>162.19999999999999</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -354,7 +354,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>314.95</v>
+        <v>318.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -362,7 +362,7 @@
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>362.8</v>
+        <v>363.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -370,7 +370,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>135.25</v>
+        <v>135.05000000000001</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -378,7 +378,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>649.4</v>
+        <v>652.79999999999995</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -394,7 +394,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>163.6</v>
+        <v>162.55000000000001</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -402,7 +402,7 @@
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>48.56</v>
+        <v>48.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -434,7 +434,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>303.39999999999998</v>
+        <v>304.60000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -458,7 +458,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>503.6</v>
+        <v>499.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -466,7 +466,7 @@
         <tr r="K8" s="1"/>
       </tp>
       <tp>
-        <v>1270.4000000000001</v>
+        <v>1251</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -474,7 +474,7 @@
         <tr r="K3" s="1"/>
       </tp>
       <tp>
-        <v>64.58</v>
+        <v>65.38</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -482,7 +482,7 @@
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>1275</v>
+        <v>1260</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -514,7 +514,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>508.8</v>
+        <v>499.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -554,7 +554,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>173.8</v>
+        <v>172</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -586,7 +586,7 @@
         <tr r="K9" s="1"/>
       </tp>
       <tp>
-        <v>173.8</v>
+        <v>173</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -594,7 +594,7 @@
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>48.8</v>
+        <v>48.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -922,7 +922,7 @@
   <dimension ref="C2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +980,7 @@
       </c>
       <c r="G3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"last")</f>
-        <v>1275</v>
+        <v>1260</v>
       </c>
       <c r="H3" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C3,"open")/RTD("ontrade.quotes",,"SSE",C3,"lastvalidprevclose")-1</f>
@@ -995,10 +995,10 @@
       </c>
       <c r="K3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"low")</f>
-        <v>1270.4000000000001</v>
+        <v>1251</v>
       </c>
       <c r="L3" t="str">
-        <f>IF(G3&lt;E3,"Lows",IF(G3&gt;D3,"Highs",""))</f>
+        <f t="shared" ref="L3:L15" si="0">IF(G3&lt;E3,"Lows",IF(G3&gt;D3,"Highs",""))</f>
         <v>Lows</v>
       </c>
       <c r="M3" t="str">
@@ -1021,14 +1021,14 @@
       </c>
       <c r="G4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"last")</f>
-        <v>115.4</v>
+        <v>115.14999999999999</v>
       </c>
       <c r="H4" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C4,"open")/RTD("ontrade.quotes",,"SSE",C4,"lastvalidprevclose")-1</f>
         <v>3.0395136778116338E-3</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I15" si="0">(D4-E4)/AVERAGE(D4:E4)</f>
+        <f t="shared" ref="I4:I15" si="1">(D4-E4)/AVERAGE(D4:E4)</f>
         <v>1.4264102009941696E-2</v>
       </c>
       <c r="J4">
@@ -1039,11 +1039,11 @@
         <v>114.6</v>
       </c>
       <c r="L4" t="str">
-        <f>IF(G4&lt;E4,"Lows",IF(G4&gt;D4,"Highs",""))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ref="M4:M15" si="1">IF(H4&lt;0,IF(I4&lt;0.02,IF(F4&gt;1.5*J4,IF(K4&lt;E4,-1,""),""),""),"")</f>
+        <f t="shared" ref="M4:M15" si="2">IF(H4&lt;0,IF(I4&lt;0.02,IF(F4&gt;1.5*J4,IF(K4&lt;E4,-1,""),""),""),"")</f>
         <v/>
       </c>
     </row>
@@ -1062,14 +1062,14 @@
       </c>
       <c r="G5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"last")</f>
-        <v>362.8</v>
+        <v>363.9</v>
       </c>
       <c r="H5" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C5,"open")/RTD("ontrade.quotes",,"SSE",C5,"lastvalidprevclose")-1</f>
         <v>3.3547665641597835E-3</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3850415512465374E-2</v>
       </c>
       <c r="J5">
@@ -1080,11 +1080,11 @@
         <v>358.5</v>
       </c>
       <c r="L5" t="str">
-        <f>IF(G5&lt;E5,"Lows",IF(G5&gt;D5,"Highs",""))</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>Highs</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1103,14 +1103,14 @@
       </c>
       <c r="G6">
         <f>RTD("ontrade.quotes",,"SSE",C6,"last")</f>
-        <v>314.95</v>
+        <v>318.2</v>
       </c>
       <c r="H6" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C6,"open")/RTD("ontrade.quotes",,"SSE",C6,"lastvalidprevclose")-1</f>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.9863448713877061E-3</v>
       </c>
       <c r="J6">
@@ -1121,11 +1121,11 @@
         <v>313.15000000000003</v>
       </c>
       <c r="L6" t="str">
-        <f>IF(G6&lt;E6,"Lows",IF(G6&gt;D6,"Highs",""))</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>Highs</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1144,14 +1144,14 @@
       </c>
       <c r="G7">
         <f>RTD("ontrade.quotes",,"SSE",C7,"last")</f>
-        <v>135.25</v>
+        <v>135.05000000000001</v>
       </c>
       <c r="H7" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C7,"open")/RTD("ontrade.quotes",,"SSE",C7,"lastvalidprevclose")-1</f>
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4179104477611771E-2</v>
       </c>
       <c r="J7">
@@ -1162,11 +1162,11 @@
         <v>133.05000000000001</v>
       </c>
       <c r="L7" t="str">
-        <f>IF(G7&lt;E7,"Lows",IF(G7&gt;D7,"Highs",""))</f>
+        <f t="shared" si="0"/>
         <v>Highs</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1185,14 +1185,14 @@
       </c>
       <c r="G8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"last")</f>
-        <v>508.8</v>
+        <v>499.6</v>
       </c>
       <c r="H8" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C8,"open")/RTD("ontrade.quotes",,"SSE",C8,"lastvalidprevclose")-1</f>
         <v>1.5910898965791898E-3</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5369458128078729E-2</v>
       </c>
       <c r="J8">
@@ -1200,14 +1200,14 @@
       </c>
       <c r="K8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"low")</f>
-        <v>503.6</v>
+        <v>499.5</v>
       </c>
       <c r="L8" t="str">
-        <f>IF(G8&lt;E8,"Lows",IF(G8&gt;D8,"Highs",""))</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>Lows</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1226,14 +1226,14 @@
       </c>
       <c r="G9">
         <f>RTD("ontrade.quotes",,"SSE",C9,"last")</f>
-        <v>1235</v>
+        <v>1218</v>
       </c>
       <c r="H9" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C9,"open")/RTD("ontrade.quotes",,"SSE",C9,"lastvalidprevclose")-1</f>
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.2644628099173556E-3</v>
       </c>
       <c r="J9">
@@ -1244,11 +1244,11 @@
         <v>1198</v>
       </c>
       <c r="L9" t="str">
-        <f>IF(G9&lt;E9,"Lows",IF(G9&gt;D9,"Highs",""))</f>
+        <f t="shared" si="0"/>
         <v>Highs</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1267,14 +1267,14 @@
       </c>
       <c r="G10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"last")</f>
-        <v>163.6</v>
+        <v>162.55000000000001</v>
       </c>
       <c r="H10" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C10,"open")/RTD("ontrade.quotes",,"SSE",C10,"lastvalidprevclose")-1</f>
         <v>1.500150015001589E-3</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2533572068039357E-2</v>
       </c>
       <c r="J10">
@@ -1282,10 +1282,10 @@
       </c>
       <c r="K10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"low")</f>
-        <v>163.05000000000001</v>
+        <v>162.19999999999999</v>
       </c>
       <c r="L10" t="str">
-        <f>IF(G10&lt;E10,"Lows",IF(G10&gt;D10,"Highs",""))</f>
+        <f t="shared" si="0"/>
         <v>Lows</v>
       </c>
       <c r="M10" t="str">
@@ -1308,14 +1308,14 @@
       </c>
       <c r="G11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"last")</f>
-        <v>48.8</v>
+        <v>48.2</v>
       </c>
       <c r="H11" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C11,"open")/RTD("ontrade.quotes",,"SSE",C11,"lastvalidprevclose")-1</f>
         <v>6.4935064935065512E-3</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8683996750609295E-2</v>
       </c>
       <c r="J11">
@@ -1323,11 +1323,11 @@
       </c>
       <c r="K11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"low")</f>
-        <v>48.56</v>
+        <v>48.2</v>
       </c>
       <c r="L11" t="str">
-        <f>IF(G11&lt;E11,"Lows",IF(G11&gt;D11,"Highs",""))</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>Lows</v>
       </c>
       <c r="M11" t="str">
         <f>IF(H11&lt;0,IF(I11&lt;0.02,IF(F11&gt;1.5*J11,IF(K11&lt;E11,-1,""),""),""),"")</f>
@@ -1349,14 +1349,14 @@
       </c>
       <c r="G12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"last")</f>
-        <v>173.8</v>
+        <v>173</v>
       </c>
       <c r="H12" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C12,"open")/RTD("ontrade.quotes",,"SSE",C12,"lastvalidprevclose")-1</f>
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4032898468519244E-3</v>
       </c>
       <c r="J12">
@@ -1364,14 +1364,14 @@
       </c>
       <c r="K12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"low")</f>
-        <v>173.8</v>
+        <v>172</v>
       </c>
       <c r="L12" t="str">
-        <f>IF(G12&lt;E12,"Lows",IF(G12&gt;D12,"Highs",""))</f>
+        <f t="shared" si="0"/>
         <v>Lows</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1390,14 +1390,14 @@
       </c>
       <c r="G13">
         <f>RTD("ontrade.quotes",,"SSE",C13,"last")</f>
-        <v>64.58</v>
+        <v>65.38</v>
       </c>
       <c r="H13" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C13,"open")/RTD("ontrade.quotes",,"SSE",C13,"lastvalidprevclose")-1</f>
         <v>6.1633281972264253E-3</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5848826577263123E-2</v>
       </c>
       <c r="J13">
@@ -1408,8 +1408,8 @@
         <v>64.440000000000012</v>
       </c>
       <c r="L13" t="str">
-        <f>IF(G13&lt;E13,"Lows",IF(G13&gt;D13,"Highs",""))</f>
-        <v>Lows</v>
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="M13" t="str">
         <f>IF(H13&lt;0,IF(I13&lt;0.02,IF(F13&gt;1.5*J13,IF(K13&lt;E13,-1,""),""),""),"")</f>
@@ -1431,14 +1431,14 @@
       </c>
       <c r="G14">
         <f>RTD("ontrade.quotes",,"SSE",C14,"last")</f>
-        <v>649.4</v>
+        <v>652.79999999999995</v>
       </c>
       <c r="H14" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C14,"open")/RTD("ontrade.quotes",,"SSE",C14,"lastvalidprevclose")-1</f>
         <v>3.0883261272385276E-4</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1108362961818244E-3</v>
       </c>
       <c r="J14">
@@ -1449,11 +1449,11 @@
         <v>643.79999999999995</v>
       </c>
       <c r="L14" t="str">
-        <f>IF(G14&lt;E14,"Lows",IF(G14&gt;D14,"Highs",""))</f>
+        <f t="shared" si="0"/>
         <v>Highs</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1472,14 +1472,14 @@
       </c>
       <c r="G15">
         <f>RTD("ontrade.quotes",,"SSE",C15,"last")</f>
-        <v>303.39999999999998</v>
+        <v>304.60000000000002</v>
       </c>
       <c r="H15" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C15,"open")/RTD("ontrade.quotes",,"SSE",C15,"lastvalidprevclose")-1</f>
         <v>7.9522862823060425E-3</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3175230566534914E-2</v>
       </c>
       <c r="J15">
@@ -1490,11 +1490,11 @@
         <v>300</v>
       </c>
       <c r="L15" t="str">
-        <f>IF(G15&lt;E15,"Lows",IF(G15&gt;D15,"Highs",""))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(H15&lt;0,IF(I15&lt;0.02,IF(F15&gt;1.5*J15,IF(K15&lt;E15,-1,""),""),""),"")</f>
         <v/>
       </c>
     </row>

--- a/New highs and lows.xlsx
+++ b/New highs and lows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/115e5277c8eb1d13/Documents/GitHub/Growth-stock-high-volume-short/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{043AADB6-27D4-4197-986D-AA0DC8992349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{484AEC60-089C-48F8-BA23-D70195926568}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{043AADB6-27D4-4197-986D-AA0DC8992349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C34DFA09-3F08-4F2C-A912-684DDF14BB37}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="28800" windowHeight="15885" xr2:uid="{56CA8ECF-8D06-4762-A8AA-5F67DF2C767F}"/>
+    <workbookView xWindow="5160" yWindow="3285" windowWidth="28800" windowHeight="15885" xr2:uid="{56CA8ECF-8D06-4762-A8AA-5F67DF2C767F}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>High</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>Short indicator</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -202,7 +205,7 @@
   <volType type="realTimeData">
     <main first="ontrade.quotes">
       <tp>
-        <v>358.5</v>
+        <v>361.3</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -210,7 +213,7 @@
         <tr r="K5" s="1"/>
       </tp>
       <tp>
-        <v>1212</v>
+        <v>1218</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -218,7 +221,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>115.14999999999999</v>
+        <v>113.1</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -226,7 +229,7 @@
         <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>1218</v>
+        <v>1233</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -234,7 +237,7 @@
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>133.05000000000001</v>
+        <v>134.30000000000001</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -250,7 +253,7 @@
         <tr r="K14" s="1"/>
       </tp>
       <tp>
-        <v>300</v>
+        <v>299.39999999999998</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -266,7 +269,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>115.5</v>
+        <v>114.64999999999999</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -274,7 +277,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>64.440000000000012</v>
+        <v>64.16</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -282,7 +285,7 @@
         <tr r="K13" s="1"/>
       </tp>
       <tp>
-        <v>64.900000000000006</v>
+        <v>65.38</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -290,7 +293,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>114.6</v>
+        <v>112.05</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -298,7 +301,7 @@
         <tr r="K4" s="1"/>
       </tp>
       <tp>
-        <v>313.15000000000003</v>
+        <v>316.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -306,7 +309,7 @@
         <tr r="K6" s="1"/>
       </tp>
       <tp>
-        <v>1212</v>
+        <v>1220</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -314,7 +317,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>176</v>
+        <v>173</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -322,7 +325,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>502.8</v>
+        <v>499.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -330,7 +333,7 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>1278</v>
+        <v>1260</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -338,7 +341,7 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>162.19999999999999</v>
+        <v>160.30000000000001</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -346,7 +349,7 @@
         <tr r="K10" s="1"/>
       </tp>
       <tp>
-        <v>49.28</v>
+        <v>48.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -354,7 +357,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>318.2</v>
+        <v>319.65000000000003</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -362,7 +365,7 @@
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>363.9</v>
+        <v>368.1</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -370,7 +373,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>135.05000000000001</v>
+        <v>135.95000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -378,7 +381,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>652.79999999999995</v>
+        <v>651.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -386,7 +389,7 @@
         <tr r="G14" s="1"/>
       </tp>
       <tp>
-        <v>304.2</v>
+        <v>303.60000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -394,7 +397,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>162.55000000000001</v>
+        <v>161.85000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -402,7 +405,7 @@
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>48.2</v>
+        <v>46.82</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -410,7 +413,7 @@
         <tr r="K11" s="1"/>
       </tp>
       <tp>
-        <v>314.95</v>
+        <v>318</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -418,7 +421,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>358.9</v>
+        <v>364</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -426,7 +429,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>133.05000000000001</v>
+        <v>135.05000000000001</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -434,7 +437,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>304.60000000000002</v>
+        <v>302.60000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -442,7 +445,7 @@
         <tr r="G15" s="1"/>
       </tp>
       <tp>
-        <v>647.79999999999995</v>
+        <v>652.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -450,7 +453,7 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>166.9</v>
+        <v>162.19999999999999</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -458,7 +461,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>499.5</v>
+        <v>490.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -466,7 +469,7 @@
         <tr r="K8" s="1"/>
       </tp>
       <tp>
-        <v>1251</v>
+        <v>1226</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -474,7 +477,7 @@
         <tr r="K3" s="1"/>
       </tp>
       <tp>
-        <v>65.38</v>
+        <v>65.61999999999999</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -482,7 +485,7 @@
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>1260</v>
+        <v>1235.5999999999999</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -490,7 +493,7 @@
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>357.7</v>
+        <v>363.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -498,7 +501,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>49.6</v>
+        <v>47.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -506,7 +509,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>176</v>
+        <v>173</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -514,7 +517,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>499.6</v>
+        <v>491</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -522,7 +525,7 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>314.95</v>
+        <v>318.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -530,7 +533,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>65.3</v>
+        <v>65.28</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -538,7 +541,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>647.6</v>
+        <v>652.79999999999995</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -546,7 +549,7 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>166.65</v>
+        <v>162.55000000000001</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -554,7 +557,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>172</v>
+        <v>172.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -562,7 +565,7 @@
         <tr r="K12" s="1"/>
       </tp>
       <tp>
-        <v>1299</v>
+        <v>1255.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -570,7 +573,7 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>301.8</v>
+        <v>304.60000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -578,7 +581,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>1198</v>
+        <v>1212</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -586,7 +589,7 @@
         <tr r="K9" s="1"/>
       </tp>
       <tp>
-        <v>173</v>
+        <v>176.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -594,7 +597,7 @@
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>48.2</v>
+        <v>47.32</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -602,7 +605,7 @@
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>133.05000000000001</v>
+        <v>135.05000000000001</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -610,7 +613,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>503.6</v>
+        <v>500</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -919,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268B5E47-AB21-40CD-8773-87AC1EA351F0}">
-  <dimension ref="C2:M15"/>
+  <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,7 +936,7 @@
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -965,40 +968,40 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>1319</v>
+        <v>1268</v>
       </c>
       <c r="E3">
-        <v>1291.5999999999999</v>
+        <v>1248.5999999999999</v>
       </c>
       <c r="F3">
-        <v>192562</v>
+        <v>35148</v>
       </c>
       <c r="G3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"last")</f>
-        <v>1260</v>
+        <v>1235.5999999999999</v>
       </c>
       <c r="H3" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C3,"open")/RTD("ontrade.quotes",,"SSE",C3,"lastvalidprevclose")-1</f>
-        <v>1.6431924882629012E-2</v>
+        <v>-3.8095238095238182E-3</v>
       </c>
       <c r="I3" s="1">
         <f>(D3-E3)/AVERAGE(D3:E3)</f>
-        <v>2.0991342986286746E-2</v>
+        <v>1.5417626957005557E-2</v>
       </c>
       <c r="J3">
         <v>213391.05</v>
       </c>
       <c r="K3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"low")</f>
-        <v>1251</v>
+        <v>1226</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L15" si="0">IF(G3&lt;E3,"Lows",IF(G3&gt;D3,"Highs",""))</f>
+        <f>IF(G3&lt;E3,"Lows",IF(G3&gt;D3,"Highs",""))</f>
         <v>Lows</v>
       </c>
       <c r="M3" t="str">
@@ -1006,81 +1009,81 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4">
-        <v>116.5</v>
+        <v>115.2</v>
       </c>
       <c r="E4">
-        <v>114.85</v>
+        <v>114.15</v>
       </c>
       <c r="F4">
-        <v>279471</v>
+        <v>112180</v>
       </c>
       <c r="G4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"last")</f>
-        <v>115.14999999999999</v>
+        <v>113.1</v>
       </c>
       <c r="H4" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C4,"open")/RTD("ontrade.quotes",,"SSE",C4,"lastvalidprevclose")-1</f>
-        <v>3.0395136778116338E-3</v>
+        <v>-4.3421623968736833E-3</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I15" si="1">(D4-E4)/AVERAGE(D4:E4)</f>
-        <v>1.4264102009941696E-2</v>
+        <f t="shared" ref="I4:I15" si="0">(D4-E4)/AVERAGE(D4:E4)</f>
+        <v>9.1563113145846694E-3</v>
       </c>
       <c r="J4">
         <v>216755.6</v>
       </c>
       <c r="K4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"low")</f>
-        <v>114.6</v>
+        <v>112.05</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L3:L15" si="1">IF(G4&lt;E4,"Lows",IF(G4&gt;D4,"Highs",""))</f>
+        <v>Lows</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" ref="M4:M14" si="2">IF(H4&lt;0,IF(I4&lt;0.02,IF(F4&gt;1.5*J4,IF(K4&lt;E4,-1,""),""),""),"")</f>
         <v/>
       </c>
-      <c r="M4" t="str">
-        <f t="shared" ref="M4:M15" si="2">IF(H4&lt;0,IF(I4&lt;0.02,IF(F4&gt;1.5*J4,IF(K4&lt;E4,-1,""),""),""),"")</f>
-        <v/>
-      </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>363.5</v>
+        <v>365.2</v>
       </c>
       <c r="E5">
-        <v>358.5</v>
+        <v>361.3</v>
       </c>
       <c r="F5">
-        <v>16129</v>
+        <v>15366</v>
       </c>
       <c r="G5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"last")</f>
-        <v>363.9</v>
+        <v>368.1</v>
       </c>
       <c r="H5" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C5,"open")/RTD("ontrade.quotes",,"SSE",C5,"lastvalidprevclose")-1</f>
-        <v>3.3547665641597835E-3</v>
+        <v>2.7480076944219611E-4</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3850415512465374E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.0736407432897391E-2</v>
       </c>
       <c r="J5">
         <v>19527.05</v>
       </c>
       <c r="K5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"low")</f>
-        <v>358.5</v>
+        <v>361.3</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Highs</v>
       </c>
       <c r="M5" t="str">
@@ -1088,40 +1091,40 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>316</v>
+        <v>319.07</v>
       </c>
       <c r="E6">
-        <v>313.8</v>
+        <v>316.2</v>
       </c>
       <c r="F6">
-        <v>61620</v>
+        <v>18332</v>
       </c>
       <c r="G6">
         <f>RTD("ontrade.quotes",,"SSE",C6,"last")</f>
-        <v>318.2</v>
+        <v>319.65000000000003</v>
       </c>
       <c r="H6" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C6,"open")/RTD("ontrade.quotes",,"SSE",C6,"lastvalidprevclose")-1</f>
-        <v>0</v>
+        <v>-6.2853551225638959E-4</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="1"/>
-        <v>6.9863448713877061E-3</v>
+        <f t="shared" si="0"/>
+        <v>9.0355282006076305E-3</v>
       </c>
       <c r="J6">
         <v>38360.1</v>
       </c>
       <c r="K6">
         <f>RTD("ontrade.quotes",,"SSE",C6,"low")</f>
-        <v>313.15000000000003</v>
+        <v>316.2</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Highs</v>
       </c>
       <c r="M6" t="str">
@@ -1129,40 +1132,40 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7">
-        <v>134.94999999999999</v>
+        <v>135.44999999999999</v>
       </c>
       <c r="E7">
-        <v>133.05000000000001</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="F7">
-        <v>83567</v>
+        <v>57183</v>
       </c>
       <c r="G7">
         <f>RTD("ontrade.quotes",,"SSE",C7,"last")</f>
-        <v>135.05000000000001</v>
+        <v>135.95000000000002</v>
       </c>
       <c r="H7" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C7,"open")/RTD("ontrade.quotes",,"SSE",C7,"lastvalidprevclose")-1</f>
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4179104477611771E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.5264133456902855E-3</v>
       </c>
       <c r="J7">
         <v>104127.3</v>
       </c>
       <c r="K7">
         <f>RTD("ontrade.quotes",,"SSE",C7,"low")</f>
-        <v>133.05000000000001</v>
+        <v>134.30000000000001</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Highs</v>
       </c>
       <c r="M7" t="str">
@@ -1170,40 +1173,40 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8">
-        <v>511.4</v>
+        <v>507</v>
       </c>
       <c r="E8">
-        <v>503.6</v>
+        <v>500</v>
       </c>
       <c r="F8">
-        <v>23451</v>
+        <v>16988</v>
       </c>
       <c r="G8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"last")</f>
-        <v>499.6</v>
+        <v>491</v>
       </c>
       <c r="H8" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C8,"open")/RTD("ontrade.quotes",,"SSE",C8,"lastvalidprevclose")-1</f>
-        <v>1.5910898965791898E-3</v>
+        <v>8.0064051240991141E-4</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5369458128078729E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.3902681231380337E-2</v>
       </c>
       <c r="J8">
         <v>51280.85</v>
       </c>
       <c r="K8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"low")</f>
-        <v>499.5</v>
+        <v>490.8</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Lows</v>
       </c>
       <c r="M8" t="str">
@@ -1211,40 +1214,40 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>1215</v>
+        <v>1228</v>
       </c>
       <c r="E9">
-        <v>1205</v>
+        <v>1212</v>
       </c>
       <c r="F9">
-        <v>1010</v>
+        <v>1154</v>
       </c>
       <c r="G9">
         <f>RTD("ontrade.quotes",,"SSE",C9,"last")</f>
-        <v>1218</v>
+        <v>1233</v>
       </c>
       <c r="H9" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C9,"open")/RTD("ontrade.quotes",,"SSE",C9,"lastvalidprevclose")-1</f>
-        <v>0</v>
+        <v>1.6420361247948545E-3</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="1"/>
-        <v>8.2644628099173556E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.3114754098360656E-2</v>
       </c>
       <c r="J9">
         <v>2546.35</v>
       </c>
       <c r="K9">
         <f>RTD("ontrade.quotes",,"SSE",C9,"low")</f>
-        <v>1198</v>
+        <v>1212</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Highs</v>
       </c>
       <c r="M9" t="str">
@@ -1252,81 +1255,81 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10">
-        <v>168.6</v>
+        <v>163.6</v>
       </c>
       <c r="E10">
-        <v>166.5</v>
+        <v>161.1</v>
       </c>
       <c r="F10">
-        <v>15623</v>
+        <v>12650</v>
       </c>
       <c r="G10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"last")</f>
-        <v>162.55000000000001</v>
+        <v>161.85000000000002</v>
       </c>
       <c r="H10" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C10,"open")/RTD("ontrade.quotes",,"SSE",C10,"lastvalidprevclose")-1</f>
-        <v>1.500150015001589E-3</v>
+        <v>-2.1531836358045231E-3</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="1"/>
-        <v>1.2533572068039357E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.5398829688943641E-2</v>
       </c>
       <c r="J10">
         <v>20254.3</v>
       </c>
       <c r="K10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"low")</f>
-        <v>162.19999999999999</v>
+        <v>160.30000000000001</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="0"/>
-        <v>Lows</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="M10" t="str">
         <f>IF(H10&lt;0,IF(I10&lt;0.02,IF(F10&gt;1.5*J10,IF(K10&lt;E10,-1,""),""),""),"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11">
-        <v>49.7</v>
+        <v>48.08</v>
       </c>
       <c r="E11">
-        <v>48.78</v>
+        <v>47.5</v>
       </c>
       <c r="F11">
-        <v>155126</v>
+        <v>83051</v>
       </c>
       <c r="G11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"last")</f>
-        <v>48.2</v>
+        <v>47.32</v>
       </c>
       <c r="H11" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C11,"open")/RTD("ontrade.quotes",,"SSE",C11,"lastvalidprevclose")-1</f>
-        <v>6.4935064935065512E-3</v>
+        <v>-6.2240663900415827E-3</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="1"/>
-        <v>1.8683996750609295E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.2136430215526225E-2</v>
       </c>
       <c r="J11">
         <v>80779.75</v>
       </c>
       <c r="K11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"low")</f>
-        <v>48.2</v>
+        <v>46.82</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Lows</v>
       </c>
       <c r="M11" t="str">
@@ -1334,112 +1337,115 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>176.6</v>
+        <v>174</v>
       </c>
       <c r="E12">
-        <v>176</v>
+        <v>172.6</v>
       </c>
       <c r="F12">
-        <v>1276</v>
+        <v>2930</v>
       </c>
       <c r="G12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"last")</f>
-        <v>173</v>
+        <v>176.5</v>
       </c>
       <c r="H12" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C12,"open")/RTD("ontrade.quotes",,"SSE",C12,"lastvalidprevclose")-1</f>
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="1"/>
-        <v>3.4032898468519244E-3</v>
+        <f t="shared" si="0"/>
+        <v>8.0784766301212098E-3</v>
       </c>
       <c r="J12">
         <v>10111.6</v>
       </c>
       <c r="K12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"low")</f>
-        <v>172</v>
+        <v>172.6</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>Lows</v>
+        <f t="shared" si="1"/>
+        <v>Highs</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13">
-        <v>66.14</v>
+        <v>65.319999999999993</v>
       </c>
       <c r="E13">
-        <v>65.099999999999994</v>
+        <v>64.16</v>
       </c>
       <c r="F13">
-        <v>570030</v>
+        <v>330928</v>
       </c>
       <c r="G13">
         <f>RTD("ontrade.quotes",,"SSE",C13,"last")</f>
-        <v>65.38</v>
+        <v>65.61999999999999</v>
       </c>
       <c r="H13" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C13,"open")/RTD("ontrade.quotes",,"SSE",C13,"lastvalidprevclose")-1</f>
-        <v>6.1633281972264253E-3</v>
+        <v>-1.5295197308043962E-3</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5848826577263123E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.7917825146740757E-2</v>
       </c>
       <c r="J13">
         <v>370667.65</v>
       </c>
       <c r="K13">
         <f>RTD("ontrade.quotes",,"SSE",C13,"low")</f>
-        <v>64.440000000000012</v>
+        <v>64.16</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>Highs</v>
       </c>
       <c r="M13" t="str">
         <f>IF(H13&lt;0,IF(I13&lt;0.02,IF(F13&gt;1.5*J13,IF(K13&lt;E13,-1,""),""),""),"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14">
-        <v>649.20000000000005</v>
+        <v>653</v>
       </c>
       <c r="E14">
-        <v>644.6</v>
+        <v>649.6</v>
       </c>
       <c r="F14">
-        <v>5035</v>
+        <v>2023</v>
       </c>
       <c r="G14">
         <f>RTD("ontrade.quotes",,"SSE",C14,"last")</f>
-        <v>652.79999999999995</v>
+        <v>651.4</v>
       </c>
       <c r="H14" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C14,"open")/RTD("ontrade.quotes",,"SSE",C14,"lastvalidprevclose")-1</f>
-        <v>3.0883261272385276E-4</v>
+        <v>-6.1274509803921351E-4</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="1"/>
-        <v>7.1108362961818244E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.2203285736219527E-3</v>
       </c>
       <c r="J14">
         <v>5902.95</v>
@@ -1449,48 +1455,48 @@
         <v>643.79999999999995</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>Highs</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15">
-        <v>305.60000000000002</v>
+        <v>304.10000000000002</v>
       </c>
       <c r="E15">
-        <v>301.60000000000002</v>
+        <v>301.39999999999998</v>
       </c>
       <c r="F15">
-        <v>10323</v>
+        <v>10057</v>
       </c>
       <c r="G15">
         <f>RTD("ontrade.quotes",,"SSE",C15,"last")</f>
-        <v>304.60000000000002</v>
+        <v>302.60000000000002</v>
       </c>
       <c r="H15" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C15,"open")/RTD("ontrade.quotes",,"SSE",C15,"lastvalidprevclose")-1</f>
-        <v>7.9522862823060425E-3</v>
+        <v>-3.2829940906106136E-3</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3175230566534914E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.9182493806772758E-3</v>
       </c>
       <c r="J15">
         <v>26226.95</v>
       </c>
       <c r="K15">
         <f>RTD("ontrade.quotes",,"SSE",C15,"low")</f>
-        <v>300</v>
+        <v>299.39999999999998</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M15" t="str">

--- a/New highs and lows.xlsx
+++ b/New highs and lows.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/115e5277c8eb1d13/Documents/GitHub/Growth-stock-high-volume-short/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\GitHub\Growth-stock-high-volume-short\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{043AADB6-27D4-4197-986D-AA0DC8992349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C34DFA09-3F08-4F2C-A912-684DDF14BB37}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BE223EC-B2DD-4937-8E52-1FBAF0B84487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="3285" windowWidth="28800" windowHeight="15885" xr2:uid="{56CA8ECF-8D06-4762-A8AA-5F67DF2C767F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{56CA8ECF-8D06-4762-A8AA-5F67DF2C767F}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -155,15 +155,16 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Procent" xfId="1" builtinId="5"/>
-    <cellStyle name="Tusental" xfId="2" builtinId="3"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -626,7 +627,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -925,18 +926,18 @@
   <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.81640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -968,7 +969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>3</v>
       </c>
@@ -993,8 +994,8 @@
         <f>(D3-E3)/AVERAGE(D3:E3)</f>
         <v>1.5417626957005557E-2</v>
       </c>
-      <c r="J3">
-        <v>213391.05</v>
+      <c r="J3" s="3">
+        <v>202163.6</v>
       </c>
       <c r="K3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"low")</f>
@@ -1009,7 +1010,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>4</v>
       </c>
@@ -1034,15 +1035,15 @@
         <f t="shared" ref="I4:I15" si="0">(D4-E4)/AVERAGE(D4:E4)</f>
         <v>9.1563113145846694E-3</v>
       </c>
-      <c r="J4">
-        <v>216755.6</v>
+      <c r="J4" s="3">
+        <v>215808.25</v>
       </c>
       <c r="K4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"low")</f>
         <v>112.05</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L3:L15" si="1">IF(G4&lt;E4,"Lows",IF(G4&gt;D4,"Highs",""))</f>
+        <f t="shared" ref="L4:L15" si="1">IF(G4&lt;E4,"Lows",IF(G4&gt;D4,"Highs",""))</f>
         <v>Lows</v>
       </c>
       <c r="M4" t="str">
@@ -1050,7 +1051,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>5</v>
       </c>
@@ -1075,8 +1076,8 @@
         <f t="shared" si="0"/>
         <v>1.0736407432897391E-2</v>
       </c>
-      <c r="J5">
-        <v>19527.05</v>
+      <c r="J5" s="3">
+        <v>16930</v>
       </c>
       <c r="K5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"low")</f>
@@ -1091,7 +1092,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>6</v>
       </c>
@@ -1116,8 +1117,8 @@
         <f t="shared" si="0"/>
         <v>9.0355282006076305E-3</v>
       </c>
-      <c r="J6">
-        <v>38360.1</v>
+      <c r="J6" s="3">
+        <v>38485.050000000003</v>
       </c>
       <c r="K6">
         <f>RTD("ontrade.quotes",,"SSE",C6,"low")</f>
@@ -1132,7 +1133,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -1157,8 +1158,8 @@
         <f t="shared" si="0"/>
         <v>8.5264133456902855E-3</v>
       </c>
-      <c r="J7">
-        <v>104127.3</v>
+      <c r="J7" s="3">
+        <v>95202.2</v>
       </c>
       <c r="K7">
         <f>RTD("ontrade.quotes",,"SSE",C7,"low")</f>
@@ -1173,7 +1174,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>8</v>
       </c>
@@ -1198,8 +1199,8 @@
         <f t="shared" si="0"/>
         <v>1.3902681231380337E-2</v>
       </c>
-      <c r="J8">
-        <v>51280.85</v>
+      <c r="J8" s="3">
+        <v>48306.8</v>
       </c>
       <c r="K8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"low")</f>
@@ -1214,7 +1215,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>9</v>
       </c>
@@ -1239,8 +1240,8 @@
         <f t="shared" si="0"/>
         <v>1.3114754098360656E-2</v>
       </c>
-      <c r="J9">
-        <v>2546.35</v>
+      <c r="J9" s="3">
+        <v>2296.6</v>
       </c>
       <c r="K9">
         <f>RTD("ontrade.quotes",,"SSE",C9,"low")</f>
@@ -1255,7 +1256,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>10</v>
       </c>
@@ -1280,8 +1281,8 @@
         <f t="shared" si="0"/>
         <v>1.5398829688943641E-2</v>
       </c>
-      <c r="J10">
-        <v>20254.3</v>
+      <c r="J10" s="3">
+        <v>19138.599999999999</v>
       </c>
       <c r="K10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"low")</f>
@@ -1296,7 +1297,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -1321,8 +1322,8 @@
         <f t="shared" si="0"/>
         <v>1.2136430215526225E-2</v>
       </c>
-      <c r="J11">
-        <v>80779.75</v>
+      <c r="J11" s="3">
+        <v>76804.25</v>
       </c>
       <c r="K11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"low")</f>
@@ -1337,7 +1338,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>12</v>
       </c>
@@ -1362,8 +1363,8 @@
         <f t="shared" si="0"/>
         <v>8.0784766301212098E-3</v>
       </c>
-      <c r="J12">
-        <v>10111.6</v>
+      <c r="J12" s="3">
+        <v>9680.2999999999993</v>
       </c>
       <c r="K12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"low")</f>
@@ -1378,7 +1379,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>23</v>
       </c>
@@ -1406,8 +1407,8 @@
         <f t="shared" si="0"/>
         <v>1.7917825146740757E-2</v>
       </c>
-      <c r="J13">
-        <v>370667.65</v>
+      <c r="J13" s="3">
+        <v>352084.65</v>
       </c>
       <c r="K13">
         <f>RTD("ontrade.quotes",,"SSE",C13,"low")</f>
@@ -1422,7 +1423,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -1447,8 +1448,8 @@
         <f t="shared" si="0"/>
         <v>5.2203285736219527E-3</v>
       </c>
-      <c r="J14">
-        <v>5902.95</v>
+      <c r="J14" s="3">
+        <v>5380.85</v>
       </c>
       <c r="K14">
         <f>RTD("ontrade.quotes",,"SSE",C14,"low")</f>
@@ -1463,7 +1464,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -1488,8 +1489,8 @@
         <f t="shared" si="0"/>
         <v>8.9182493806772758E-3</v>
       </c>
-      <c r="J15">
-        <v>26226.95</v>
+      <c r="J15" s="3">
+        <v>22187.65</v>
       </c>
       <c r="K15">
         <f>RTD("ontrade.quotes",,"SSE",C15,"low")</f>

--- a/New highs and lows.xlsx
+++ b/New highs and lows.xlsx
@@ -205,7 +205,7 @@
   <volType type="realTimeData">
     <main first="ontrade.quotes">
       <tp>
-        <v>361.3</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -213,7 +213,7 @@
         <tr r="K5" s="1"/>
       </tp>
       <tp>
-        <v>1218</v>
+        <v>1233</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -221,7 +221,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>113.1</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -229,7 +229,7 @@
         <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>1233</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -237,7 +237,7 @@
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>134.30000000000001</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -245,7 +245,7 @@
         <tr r="K7" s="1"/>
       </tp>
       <tp>
-        <v>643.79999999999995</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -253,7 +253,7 @@
         <tr r="K14" s="1"/>
       </tp>
       <tp>
-        <v>299.39999999999998</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -261,7 +261,7 @@
         <tr r="K15" s="1"/>
       </tp>
       <tp>
-        <v>115.14999999999999</v>
+        <v>113.1</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -269,7 +269,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>114.64999999999999</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -277,7 +277,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>64.16</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -285,7 +285,7 @@
         <tr r="K13" s="1"/>
       </tp>
       <tp>
-        <v>65.38</v>
+        <v>65.61999999999999</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -293,7 +293,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>112.05</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -301,7 +301,7 @@
         <tr r="K4" s="1"/>
       </tp>
       <tp>
-        <v>316.2</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -309,7 +309,7 @@
         <tr r="K6" s="1"/>
       </tp>
       <tp>
-        <v>1220</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -317,7 +317,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>173</v>
+        <v>176.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -325,7 +325,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>499.6</v>
+        <v>491</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -333,7 +333,7 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>1260</v>
+        <v>1235.5999999999999</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -341,7 +341,7 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>160.30000000000001</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -349,7 +349,7 @@
         <tr r="K10" s="1"/>
       </tp>
       <tp>
-        <v>48.2</v>
+        <v>47.32</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -357,7 +357,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>319.65000000000003</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -365,7 +365,7 @@
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>368.1</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -373,7 +373,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>135.95000000000002</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -381,7 +381,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>651.4</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -389,7 +389,7 @@
         <tr r="G14" s="1"/>
       </tp>
       <tp>
-        <v>303.60000000000002</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -397,7 +397,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>161.85000000000002</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -405,7 +405,7 @@
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>46.82</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -413,7 +413,7 @@
         <tr r="K11" s="1"/>
       </tp>
       <tp>
-        <v>318</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -421,7 +421,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>364</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -429,7 +429,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>135.05000000000001</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -437,7 +437,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>302.60000000000002</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -445,7 +445,7 @@
         <tr r="G15" s="1"/>
       </tp>
       <tp>
-        <v>652.4</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -453,7 +453,7 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>162.19999999999999</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -461,7 +461,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>490.8</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -469,7 +469,7 @@
         <tr r="K8" s="1"/>
       </tp>
       <tp>
-        <v>1226</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -477,7 +477,7 @@
         <tr r="K3" s="1"/>
       </tp>
       <tp>
-        <v>65.61999999999999</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -485,7 +485,7 @@
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>1235.5999999999999</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -493,7 +493,7 @@
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>363.9</v>
+        <v>368.1</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -501,7 +501,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>47.9</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -509,7 +509,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>173</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -517,7 +517,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>491</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -525,7 +525,7 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>318.2</v>
+        <v>319.65000000000003</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -533,7 +533,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>65.28</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -541,7 +541,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>652.79999999999995</v>
+        <v>651.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -549,7 +549,7 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>162.55000000000001</v>
+        <v>161.85000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -557,7 +557,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>172.6</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -565,7 +565,7 @@
         <tr r="K12" s="1"/>
       </tp>
       <tp>
-        <v>1255.2</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -573,7 +573,7 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>304.60000000000002</v>
+        <v>302.60000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -581,7 +581,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>1212</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -589,7 +589,7 @@
         <tr r="K9" s="1"/>
       </tp>
       <tp>
-        <v>176.5</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -597,7 +597,7 @@
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>47.32</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -605,7 +605,7 @@
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>135.05000000000001</v>
+        <v>135.95000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -613,7 +613,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>500</v>
+        <v>0</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -925,7 +925,7 @@
   <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,11 +983,11 @@
       </c>
       <c r="G3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"last")</f>
-        <v>1235.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C3,"open")/RTD("ontrade.quotes",,"SSE",C3,"lastvalidprevclose")-1</f>
-        <v>-3.8095238095238182E-3</v>
+        <v>-1</v>
       </c>
       <c r="I3" s="1">
         <f>(D3-E3)/AVERAGE(D3:E3)</f>
@@ -998,7 +998,7 @@
       </c>
       <c r="K3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"low")</f>
-        <v>1226</v>
+        <v>0</v>
       </c>
       <c r="L3" t="str">
         <f>IF(G3&lt;E3,"Lows",IF(G3&gt;D3,"Highs",""))</f>
@@ -1024,11 +1024,11 @@
       </c>
       <c r="G4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"last")</f>
-        <v>113.1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C4,"open")/RTD("ontrade.quotes",,"SSE",C4,"lastvalidprevclose")-1</f>
-        <v>-4.3421623968736833E-3</v>
+        <v>-1</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I15" si="0">(D4-E4)/AVERAGE(D4:E4)</f>
@@ -1039,10 +1039,10 @@
       </c>
       <c r="K4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"low")</f>
-        <v>112.05</v>
+        <v>0</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L3:L15" si="1">IF(G4&lt;E4,"Lows",IF(G4&gt;D4,"Highs",""))</f>
+        <f t="shared" ref="L4:L15" si="1">IF(G4&lt;E4,"Lows",IF(G4&gt;D4,"Highs",""))</f>
         <v>Lows</v>
       </c>
       <c r="M4" t="str">
@@ -1065,11 +1065,11 @@
       </c>
       <c r="G5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"last")</f>
-        <v>368.1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C5,"open")/RTD("ontrade.quotes",,"SSE",C5,"lastvalidprevclose")-1</f>
-        <v>2.7480076944219611E-4</v>
+        <v>-1</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
@@ -1080,11 +1080,11 @@
       </c>
       <c r="K5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"low")</f>
-        <v>361.3</v>
+        <v>0</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v>Lows</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="2"/>
@@ -1106,11 +1106,11 @@
       </c>
       <c r="G6">
         <f>RTD("ontrade.quotes",,"SSE",C6,"last")</f>
-        <v>319.65000000000003</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C6,"open")/RTD("ontrade.quotes",,"SSE",C6,"lastvalidprevclose")-1</f>
-        <v>-6.2853551225638959E-4</v>
+        <v>-1</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
@@ -1121,11 +1121,11 @@
       </c>
       <c r="K6">
         <f>RTD("ontrade.quotes",,"SSE",C6,"low")</f>
-        <v>316.2</v>
+        <v>0</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v>Lows</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="2"/>
@@ -1147,11 +1147,11 @@
       </c>
       <c r="G7">
         <f>RTD("ontrade.quotes",,"SSE",C7,"last")</f>
-        <v>135.95000000000002</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C7,"open")/RTD("ontrade.quotes",,"SSE",C7,"lastvalidprevclose")-1</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
@@ -1162,11 +1162,11 @@
       </c>
       <c r="K7">
         <f>RTD("ontrade.quotes",,"SSE",C7,"low")</f>
-        <v>134.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v>Lows</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="2"/>
@@ -1188,11 +1188,11 @@
       </c>
       <c r="G8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"last")</f>
-        <v>491</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C8,"open")/RTD("ontrade.quotes",,"SSE",C8,"lastvalidprevclose")-1</f>
-        <v>8.0064051240991141E-4</v>
+        <v>-1</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="K8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"low")</f>
-        <v>490.8</v>
+        <v>0</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
@@ -1229,11 +1229,11 @@
       </c>
       <c r="G9">
         <f>RTD("ontrade.quotes",,"SSE",C9,"last")</f>
-        <v>1233</v>
+        <v>0</v>
       </c>
       <c r="H9" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C9,"open")/RTD("ontrade.quotes",,"SSE",C9,"lastvalidprevclose")-1</f>
-        <v>1.6420361247948545E-3</v>
+        <v>-1</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
@@ -1244,11 +1244,11 @@
       </c>
       <c r="K9">
         <f>RTD("ontrade.quotes",,"SSE",C9,"low")</f>
-        <v>1212</v>
+        <v>0</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v>Lows</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="2"/>
@@ -1270,11 +1270,11 @@
       </c>
       <c r="G10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"last")</f>
-        <v>161.85000000000002</v>
+        <v>0</v>
       </c>
       <c r="H10" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C10,"open")/RTD("ontrade.quotes",,"SSE",C10,"lastvalidprevclose")-1</f>
-        <v>-2.1531836358045231E-3</v>
+        <v>-1</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
@@ -1285,11 +1285,11 @@
       </c>
       <c r="K10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"low")</f>
-        <v>160.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Lows</v>
       </c>
       <c r="M10" t="str">
         <f>IF(H10&lt;0,IF(I10&lt;0.02,IF(F10&gt;1.5*J10,IF(K10&lt;E10,-1,""),""),""),"")</f>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="G11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"last")</f>
-        <v>47.32</v>
+        <v>0</v>
       </c>
       <c r="H11" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C11,"open")/RTD("ontrade.quotes",,"SSE",C11,"lastvalidprevclose")-1</f>
-        <v>-6.2240663900415827E-3</v>
+        <v>-1</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="K11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"low")</f>
-        <v>46.82</v>
+        <v>0</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
@@ -1352,11 +1352,11 @@
       </c>
       <c r="G12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"last")</f>
-        <v>176.5</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C12,"open")/RTD("ontrade.quotes",,"SSE",C12,"lastvalidprevclose")-1</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
@@ -1367,11 +1367,11 @@
       </c>
       <c r="K12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"low")</f>
-        <v>172.6</v>
+        <v>0</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v>Lows</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="2"/>
@@ -1396,11 +1396,11 @@
       </c>
       <c r="G13">
         <f>RTD("ontrade.quotes",,"SSE",C13,"last")</f>
-        <v>65.61999999999999</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C13,"open")/RTD("ontrade.quotes",,"SSE",C13,"lastvalidprevclose")-1</f>
-        <v>-1.5295197308043962E-3</v>
+        <v>-1</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
@@ -1411,11 +1411,11 @@
       </c>
       <c r="K13">
         <f>RTD("ontrade.quotes",,"SSE",C13,"low")</f>
-        <v>64.16</v>
+        <v>0</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v>Lows</v>
       </c>
       <c r="M13" t="str">
         <f>IF(H13&lt;0,IF(I13&lt;0.02,IF(F13&gt;1.5*J13,IF(K13&lt;E13,-1,""),""),""),"")</f>
@@ -1437,11 +1437,11 @@
       </c>
       <c r="G14">
         <f>RTD("ontrade.quotes",,"SSE",C14,"last")</f>
-        <v>651.4</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C14,"open")/RTD("ontrade.quotes",,"SSE",C14,"lastvalidprevclose")-1</f>
-        <v>-6.1274509803921351E-4</v>
+        <v>-1</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
@@ -1452,11 +1452,11 @@
       </c>
       <c r="K14">
         <f>RTD("ontrade.quotes",,"SSE",C14,"low")</f>
-        <v>643.79999999999995</v>
+        <v>0</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Lows</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="2"/>
@@ -1478,11 +1478,11 @@
       </c>
       <c r="G15">
         <f>RTD("ontrade.quotes",,"SSE",C15,"last")</f>
-        <v>302.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="H15" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C15,"open")/RTD("ontrade.quotes",,"SSE",C15,"lastvalidprevclose")-1</f>
-        <v>-3.2829940906106136E-3</v>
+        <v>-1</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
@@ -1493,11 +1493,11 @@
       </c>
       <c r="K15">
         <f>RTD("ontrade.quotes",,"SSE",C15,"low")</f>
-        <v>299.39999999999998</v>
+        <v>0</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Lows</v>
       </c>
       <c r="M15" t="str">
         <f>IF(H15&lt;0,IF(I15&lt;0.02,IF(F15&gt;1.5*J15,IF(K15&lt;E15,-1,""),""),""),"")</f>

--- a/New highs and lows.xlsx
+++ b/New highs and lows.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\GitHub\Growth-stock-high-volume-short\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/115e5277c8eb1d13/Documents/GitHub/Growth-stock-high-volume-short/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BE223EC-B2DD-4937-8E52-1FBAF0B84487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{8BE223EC-B2DD-4937-8E52-1FBAF0B84487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{498E70EE-5909-41C7-A58D-F9E24B7568EA}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{56CA8ECF-8D06-4762-A8AA-5F67DF2C767F}"/>
+    <workbookView xWindow="5160" yWindow="3285" windowWidth="28800" windowHeight="15885" xr2:uid="{56CA8ECF-8D06-4762-A8AA-5F67DF2C767F}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>High</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>Short indicator</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
 </sst>
 </file>
@@ -162,9 +159,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
+    <cellStyle name="Tusental" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -206,7 +203,7 @@
   <volType type="realTimeData">
     <main first="ontrade.quotes">
       <tp>
-        <v>361.3</v>
+        <v>368.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -214,7 +211,15 @@
         <tr r="K5" s="1"/>
       </tp>
       <tp>
-        <v>1218</v>
+        <v>370.20000000000005</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>LATO B</stp>
+        <stp>mid</stp>
+        <tr r="G5" s="1"/>
+      </tp>
+      <tp>
+        <v>1233</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -222,23 +227,15 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>113.1</v>
-        <stp/>
-        <stp>SSE</stp>
-        <stp>SINCH</stp>
-        <stp>last</stp>
-        <tr r="G4" s="1"/>
-      </tp>
-      <tp>
-        <v>1233</v>
-        <stp/>
-        <stp>SSE</stp>
-        <stp>MIPS</stp>
-        <stp>last</stp>
-        <tr r="G9" s="1"/>
-      </tp>
-      <tp>
-        <v>134.30000000000001</v>
+        <v>653.4</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>BALD B</stp>
+        <stp>mid</stp>
+        <tr r="G14" s="1"/>
+      </tp>
+      <tp>
+        <v>135.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -246,7 +243,7 @@
         <tr r="K7" s="1"/>
       </tp>
       <tp>
-        <v>643.79999999999995</v>
+        <v>650.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -254,7 +251,15 @@
         <tr r="K14" s="1"/>
       </tp>
       <tp>
-        <v>299.39999999999998</v>
+        <v>136.75</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>NIBE B</stp>
+        <stp>mid</stp>
+        <tr r="G7" s="1"/>
+      </tp>
+      <tp>
+        <v>301.39999999999998</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -262,7 +267,15 @@
         <tr r="K15" s="1"/>
       </tp>
       <tp>
-        <v>115.14999999999999</v>
+        <v>305</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>SAGA B</stp>
+        <stp>mid</stp>
+        <tr r="G15" s="1"/>
+      </tp>
+      <tp>
+        <v>113.1</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -270,7 +283,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>114.64999999999999</v>
+        <v>113.25</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -278,7 +291,15 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>64.16</v>
+        <v>65.27000000000001</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>SBB B</stp>
+        <stp>mid</stp>
+        <tr r="G13" s="1"/>
+      </tp>
+      <tp>
+        <v>65.11999999999999</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -286,7 +307,7 @@
         <tr r="K13" s="1"/>
       </tp>
       <tp>
-        <v>65.38</v>
+        <v>65.61999999999999</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -294,7 +315,23 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>112.05</v>
+        <v>112.675</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>SINCH</stp>
+        <stp>mid</stp>
+        <tr r="G4" s="1"/>
+      </tp>
+      <tp>
+        <v>319.52499999999998</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>KINV B</stp>
+        <stp>mid</stp>
+        <tr r="G6" s="1"/>
+      </tp>
+      <tp>
+        <v>112.55</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -302,7 +339,7 @@
         <tr r="K4" s="1"/>
       </tp>
       <tp>
-        <v>316.2</v>
+        <v>317.85000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -310,7 +347,7 @@
         <tr r="K6" s="1"/>
       </tp>
       <tp>
-        <v>1220</v>
+        <v>1233</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -318,7 +355,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>173</v>
+        <v>176.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -326,7 +363,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>499.6</v>
+        <v>491</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -334,7 +371,7 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>1260</v>
+        <v>1235.5999999999999</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -342,7 +379,15 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>160.30000000000001</v>
+        <v>161.125</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>STORY B</stp>
+        <stp>mid</stp>
+        <tr r="G10" s="1"/>
+      </tp>
+      <tp>
+        <v>161.05000000000001</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -350,7 +395,7 @@
         <tr r="K10" s="1"/>
       </tp>
       <tp>
-        <v>48.2</v>
+        <v>47.32</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -358,39 +403,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>319.65000000000003</v>
-        <stp/>
-        <stp>SSE</stp>
-        <stp>KINV B</stp>
-        <stp>last</stp>
-        <tr r="G6" s="1"/>
-      </tp>
-      <tp>
-        <v>368.1</v>
-        <stp/>
-        <stp>SSE</stp>
-        <stp>LATO B</stp>
-        <stp>last</stp>
-        <tr r="G5" s="1"/>
-      </tp>
-      <tp>
-        <v>135.95000000000002</v>
-        <stp/>
-        <stp>SSE</stp>
-        <stp>NIBE B</stp>
-        <stp>last</stp>
-        <tr r="G7" s="1"/>
-      </tp>
-      <tp>
-        <v>651.4</v>
-        <stp/>
-        <stp>SSE</stp>
-        <stp>BALD B</stp>
-        <stp>last</stp>
-        <tr r="G14" s="1"/>
-      </tp>
-      <tp>
-        <v>303.60000000000002</v>
+        <v>302.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -398,15 +411,15 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>161.85000000000002</v>
-        <stp/>
-        <stp>SSE</stp>
-        <stp>STORY B</stp>
-        <stp>last</stp>
-        <tr r="G10" s="1"/>
-      </tp>
-      <tp>
-        <v>46.82</v>
+        <v>47.41</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>SF</stp>
+        <stp>mid</stp>
+        <tr r="G11" s="1"/>
+      </tp>
+      <tp>
+        <v>46.96</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -414,7 +427,7 @@
         <tr r="K11" s="1"/>
       </tp>
       <tp>
-        <v>318</v>
+        <v>318.95</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -422,7 +435,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>364</v>
+        <v>368.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -430,7 +443,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>135.05000000000001</v>
+        <v>135.95000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -438,15 +451,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>302.60000000000002</v>
-        <stp/>
-        <stp>SSE</stp>
-        <stp>SAGA B</stp>
-        <stp>last</stp>
-        <tr r="G15" s="1"/>
-      </tp>
-      <tp>
-        <v>652.4</v>
+        <v>650.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -454,7 +459,7 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>162.19999999999999</v>
+        <v>161.85000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -462,7 +467,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>490.8</v>
+        <v>489.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -470,7 +475,7 @@
         <tr r="K8" s="1"/>
       </tp>
       <tp>
-        <v>1226</v>
+        <v>1234</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -478,23 +483,23 @@
         <tr r="K3" s="1"/>
       </tp>
       <tp>
-        <v>65.61999999999999</v>
-        <stp/>
-        <stp>SSE</stp>
-        <stp>SBB B</stp>
-        <stp>last</stp>
-        <tr r="G13" s="1"/>
-      </tp>
-      <tp>
-        <v>1235.5999999999999</v>
+        <v>1251.3</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
-        <stp>last</stp>
+        <stp>mid</stp>
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>363.9</v>
+        <v>493.35</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>EQT</stp>
+        <stp>mid</stp>
+        <tr r="G8" s="1"/>
+      </tp>
+      <tp>
+        <v>368.1</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -502,7 +507,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>47.9</v>
+        <v>47.32</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -510,7 +515,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>173</v>
+        <v>174</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -518,15 +523,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>491</v>
-        <stp/>
-        <stp>SSE</stp>
-        <stp>EQT</stp>
-        <stp>last</stp>
-        <tr r="G8" s="1"/>
-      </tp>
-      <tp>
-        <v>318.2</v>
+        <v>319.65000000000003</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -534,7 +531,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>65.28</v>
+        <v>65.7</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -542,7 +539,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>652.79999999999995</v>
+        <v>651.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -550,7 +547,15 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>162.55000000000001</v>
+        <v>177.85</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>PDX</stp>
+        <stp>mid</stp>
+        <tr r="G12" s="1"/>
+      </tp>
+      <tp>
+        <v>161.85000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -558,7 +563,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>172.6</v>
+        <v>174</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -566,7 +571,7 @@
         <tr r="K12" s="1"/>
       </tp>
       <tp>
-        <v>1255.2</v>
+        <v>1237.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -574,7 +579,7 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>304.60000000000002</v>
+        <v>302.60000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -582,7 +587,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>1212</v>
+        <v>1220</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -590,23 +595,15 @@
         <tr r="K9" s="1"/>
       </tp>
       <tp>
-        <v>176.5</v>
-        <stp/>
-        <stp>SSE</stp>
-        <stp>PDX</stp>
-        <stp>last</stp>
-        <tr r="G12" s="1"/>
-      </tp>
-      <tp>
-        <v>47.32</v>
-        <stp/>
-        <stp>SSE</stp>
-        <stp>SF</stp>
-        <stp>last</stp>
-        <tr r="G11" s="1"/>
-      </tp>
-      <tp>
-        <v>135.05000000000001</v>
+        <v>1222.5</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>MIPS</stp>
+        <stp>mid</stp>
+        <tr r="G9" s="1"/>
+      </tp>
+      <tp>
+        <v>135.95000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -614,7 +611,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>500</v>
+        <v>491.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -627,7 +624,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -923,21 +920,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268B5E47-AB21-40CD-8773-87AC1EA351F0}">
-  <dimension ref="B2:M15"/>
+  <dimension ref="C2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.81640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.85546875" style="2" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -969,78 +966,78 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>1268</v>
+        <v>1253.8</v>
       </c>
       <c r="E3">
-        <v>1248.5999999999999</v>
+        <v>1234</v>
       </c>
       <c r="F3">
-        <v>35148</v>
+        <v>51518</v>
       </c>
       <c r="G3">
-        <f>RTD("ontrade.quotes",,"SSE",C3,"last")</f>
-        <v>1235.5999999999999</v>
+        <f>RTD("ontrade.quotes",,"SSE",C3,"mid")</f>
+        <v>1251.3</v>
       </c>
       <c r="H3" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C3,"open")/RTD("ontrade.quotes",,"SSE",C3,"lastvalidprevclose")-1</f>
-        <v>-3.8095238095238182E-3</v>
+        <v>1.2949174490126669E-3</v>
       </c>
       <c r="I3" s="1">
         <f>(D3-E3)/AVERAGE(D3:E3)</f>
-        <v>1.5417626957005557E-2</v>
+        <v>1.5917678269957353E-2</v>
       </c>
       <c r="J3" s="3">
         <v>202163.6</v>
       </c>
       <c r="K3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"low")</f>
-        <v>1226</v>
+        <v>1234</v>
       </c>
       <c r="L3" t="str">
         <f>IF(G3&lt;E3,"Lows",IF(G3&gt;D3,"Highs",""))</f>
-        <v>Lows</v>
+        <v/>
       </c>
       <c r="M3" t="str">
         <f>IF(H3&lt;0,IF(I3&lt;0.02,IF(F3&gt;1.5*J3,IF(K3&lt;E3,-1,""),""),""),"")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4">
-        <v>115.2</v>
+        <v>113.7</v>
       </c>
       <c r="E4">
-        <v>114.15</v>
+        <v>112.8</v>
       </c>
       <c r="F4">
-        <v>112180</v>
+        <v>171377</v>
       </c>
       <c r="G4">
-        <f>RTD("ontrade.quotes",,"SSE",C4,"last")</f>
-        <v>113.1</v>
+        <f>RTD("ontrade.quotes",,"SSE",C4,"mid")</f>
+        <v>112.675</v>
       </c>
       <c r="H4" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C4,"open")/RTD("ontrade.quotes",,"SSE",C4,"lastvalidprevclose")-1</f>
-        <v>-4.3421623968736833E-3</v>
+        <v>1.3262599469496816E-3</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I15" si="0">(D4-E4)/AVERAGE(D4:E4)</f>
-        <v>9.1563113145846694E-3</v>
+        <v>7.9470198675497192E-3</v>
       </c>
       <c r="J4" s="3">
         <v>215808.25</v>
       </c>
       <c r="K4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"low")</f>
-        <v>112.05</v>
+        <v>112.55</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" ref="L4:L15" si="1">IF(G4&lt;E4,"Lows",IF(G4&gt;D4,"Highs",""))</f>
@@ -1051,104 +1048,104 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>365.2</v>
+        <v>371.6</v>
       </c>
       <c r="E5">
-        <v>361.3</v>
+        <v>368.8</v>
       </c>
       <c r="F5">
-        <v>15366</v>
+        <v>14892</v>
       </c>
       <c r="G5">
-        <f>RTD("ontrade.quotes",,"SSE",C5,"last")</f>
-        <v>368.1</v>
+        <f>RTD("ontrade.quotes",,"SSE",C5,"mid")</f>
+        <v>370.20000000000005</v>
       </c>
       <c r="H5" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C5,"open")/RTD("ontrade.quotes",,"SSE",C5,"lastvalidprevclose")-1</f>
-        <v>2.7480076944219611E-4</v>
+        <v>1.901657158380754E-3</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>1.0736407432897391E-2</v>
+        <v>7.5634792004322287E-3</v>
       </c>
       <c r="J5" s="3">
         <v>16930</v>
       </c>
       <c r="K5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"low")</f>
-        <v>361.3</v>
+        <v>368.8</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v/>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>319.07</v>
+        <v>320</v>
       </c>
       <c r="E6">
-        <v>316.2</v>
+        <v>317.85000000000002</v>
       </c>
       <c r="F6">
-        <v>18332</v>
+        <v>27745</v>
       </c>
       <c r="G6">
-        <f>RTD("ontrade.quotes",,"SSE",C6,"last")</f>
-        <v>319.65000000000003</v>
+        <f>RTD("ontrade.quotes",,"SSE",C6,"mid")</f>
+        <v>319.52499999999998</v>
       </c>
       <c r="H6" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C6,"open")/RTD("ontrade.quotes",,"SSE",C6,"lastvalidprevclose")-1</f>
-        <v>-6.2853551225638959E-4</v>
+        <v>-2.1898951978728265E-3</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>9.0355282006076305E-3</v>
+        <v>6.7413968801441626E-3</v>
       </c>
       <c r="J6" s="3">
         <v>38485.050000000003</v>
       </c>
       <c r="K6">
         <f>RTD("ontrade.quotes",,"SSE",C6,"low")</f>
-        <v>316.2</v>
+        <v>317.85000000000002</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v/>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7">
-        <v>135.44999999999999</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="E7">
-        <v>134.30000000000001</v>
+        <v>135.5</v>
       </c>
       <c r="F7">
-        <v>57183</v>
+        <v>69510</v>
       </c>
       <c r="G7">
-        <f>RTD("ontrade.quotes",,"SSE",C7,"last")</f>
-        <v>135.95000000000002</v>
+        <f>RTD("ontrade.quotes",,"SSE",C7,"mid")</f>
+        <v>136.75</v>
       </c>
       <c r="H7" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C7,"open")/RTD("ontrade.quotes",,"SSE",C7,"lastvalidprevclose")-1</f>
@@ -1156,219 +1153,219 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>8.5264133456902855E-3</v>
+        <v>1.2467913458012386E-2</v>
       </c>
       <c r="J7" s="3">
         <v>95202.2</v>
       </c>
       <c r="K7">
         <f>RTD("ontrade.quotes",,"SSE",C7,"low")</f>
-        <v>134.30000000000001</v>
+        <v>135.5</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v/>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8">
-        <v>507</v>
+        <v>494.5</v>
       </c>
       <c r="E8">
-        <v>500</v>
+        <v>489.5</v>
       </c>
       <c r="F8">
-        <v>16988</v>
+        <v>17145</v>
       </c>
       <c r="G8">
-        <f>RTD("ontrade.quotes",,"SSE",C8,"last")</f>
-        <v>491</v>
+        <f>RTD("ontrade.quotes",,"SSE",C8,"mid")</f>
+        <v>493.35</v>
       </c>
       <c r="H8" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C8,"open")/RTD("ontrade.quotes",,"SSE",C8,"lastvalidprevclose")-1</f>
-        <v>8.0064051240991141E-4</v>
+        <v>1.8329938900203402E-3</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>1.3902681231380337E-2</v>
+        <v>1.016260162601626E-2</v>
       </c>
       <c r="J8" s="3">
         <v>48306.8</v>
       </c>
       <c r="K8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"low")</f>
-        <v>490.8</v>
+        <v>489.5</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v/>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>1228</v>
+        <v>1239</v>
       </c>
       <c r="E9">
-        <v>1212</v>
+        <v>1220</v>
       </c>
       <c r="F9">
-        <v>1154</v>
+        <v>1129</v>
       </c>
       <c r="G9">
-        <f>RTD("ontrade.quotes",,"SSE",C9,"last")</f>
-        <v>1233</v>
+        <f>RTD("ontrade.quotes",,"SSE",C9,"mid")</f>
+        <v>1222.5</v>
       </c>
       <c r="H9" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C9,"open")/RTD("ontrade.quotes",,"SSE",C9,"lastvalidprevclose")-1</f>
-        <v>1.6420361247948545E-3</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>1.3114754098360656E-2</v>
+        <v>1.5453436356242375E-2</v>
       </c>
       <c r="J9" s="3">
         <v>2296.6</v>
       </c>
       <c r="K9">
         <f>RTD("ontrade.quotes",,"SSE",C9,"low")</f>
-        <v>1212</v>
+        <v>1220</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v/>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10">
-        <v>163.6</v>
+        <v>162.5</v>
       </c>
       <c r="E10">
-        <v>161.1</v>
+        <v>161.80000000000001</v>
       </c>
       <c r="F10">
-        <v>12650</v>
+        <v>7876</v>
       </c>
       <c r="G10">
-        <f>RTD("ontrade.quotes",,"SSE",C10,"last")</f>
-        <v>161.85000000000002</v>
+        <f>RTD("ontrade.quotes",,"SSE",C10,"mid")</f>
+        <v>161.125</v>
       </c>
       <c r="H10" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C10,"open")/RTD("ontrade.quotes",,"SSE",C10,"lastvalidprevclose")-1</f>
-        <v>-2.1531836358045231E-3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>1.5398829688943641E-2</v>
+        <v>4.316990440949668E-3</v>
       </c>
       <c r="J10" s="3">
         <v>19138.599999999999</v>
       </c>
       <c r="K10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"low")</f>
-        <v>160.30000000000001</v>
+        <v>161.05000000000001</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Lows</v>
       </c>
       <c r="M10" t="str">
         <f>IF(H10&lt;0,IF(I10&lt;0.02,IF(F10&gt;1.5*J10,IF(K10&lt;E10,-1,""),""),""),"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11">
-        <v>48.08</v>
+        <v>47.58</v>
       </c>
       <c r="E11">
-        <v>47.5</v>
+        <v>46.96</v>
       </c>
       <c r="F11">
-        <v>83051</v>
+        <v>31490</v>
       </c>
       <c r="G11">
-        <f>RTD("ontrade.quotes",,"SSE",C11,"last")</f>
-        <v>47.32</v>
+        <f>RTD("ontrade.quotes",,"SSE",C11,"mid")</f>
+        <v>47.41</v>
       </c>
       <c r="H11" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C11,"open")/RTD("ontrade.quotes",,"SSE",C11,"lastvalidprevclose")-1</f>
-        <v>-6.2240663900415827E-3</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>1.2136430215526225E-2</v>
+        <v>1.3116141315845093E-2</v>
       </c>
       <c r="J11" s="3">
         <v>76804.25</v>
       </c>
       <c r="K11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"low")</f>
-        <v>46.82</v>
+        <v>46.96</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v/>
       </c>
       <c r="M11" t="str">
         <f>IF(H11&lt;0,IF(I11&lt;0.02,IF(F11&gt;1.5*J11,IF(K11&lt;E11,-1,""),""),""),"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12">
+        <v>177.6</v>
+      </c>
+      <c r="E12">
         <v>174</v>
       </c>
-      <c r="E12">
-        <v>172.6</v>
-      </c>
       <c r="F12">
-        <v>2930</v>
+        <v>3833</v>
       </c>
       <c r="G12">
-        <f>RTD("ontrade.quotes",,"SSE",C12,"last")</f>
-        <v>176.5</v>
+        <f>RTD("ontrade.quotes",,"SSE",C12,"mid")</f>
+        <v>177.85</v>
       </c>
       <c r="H12" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C12,"open")/RTD("ontrade.quotes",,"SSE",C12,"lastvalidprevclose")-1</f>
-        <v>0</v>
+        <v>-1.4164305949008527E-2</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>8.0784766301212098E-3</v>
+        <v>2.0477815699658668E-2</v>
       </c>
       <c r="J12" s="3">
         <v>9680.2999999999993</v>
       </c>
       <c r="K12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"low")</f>
-        <v>172.6</v>
+        <v>174</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
@@ -1379,126 +1376,123 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13">
-        <v>65.319999999999993</v>
+        <v>65.7</v>
       </c>
       <c r="E13">
-        <v>64.16</v>
+        <v>65.12</v>
       </c>
       <c r="F13">
-        <v>330928</v>
+        <v>170779</v>
       </c>
       <c r="G13">
-        <f>RTD("ontrade.quotes",,"SSE",C13,"last")</f>
-        <v>65.61999999999999</v>
+        <f>RTD("ontrade.quotes",,"SSE",C13,"mid")</f>
+        <v>65.27000000000001</v>
       </c>
       <c r="H13" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C13,"open")/RTD("ontrade.quotes",,"SSE",C13,"lastvalidprevclose")-1</f>
-        <v>-1.5295197308043962E-3</v>
+        <v>1.2191405059434057E-3</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>1.7917825146740757E-2</v>
+        <v>8.867145696376675E-3</v>
       </c>
       <c r="J13" s="3">
         <v>352084.65</v>
       </c>
       <c r="K13">
         <f>RTD("ontrade.quotes",,"SSE",C13,"low")</f>
-        <v>64.16</v>
+        <v>65.11999999999999</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v/>
       </c>
       <c r="M13" t="str">
         <f>IF(H13&lt;0,IF(I13&lt;0.02,IF(F13&gt;1.5*J13,IF(K13&lt;E13,-1,""),""),""),"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14">
-        <v>653</v>
+        <v>653.1</v>
       </c>
       <c r="E14">
-        <v>649.6</v>
+        <v>650.4</v>
       </c>
       <c r="F14">
-        <v>2023</v>
+        <v>3949</v>
       </c>
       <c r="G14">
-        <f>RTD("ontrade.quotes",,"SSE",C14,"last")</f>
-        <v>651.4</v>
+        <f>RTD("ontrade.quotes",,"SSE",C14,"mid")</f>
+        <v>653.4</v>
       </c>
       <c r="H14" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C14,"open")/RTD("ontrade.quotes",,"SSE",C14,"lastvalidprevclose")-1</f>
-        <v>-6.1274509803921351E-4</v>
+        <v>-1.228124040528078E-3</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>5.2203285736219527E-3</v>
+        <v>4.1426927502877572E-3</v>
       </c>
       <c r="J14" s="3">
         <v>5380.85</v>
       </c>
       <c r="K14">
         <f>RTD("ontrade.quotes",,"SSE",C14,"low")</f>
-        <v>643.79999999999995</v>
+        <v>650.4</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Highs</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15">
-        <v>304.10000000000002</v>
+        <v>304</v>
       </c>
       <c r="E15">
         <v>301.39999999999998</v>
       </c>
       <c r="F15">
-        <v>10057</v>
+        <v>6159</v>
       </c>
       <c r="G15">
-        <f>RTD("ontrade.quotes",,"SSE",C15,"last")</f>
-        <v>302.60000000000002</v>
+        <f>RTD("ontrade.quotes",,"SSE",C15,"mid")</f>
+        <v>305</v>
       </c>
       <c r="H15" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C15,"open")/RTD("ontrade.quotes",,"SSE",C15,"lastvalidprevclose")-1</f>
-        <v>-3.2829940906106136E-3</v>
+        <v>-1.3218770654330747E-3</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
-        <v>8.9182493806772758E-3</v>
+        <v>8.589362405021549E-3</v>
       </c>
       <c r="J15" s="3">
         <v>22187.65</v>
       </c>
       <c r="K15">
         <f>RTD("ontrade.quotes",,"SSE",C15,"low")</f>
-        <v>299.39999999999998</v>
+        <v>301.39999999999998</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Highs</v>
       </c>
       <c r="M15" t="str">
         <f>IF(H15&lt;0,IF(I15&lt;0.02,IF(F15&gt;1.5*J15,IF(K15&lt;E15,-1,""),""),""),"")</f>

--- a/New highs and lows.xlsx
+++ b/New highs and lows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/115e5277c8eb1d13/Documents/GitHub/Growth-stock-high-volume-short/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{8BE223EC-B2DD-4937-8E52-1FBAF0B84487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{498E70EE-5909-41C7-A58D-F9E24B7568EA}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{8BE223EC-B2DD-4937-8E52-1FBAF0B84487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC3F799C-9969-42A3-B84D-723E06A61133}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="3285" windowWidth="28800" windowHeight="15885" xr2:uid="{56CA8ECF-8D06-4762-A8AA-5F67DF2C767F}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15885" xr2:uid="{56CA8ECF-8D06-4762-A8AA-5F67DF2C767F}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>SAGA B</t>
   </si>
   <si>
-    <t>Last</t>
-  </si>
-  <si>
     <t>Opening range pct</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>Short indicator</t>
+  </si>
+  <si>
+    <t>Mid</t>
   </si>
 </sst>
 </file>
@@ -203,7 +203,7 @@
   <volType type="realTimeData">
     <main first="ontrade.quotes">
       <tp>
-        <v>368.8</v>
+        <v>360</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -211,7 +211,7 @@
         <tr r="K5" s="1"/>
       </tp>
       <tp>
-        <v>370.20000000000005</v>
+        <v>362.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -219,7 +219,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>1233</v>
+        <v>1204</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -227,7 +227,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>653.4</v>
+        <v>649.20000000000005</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -235,7 +235,7 @@
         <tr r="G14" s="1"/>
       </tp>
       <tp>
-        <v>135.5</v>
+        <v>128.95000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -243,7 +243,7 @@
         <tr r="K7" s="1"/>
       </tp>
       <tp>
-        <v>650.4</v>
+        <v>647</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -251,7 +251,7 @@
         <tr r="K14" s="1"/>
       </tp>
       <tp>
-        <v>136.75</v>
+        <v>129.69999999999999</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -259,7 +259,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>301.39999999999998</v>
+        <v>296.39999999999998</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -267,7 +267,7 @@
         <tr r="K15" s="1"/>
       </tp>
       <tp>
-        <v>305</v>
+        <v>297</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -275,7 +275,7 @@
         <tr r="G15" s="1"/>
       </tp>
       <tp>
-        <v>113.1</v>
+        <v>115.55</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -283,7 +283,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>113.25</v>
+        <v>115.85</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -291,7 +291,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>65.27000000000001</v>
+        <v>65.58</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -299,7 +299,7 @@
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>65.11999999999999</v>
+        <v>65.400000000000006</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -307,7 +307,7 @@
         <tr r="K13" s="1"/>
       </tp>
       <tp>
-        <v>65.61999999999999</v>
+        <v>66.36</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -315,7 +315,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>112.675</v>
+        <v>110.64999999999999</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -323,7 +323,7 @@
         <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>319.52499999999998</v>
+        <v>316</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -331,7 +331,7 @@
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>112.55</v>
+        <v>110.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -339,7 +339,7 @@
         <tr r="K4" s="1"/>
       </tp>
       <tp>
-        <v>317.85000000000002</v>
+        <v>314</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -347,7 +347,7 @@
         <tr r="K6" s="1"/>
       </tp>
       <tp>
-        <v>1233</v>
+        <v>1211</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -355,7 +355,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>176.5</v>
+        <v>183.3</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -363,7 +363,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>491</v>
+        <v>494.1</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -371,7 +371,7 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>1235.5999999999999</v>
+        <v>1282.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -379,7 +379,7 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>161.125</v>
+        <v>162.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -387,7 +387,7 @@
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>161.05000000000001</v>
+        <v>162.19999999999999</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -395,7 +395,7 @@
         <tr r="K10" s="1"/>
       </tp>
       <tp>
-        <v>47.32</v>
+        <v>52.1</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -403,7 +403,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>302.2</v>
+        <v>307.39999999999998</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -411,7 +411,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>47.41</v>
+        <v>50.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -419,7 +419,7 @@
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>46.96</v>
+        <v>50.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -427,7 +427,7 @@
         <tr r="K11" s="1"/>
       </tp>
       <tp>
-        <v>318.95</v>
+        <v>322.10000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -435,7 +435,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>368.8</v>
+        <v>365.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -443,7 +443,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>135.95000000000002</v>
+        <v>132.1</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -451,7 +451,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>650.6</v>
+        <v>657</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -459,7 +459,7 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>161.85000000000002</v>
+        <v>173.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -467,7 +467,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>489.5</v>
+        <v>481.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -475,7 +475,7 @@
         <tr r="K8" s="1"/>
       </tp>
       <tp>
-        <v>1234</v>
+        <v>1268.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -483,7 +483,7 @@
         <tr r="K3" s="1"/>
       </tp>
       <tp>
-        <v>1251.3</v>
+        <v>1282</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -491,7 +491,7 @@
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>493.35</v>
+        <v>485.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -499,7 +499,7 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>368.1</v>
+        <v>364.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -507,7 +507,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>47.32</v>
+        <v>52.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -515,7 +515,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>174</v>
+        <v>183.3</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -523,7 +523,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>319.65000000000003</v>
+        <v>321.25</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -531,7 +531,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>65.7</v>
+        <v>66.78</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -539,7 +539,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>651.4</v>
+        <v>655</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -547,7 +547,7 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>177.85</v>
+        <v>178</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -555,7 +555,7 @@
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>161.85000000000002</v>
+        <v>173.35000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -563,7 +563,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>174</v>
+        <v>177.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -571,7 +571,7 @@
         <tr r="K12" s="1"/>
       </tp>
       <tp>
-        <v>1237.2</v>
+        <v>1299.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -579,7 +579,7 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>302.60000000000002</v>
+        <v>304.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -587,7 +587,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>1220</v>
+        <v>1173</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -595,7 +595,7 @@
         <tr r="K9" s="1"/>
       </tp>
       <tp>
-        <v>1222.5</v>
+        <v>1176</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -603,7 +603,7 @@
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>135.95000000000002</v>
+        <v>131.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -611,7 +611,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>491.9</v>
+        <v>496.1</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -923,7 +923,7 @@
   <dimension ref="C2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,25 +945,25 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" t="s">
         <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="3:13" x14ac:dyDescent="0.25">
@@ -971,36 +971,36 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>1253.8</v>
+        <v>1307</v>
       </c>
       <c r="E3">
-        <v>1234</v>
+        <v>1282.8</v>
       </c>
       <c r="F3">
-        <v>51518</v>
+        <v>84114</v>
       </c>
       <c r="G3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"mid")</f>
-        <v>1251.3</v>
+        <v>1282</v>
       </c>
       <c r="H3" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C3,"open")/RTD("ontrade.quotes",,"SSE",C3,"lastvalidprevclose")-1</f>
-        <v>1.2949174490126669E-3</v>
+        <v>1.3252260679762928E-2</v>
       </c>
       <c r="I3" s="1">
         <f>(D3-E3)/AVERAGE(D3:E3)</f>
-        <v>1.5917678269957353E-2</v>
+        <v>1.8688701830257195E-2</v>
       </c>
       <c r="J3" s="3">
-        <v>202163.6</v>
+        <v>213391.05</v>
       </c>
       <c r="K3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"low")</f>
-        <v>1234</v>
+        <v>1268.8</v>
       </c>
       <c r="L3" t="str">
         <f>IF(G3&lt;E3,"Lows",IF(G3&gt;D3,"Highs",""))</f>
-        <v/>
+        <v>Lows</v>
       </c>
       <c r="M3" t="str">
         <f>IF(H3&lt;0,IF(I3&lt;0.02,IF(F3&gt;1.5*J3,IF(K3&lt;E3,-1,""),""),""),"")</f>
@@ -1012,32 +1012,32 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>113.7</v>
+        <v>116.8</v>
       </c>
       <c r="E4">
-        <v>112.8</v>
+        <v>115.35</v>
       </c>
       <c r="F4">
-        <v>171377</v>
+        <v>199505</v>
       </c>
       <c r="G4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"mid")</f>
-        <v>112.675</v>
+        <v>110.64999999999999</v>
       </c>
       <c r="H4" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C4,"open")/RTD("ontrade.quotes",,"SSE",C4,"lastvalidprevclose")-1</f>
-        <v>1.3262599469496816E-3</v>
+        <v>2.5962786672435456E-3</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I15" si="0">(D4-E4)/AVERAGE(D4:E4)</f>
-        <v>7.9470198675497192E-3</v>
+        <v>1.2491923325436166E-2</v>
       </c>
       <c r="J4" s="3">
-        <v>215808.25</v>
+        <v>216755.6</v>
       </c>
       <c r="K4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"low")</f>
-        <v>112.55</v>
+        <v>110.5</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" ref="L4:L15" si="1">IF(G4&lt;E4,"Lows",IF(G4&gt;D4,"Highs",""))</f>
@@ -1053,36 +1053,36 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>371.6</v>
+        <v>369.1</v>
       </c>
       <c r="E5">
-        <v>368.8</v>
+        <v>365.8</v>
       </c>
       <c r="F5">
-        <v>14892</v>
+        <v>15152</v>
       </c>
       <c r="G5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"mid")</f>
-        <v>370.20000000000005</v>
+        <v>362.5</v>
       </c>
       <c r="H5" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C5,"open")/RTD("ontrade.quotes",,"SSE",C5,"lastvalidprevclose")-1</f>
-        <v>1.901657158380754E-3</v>
+        <v>3.8419319429199295E-3</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>7.5634792004322287E-3</v>
+        <v>8.9808137161518867E-3</v>
       </c>
       <c r="J5" s="3">
-        <v>16930</v>
+        <v>19527.05</v>
       </c>
       <c r="K5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"low")</f>
-        <v>368.8</v>
+        <v>360</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Lows</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="2"/>
@@ -1094,36 +1094,36 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E6">
-        <v>317.85000000000002</v>
+        <v>322.10000000000002</v>
       </c>
       <c r="F6">
-        <v>27745</v>
+        <v>33683</v>
       </c>
       <c r="G6">
         <f>RTD("ontrade.quotes",,"SSE",C6,"mid")</f>
-        <v>319.52499999999998</v>
+        <v>316</v>
       </c>
       <c r="H6" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C6,"open")/RTD("ontrade.quotes",,"SSE",C6,"lastvalidprevclose")-1</f>
-        <v>-2.1898951978728265E-3</v>
+        <v>2.6459143968873278E-3</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>6.7413968801441626E-3</v>
+        <v>8.9630659867098658E-3</v>
       </c>
       <c r="J6" s="3">
-        <v>38485.050000000003</v>
+        <v>38360.1</v>
       </c>
       <c r="K6">
         <f>RTD("ontrade.quotes",,"SSE",C6,"low")</f>
-        <v>317.85000000000002</v>
+        <v>314</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Lows</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="2"/>
@@ -1135,36 +1135,36 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>137.19999999999999</v>
+        <v>134.05000000000001</v>
       </c>
       <c r="E7">
-        <v>135.5</v>
+        <v>131.85</v>
       </c>
       <c r="F7">
-        <v>69510</v>
+        <v>131012</v>
       </c>
       <c r="G7">
         <f>RTD("ontrade.quotes",,"SSE",C7,"mid")</f>
-        <v>136.75</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="H7" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C7,"open")/RTD("ontrade.quotes",,"SSE",C7,"lastvalidprevclose")-1</f>
-        <v>0</v>
+        <v>4.5627376425854127E-3</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>1.2467913458012386E-2</v>
+        <v>1.6547574276043756E-2</v>
       </c>
       <c r="J7" s="3">
-        <v>95202.2</v>
+        <v>104127.3</v>
       </c>
       <c r="K7">
         <f>RTD("ontrade.quotes",,"SSE",C7,"low")</f>
-        <v>135.5</v>
+        <v>128.95000000000002</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Lows</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="2"/>
@@ -1176,36 +1176,36 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>494.5</v>
+        <v>498.8</v>
       </c>
       <c r="E8">
-        <v>489.5</v>
+        <v>492.4</v>
       </c>
       <c r="F8">
-        <v>17145</v>
+        <v>21857</v>
       </c>
       <c r="G8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"mid")</f>
-        <v>493.35</v>
+        <v>485.4</v>
       </c>
       <c r="H8" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C8,"open")/RTD("ontrade.quotes",,"SSE",C8,"lastvalidprevclose")-1</f>
-        <v>1.8329938900203402E-3</v>
+        <v>4.047763610605104E-3</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>1.016260162601626E-2</v>
+        <v>1.2913640032284169E-2</v>
       </c>
       <c r="J8" s="3">
-        <v>48306.8</v>
+        <v>51280.85</v>
       </c>
       <c r="K8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"low")</f>
-        <v>489.5</v>
+        <v>481.4</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Lows</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="2"/>
@@ -1220,33 +1220,33 @@
         <v>1239</v>
       </c>
       <c r="E9">
-        <v>1220</v>
+        <v>1206</v>
       </c>
       <c r="F9">
-        <v>1129</v>
+        <v>3408</v>
       </c>
       <c r="G9">
         <f>RTD("ontrade.quotes",,"SSE",C9,"mid")</f>
-        <v>1222.5</v>
+        <v>1176</v>
       </c>
       <c r="H9" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C9,"open")/RTD("ontrade.quotes",,"SSE",C9,"lastvalidprevclose")-1</f>
-        <v>0</v>
+        <v>5.8139534883721034E-3</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>1.5453436356242375E-2</v>
+        <v>2.6993865030674847E-2</v>
       </c>
       <c r="J9" s="3">
-        <v>2296.6</v>
+        <v>2546.35</v>
       </c>
       <c r="K9">
         <f>RTD("ontrade.quotes",,"SSE",C9,"low")</f>
-        <v>1220</v>
+        <v>1173</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Lows</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="2"/>
@@ -1258,32 +1258,32 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>162.5</v>
+        <v>174.6</v>
       </c>
       <c r="E10">
-        <v>161.80000000000001</v>
+        <v>173</v>
       </c>
       <c r="F10">
-        <v>7876</v>
+        <v>6001</v>
       </c>
       <c r="G10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"mid")</f>
-        <v>161.125</v>
+        <v>162.9</v>
       </c>
       <c r="H10" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C10,"open")/RTD("ontrade.quotes",,"SSE",C10,"lastvalidprevclose")-1</f>
-        <v>0</v>
+        <v>8.6530141332552546E-4</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>4.316990440949668E-3</v>
+        <v>9.2059838895281604E-3</v>
       </c>
       <c r="J10" s="3">
-        <v>19138.599999999999</v>
+        <v>20254.3</v>
       </c>
       <c r="K10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"low")</f>
-        <v>161.05000000000001</v>
+        <v>162.19999999999999</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
@@ -1299,36 +1299,36 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>47.58</v>
+        <v>52.6</v>
       </c>
       <c r="E11">
-        <v>46.96</v>
+        <v>51.6</v>
       </c>
       <c r="F11">
-        <v>31490</v>
+        <v>111567</v>
       </c>
       <c r="G11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"mid")</f>
-        <v>47.41</v>
+        <v>50.5</v>
       </c>
       <c r="H11" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C11,"open")/RTD("ontrade.quotes",,"SSE",C11,"lastvalidprevclose")-1</f>
-        <v>0</v>
+        <v>7.6775431861804133E-3</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>1.3116141315845093E-2</v>
+        <v>1.9193857965451054E-2</v>
       </c>
       <c r="J11" s="3">
-        <v>76804.25</v>
+        <v>80779.75</v>
       </c>
       <c r="K11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"low")</f>
-        <v>46.96</v>
+        <v>50.4</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Lows</v>
       </c>
       <c r="M11" t="str">
         <f>IF(H11&lt;0,IF(I11&lt;0.02,IF(F11&gt;1.5*J11,IF(K11&lt;E11,-1,""),""),""),"")</f>
@@ -1340,36 +1340,36 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>177.6</v>
+        <v>183.3</v>
       </c>
       <c r="E12">
-        <v>174</v>
+        <v>181.5</v>
       </c>
       <c r="F12">
-        <v>3833</v>
+        <v>5335</v>
       </c>
       <c r="G12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"mid")</f>
-        <v>177.85</v>
+        <v>178</v>
       </c>
       <c r="H12" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C12,"open")/RTD("ontrade.quotes",,"SSE",C12,"lastvalidprevclose")-1</f>
-        <v>-1.4164305949008527E-2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>2.0477815699658668E-2</v>
+        <v>9.8684210526316408E-3</v>
       </c>
       <c r="J12" s="3">
-        <v>9680.2999999999993</v>
+        <v>10111.6</v>
       </c>
       <c r="K12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"low")</f>
-        <v>174</v>
+        <v>177.6</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v>Lows</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="2"/>
@@ -1381,36 +1381,36 @@
         <v>13</v>
       </c>
       <c r="D13">
-        <v>65.7</v>
+        <v>67.06</v>
       </c>
       <c r="E13">
-        <v>65.12</v>
+        <v>66.28</v>
       </c>
       <c r="F13">
-        <v>170779</v>
+        <v>240518</v>
       </c>
       <c r="G13">
         <f>RTD("ontrade.quotes",,"SSE",C13,"mid")</f>
-        <v>65.27000000000001</v>
+        <v>65.58</v>
       </c>
       <c r="H13" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C13,"open")/RTD("ontrade.quotes",,"SSE",C13,"lastvalidprevclose")-1</f>
-        <v>1.2191405059434057E-3</v>
+        <v>6.3291139240506666E-3</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>8.867145696376675E-3</v>
+        <v>1.1699415029248554E-2</v>
       </c>
       <c r="J13" s="3">
-        <v>352084.65</v>
+        <v>370667.65</v>
       </c>
       <c r="K13">
         <f>RTD("ontrade.quotes",,"SSE",C13,"low")</f>
-        <v>65.11999999999999</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Lows</v>
       </c>
       <c r="M13" t="str">
         <f>IF(H13&lt;0,IF(I13&lt;0.02,IF(F13&gt;1.5*J13,IF(K13&lt;E13,-1,""),""),""),"")</f>
@@ -1422,36 +1422,36 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>653.1</v>
+        <v>661</v>
       </c>
       <c r="E14">
-        <v>650.4</v>
+        <v>656.4</v>
       </c>
       <c r="F14">
-        <v>3949</v>
+        <v>6386</v>
       </c>
       <c r="G14">
         <f>RTD("ontrade.quotes",,"SSE",C14,"mid")</f>
-        <v>653.4</v>
+        <v>649.20000000000005</v>
       </c>
       <c r="H14" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C14,"open")/RTD("ontrade.quotes",,"SSE",C14,"lastvalidprevclose")-1</f>
-        <v>-1.228124040528078E-3</v>
+        <v>3.0534351145037331E-3</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>4.1426927502877572E-3</v>
+        <v>6.983452254440599E-3</v>
       </c>
       <c r="J14" s="3">
-        <v>5380.85</v>
+        <v>5902.95</v>
       </c>
       <c r="K14">
         <f>RTD("ontrade.quotes",,"SSE",C14,"low")</f>
-        <v>650.4</v>
+        <v>647</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v>Lows</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="2"/>
@@ -1463,36 +1463,36 @@
         <v>15</v>
       </c>
       <c r="D15">
-        <v>304</v>
+        <v>308.8</v>
       </c>
       <c r="E15">
-        <v>301.39999999999998</v>
+        <v>305.60000000000002</v>
       </c>
       <c r="F15">
-        <v>6159</v>
+        <v>12754</v>
       </c>
       <c r="G15">
         <f>RTD("ontrade.quotes",,"SSE",C15,"mid")</f>
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="H15" s="1">
         <f>RTD("ontrade.quotes",,"SSE",C15,"open")/RTD("ontrade.quotes",,"SSE",C15,"lastvalidprevclose")-1</f>
-        <v>-1.3218770654330747E-3</v>
+        <v>8.5301837270339576E-3</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
-        <v>8.589362405021549E-3</v>
+        <v>1.0416666666666628E-2</v>
       </c>
       <c r="J15" s="3">
-        <v>22187.65</v>
+        <v>26226.95</v>
       </c>
       <c r="K15">
         <f>RTD("ontrade.quotes",,"SSE",C15,"low")</f>
-        <v>301.39999999999998</v>
+        <v>296.39999999999998</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v>Lows</v>
       </c>
       <c r="M15" t="str">
         <f>IF(H15&lt;0,IF(I15&lt;0.02,IF(F15&gt;1.5*J15,IF(K15&lt;E15,-1,""),""),""),"")</f>

--- a/New highs and lows.xlsx
+++ b/New highs and lows.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/115e5277c8eb1d13/Documents/GitHub/Growth-stock-high-volume-short/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\GitHub\Growth-stock-high-volume-short\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{8BE223EC-B2DD-4937-8E52-1FBAF0B84487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC3F799C-9969-42A3-B84D-723E06A61133}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56439094-4F3E-4295-81F0-A9B12512ACA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15885" xr2:uid="{56CA8ECF-8D06-4762-A8AA-5F67DF2C767F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{56CA8ECF-8D06-4762-A8AA-5F67DF2C767F}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -152,16 +152,17 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Procent" xfId="1" builtinId="5"/>
-    <cellStyle name="Tusental" xfId="2" builtinId="3"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -203,7 +204,7 @@
   <volType type="realTimeData">
     <main first="ontrade.quotes">
       <tp>
-        <v>360</v>
+        <v>355.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -211,7 +212,7 @@
         <tr r="K5" s="1"/>
       </tp>
       <tp>
-        <v>362.5</v>
+        <v>356.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -219,7 +220,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>1204</v>
+        <v>1176</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -227,7 +228,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>649.20000000000005</v>
+        <v>651.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -235,7 +236,7 @@
         <tr r="G14" s="1"/>
       </tp>
       <tp>
-        <v>128.95000000000002</v>
+        <v>127.85</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -243,7 +244,7 @@
         <tr r="K7" s="1"/>
       </tp>
       <tp>
-        <v>647</v>
+        <v>645.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -251,7 +252,7 @@
         <tr r="K14" s="1"/>
       </tp>
       <tp>
-        <v>129.69999999999999</v>
+        <v>128.90000000000003</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -259,7 +260,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>296.39999999999998</v>
+        <v>293.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -267,7 +268,7 @@
         <tr r="K15" s="1"/>
       </tp>
       <tp>
-        <v>297</v>
+        <v>295</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -275,7 +276,7 @@
         <tr r="G15" s="1"/>
       </tp>
       <tp>
-        <v>115.55</v>
+        <v>110.64999999999999</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -283,7 +284,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>115.85</v>
+        <v>110.85</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -291,7 +292,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>65.58</v>
+        <v>66.710000000000008</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -307,7 +308,7 @@
         <tr r="K13" s="1"/>
       </tp>
       <tp>
-        <v>66.36</v>
+        <v>65.58</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -315,7 +316,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>110.64999999999999</v>
+        <v>115.1</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -323,7 +324,7 @@
         <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>316</v>
+        <v>311.47500000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -331,7 +332,7 @@
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>110.5</v>
+        <v>110.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -339,7 +340,7 @@
         <tr r="K4" s="1"/>
       </tp>
       <tp>
-        <v>314</v>
+        <v>311.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -347,7 +348,7 @@
         <tr r="K6" s="1"/>
       </tp>
       <tp>
-        <v>1211</v>
+        <v>1179</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -355,7 +356,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>183.3</v>
+        <v>178</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -363,7 +364,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>494.1</v>
+        <v>485.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -371,7 +372,7 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>1282.8</v>
+        <v>1282</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -379,7 +380,7 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>162.9</v>
+        <v>162.77500000000001</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -387,7 +388,7 @@
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>162.19999999999999</v>
+        <v>162.15</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -395,7 +396,7 @@
         <tr r="K10" s="1"/>
       </tp>
       <tp>
-        <v>52.1</v>
+        <v>50.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -403,7 +404,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>307.39999999999998</v>
+        <v>297</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -411,7 +412,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>50.5</v>
+        <v>51.75</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -419,7 +420,7 @@
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>50.4</v>
+        <v>50.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -427,7 +428,7 @@
         <tr r="K11" s="1"/>
       </tp>
       <tp>
-        <v>322.10000000000002</v>
+        <v>317</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -435,7 +436,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>365.8</v>
+        <v>362.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -443,7 +444,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>132.1</v>
+        <v>129.85000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -451,7 +452,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>657</v>
+        <v>649.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -459,7 +460,7 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>173.5</v>
+        <v>162.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -467,7 +468,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>481.4</v>
+        <v>473.7</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -475,7 +476,7 @@
         <tr r="K8" s="1"/>
       </tp>
       <tp>
-        <v>1268.8</v>
+        <v>1271.5999999999999</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -483,7 +484,7 @@
         <tr r="K3" s="1"/>
       </tp>
       <tp>
-        <v>1282</v>
+        <v>1284</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -491,7 +492,7 @@
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>485.4</v>
+        <v>474.7</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -499,7 +500,7 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>364.4</v>
+        <v>362.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -507,7 +508,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>52.5</v>
+        <v>50.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -515,7 +516,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>183.3</v>
+        <v>178</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -523,7 +524,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>321.25</v>
+        <v>316</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -531,7 +532,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>66.78</v>
+        <v>65.740000000000009</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -539,7 +540,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>655</v>
+        <v>649.20000000000005</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -547,7 +548,7 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>178</v>
+        <v>176.85</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -555,7 +556,7 @@
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>173.35000000000002</v>
+        <v>162.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -563,7 +564,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>177.6</v>
+        <v>175.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -571,7 +572,7 @@
         <tr r="K12" s="1"/>
       </tp>
       <tp>
-        <v>1299.8</v>
+        <v>1285.5999999999999</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -579,7 +580,7 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>304.8</v>
+        <v>297</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -587,7 +588,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>1173</v>
+        <v>1160</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -595,7 +596,7 @@
         <tr r="K9" s="1"/>
       </tp>
       <tp>
-        <v>1176</v>
+        <v>1175</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -603,7 +604,7 @@
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>131.5</v>
+        <v>129.69999999999999</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -611,7 +612,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>496.1</v>
+        <v>486.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -624,7 +625,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -923,18 +924,18 @@
   <dimension ref="C2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.81640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -966,119 +967,119 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>1307</v>
+        <v>1289</v>
       </c>
       <c r="E3">
-        <v>1282.8</v>
+        <v>1271.5999999999999</v>
       </c>
       <c r="F3">
-        <v>84114</v>
+        <v>53191</v>
       </c>
       <c r="G3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"mid")</f>
-        <v>1282</v>
-      </c>
-      <c r="H3" s="1">
+        <v>1284</v>
+      </c>
+      <c r="H3" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C3,"open")/RTD("ontrade.quotes",,"SSE",C3,"lastvalidprevclose")-1</f>
-        <v>1.3252260679762928E-2</v>
+        <v>2.8081123244929618E-3</v>
       </c>
       <c r="I3" s="1">
         <f>(D3-E3)/AVERAGE(D3:E3)</f>
-        <v>1.8688701830257195E-2</v>
+        <v>1.3590564711395837E-2</v>
       </c>
       <c r="J3" s="3">
-        <v>213391.05</v>
+        <v>171992.2</v>
       </c>
       <c r="K3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"low")</f>
-        <v>1268.8</v>
+        <v>1271.5999999999999</v>
       </c>
       <c r="L3" t="str">
         <f>IF(G3&lt;E3,"Lows",IF(G3&gt;D3,"Highs",""))</f>
-        <v>Lows</v>
+        <v/>
       </c>
       <c r="M3" t="str">
-        <f>IF(H3&lt;0,IF(I3&lt;0.02,IF(F3&gt;1.5*J3,IF(K3&lt;E3,-1,""),""),""),"")</f>
+        <f>IF(H3&lt;=0,IF(I3&lt;0.02,IF(F3&gt;1.5*J3,IF(K3&lt;E3,-1,""),""),""),"")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4">
-        <v>116.8</v>
+        <v>112.75</v>
       </c>
       <c r="E4">
-        <v>115.35</v>
+        <v>110.8</v>
       </c>
       <c r="F4">
-        <v>199505</v>
+        <v>191407</v>
       </c>
       <c r="G4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"mid")</f>
-        <v>110.64999999999999</v>
-      </c>
-      <c r="H4" s="1">
+        <v>115.1</v>
+      </c>
+      <c r="H4" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"open")/RTD("ontrade.quotes",,"SSE",C4,"lastvalidprevclose")-1</f>
-        <v>2.5962786672435456E-3</v>
+        <v>1.8075011296883048E-3</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I15" si="0">(D4-E4)/AVERAGE(D4:E4)</f>
-        <v>1.2491923325436166E-2</v>
+        <v>1.744576157459184E-2</v>
       </c>
       <c r="J4" s="3">
-        <v>216755.6</v>
+        <v>199325.7</v>
       </c>
       <c r="K4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"low")</f>
-        <v>110.5</v>
+        <v>110.8</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" ref="L4:L15" si="1">IF(G4&lt;E4,"Lows",IF(G4&gt;D4,"Highs",""))</f>
-        <v>Lows</v>
+        <v>Highs</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ref="M4:M14" si="2">IF(H4&lt;0,IF(I4&lt;0.02,IF(F4&gt;1.5*J4,IF(K4&lt;E4,-1,""),""),""),"")</f>
+        <f t="shared" ref="M4:M15" si="2">IF(H4&lt;=0,IF(I4&lt;0.02,IF(F4&gt;1.5*J4,IF(K4&lt;E4,-1,""),""),""),"")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>369.1</v>
+        <v>364.7</v>
       </c>
       <c r="E5">
-        <v>365.8</v>
+        <v>360.8</v>
       </c>
       <c r="F5">
-        <v>15152</v>
+        <v>18446</v>
       </c>
       <c r="G5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"mid")</f>
-        <v>362.5</v>
-      </c>
-      <c r="H5" s="1">
+        <v>356.6</v>
+      </c>
+      <c r="H5" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C5,"open")/RTD("ontrade.quotes",,"SSE",C5,"lastvalidprevclose")-1</f>
-        <v>3.8419319429199295E-3</v>
+        <v>8.2758620689649121E-4</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>8.9808137161518867E-3</v>
+        <v>1.0751206064782845E-2</v>
       </c>
       <c r="J5" s="3">
-        <v>19527.05</v>
+        <v>16920</v>
       </c>
       <c r="K5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"low")</f>
-        <v>360</v>
+        <v>355.5</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
@@ -1089,37 +1090,37 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>325</v>
+        <v>318.35000000000002</v>
       </c>
       <c r="E6">
-        <v>322.10000000000002</v>
+        <v>314.2</v>
       </c>
       <c r="F6">
-        <v>33683</v>
+        <v>49669</v>
       </c>
       <c r="G6">
         <f>RTD("ontrade.quotes",,"SSE",C6,"mid")</f>
-        <v>316</v>
-      </c>
-      <c r="H6" s="1">
+        <v>311.47500000000002</v>
+      </c>
+      <c r="H6" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C6,"open")/RTD("ontrade.quotes",,"SSE",C6,"lastvalidprevclose")-1</f>
-        <v>2.6459143968873278E-3</v>
+        <v>3.1645569620253333E-3</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>8.9630659867098658E-3</v>
+        <v>1.3121492372144604E-2</v>
       </c>
       <c r="J6" s="3">
-        <v>38360.1</v>
+        <v>36267.75</v>
       </c>
       <c r="K6">
         <f>RTD("ontrade.quotes",,"SSE",C6,"low")</f>
-        <v>314</v>
+        <v>311.2</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
@@ -1130,37 +1131,37 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7">
-        <v>134.05000000000001</v>
+        <v>131.30000000000001</v>
       </c>
       <c r="E7">
-        <v>131.85</v>
+        <v>129.6</v>
       </c>
       <c r="F7">
-        <v>131012</v>
+        <v>80853</v>
       </c>
       <c r="G7">
         <f>RTD("ontrade.quotes",,"SSE",C7,"mid")</f>
-        <v>129.69999999999999</v>
-      </c>
-      <c r="H7" s="1">
+        <v>128.90000000000003</v>
+      </c>
+      <c r="H7" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C7,"open")/RTD("ontrade.quotes",,"SSE",C7,"lastvalidprevclose")-1</f>
-        <v>4.5627376425854127E-3</v>
+        <v>1.1565150346957154E-3</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>1.6547574276043756E-2</v>
+        <v>1.3031812955155363E-2</v>
       </c>
       <c r="J7" s="3">
-        <v>104127.3</v>
+        <v>77822.95</v>
       </c>
       <c r="K7">
         <f>RTD("ontrade.quotes",,"SSE",C7,"low")</f>
-        <v>128.95000000000002</v>
+        <v>127.85</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
@@ -1171,37 +1172,37 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8">
-        <v>498.8</v>
+        <v>491.1</v>
       </c>
       <c r="E8">
-        <v>492.4</v>
+        <v>483.5</v>
       </c>
       <c r="F8">
-        <v>21857</v>
+        <v>42068</v>
       </c>
       <c r="G8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"mid")</f>
-        <v>485.4</v>
-      </c>
-      <c r="H8" s="1">
+        <v>474.7</v>
+      </c>
+      <c r="H8" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C8,"open")/RTD("ontrade.quotes",,"SSE",C8,"lastvalidprevclose")-1</f>
-        <v>4.047763610605104E-3</v>
+        <v>3.0902348578492056E-3</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>1.2913640032284169E-2</v>
+        <v>1.5596142006977268E-2</v>
       </c>
       <c r="J8" s="3">
-        <v>51280.85</v>
+        <v>45933.9</v>
       </c>
       <c r="K8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"low")</f>
-        <v>481.4</v>
+        <v>473.7</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
@@ -1212,197 +1213,197 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>1239</v>
+        <v>1206</v>
       </c>
       <c r="E9">
-        <v>1206</v>
+        <v>1167</v>
       </c>
       <c r="F9">
-        <v>3408</v>
+        <v>3194</v>
       </c>
       <c r="G9">
         <f>RTD("ontrade.quotes",,"SSE",C9,"mid")</f>
-        <v>1176</v>
-      </c>
-      <c r="H9" s="1">
+        <v>1175</v>
+      </c>
+      <c r="H9" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C9,"open")/RTD("ontrade.quotes",,"SSE",C9,"lastvalidprevclose")-1</f>
-        <v>5.8139534883721034E-3</v>
+        <v>2.5510204081633514E-3</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>2.6993865030674847E-2</v>
+        <v>3.286978508217446E-2</v>
       </c>
       <c r="J9" s="3">
-        <v>2546.35</v>
+        <v>1956.9</v>
       </c>
       <c r="K9">
         <f>RTD("ontrade.quotes",,"SSE",C9,"low")</f>
-        <v>1173</v>
+        <v>1160</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v/>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10">
-        <v>174.6</v>
+        <v>165.35</v>
       </c>
       <c r="E10">
-        <v>173</v>
+        <v>162.15</v>
       </c>
       <c r="F10">
-        <v>6001</v>
+        <v>14830</v>
       </c>
       <c r="G10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"mid")</f>
-        <v>162.9</v>
-      </c>
-      <c r="H10" s="1">
+        <v>162.77500000000001</v>
+      </c>
+      <c r="H10" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C10,"open")/RTD("ontrade.quotes",,"SSE",C10,"lastvalidprevclose")-1</f>
-        <v>8.6530141332552546E-4</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>9.2059838895281604E-3</v>
+        <v>1.9541984732824359E-2</v>
       </c>
       <c r="J10" s="3">
-        <v>20254.3</v>
+        <v>17542.8</v>
       </c>
       <c r="K10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"low")</f>
-        <v>162.19999999999999</v>
+        <v>162.15</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v/>
       </c>
       <c r="M10" t="str">
-        <f>IF(H10&lt;0,IF(I10&lt;0.02,IF(F10&gt;1.5*J10,IF(K10&lt;E10,-1,""),""),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11">
-        <v>52.6</v>
+        <v>50.95</v>
       </c>
       <c r="E11">
-        <v>51.6</v>
+        <v>50.2</v>
       </c>
       <c r="F11">
-        <v>111567</v>
+        <v>94636</v>
       </c>
       <c r="G11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"mid")</f>
-        <v>50.5</v>
-      </c>
-      <c r="H11" s="1">
+        <v>51.75</v>
+      </c>
+      <c r="H11" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C11,"open")/RTD("ontrade.quotes",,"SSE",C11,"lastvalidprevclose")-1</f>
-        <v>7.6775431861804133E-3</v>
+        <v>5.9405940594059459E-3</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>1.9193857965451054E-2</v>
+        <v>1.4829461196243203E-2</v>
       </c>
       <c r="J11" s="3">
-        <v>80779.75</v>
+        <v>73081.75</v>
       </c>
       <c r="K11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"low")</f>
-        <v>50.4</v>
+        <v>50.2</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v>Highs</v>
       </c>
       <c r="M11" t="str">
-        <f>IF(H11&lt;0,IF(I11&lt;0.02,IF(F11&gt;1.5*J11,IF(K11&lt;E11,-1,""),""),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>183.3</v>
+        <v>178.45</v>
       </c>
       <c r="E12">
-        <v>181.5</v>
+        <v>175.8</v>
       </c>
       <c r="F12">
-        <v>5335</v>
+        <v>7158</v>
       </c>
       <c r="G12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"mid")</f>
-        <v>178</v>
-      </c>
-      <c r="H12" s="1">
+        <v>176.85</v>
+      </c>
+      <c r="H12" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C12,"open")/RTD("ontrade.quotes",,"SSE",C12,"lastvalidprevclose")-1</f>
         <v>0</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>9.8684210526316408E-3</v>
+        <v>1.4961185603387311E-2</v>
       </c>
       <c r="J12" s="3">
-        <v>10111.6</v>
+        <v>9188.4</v>
       </c>
       <c r="K12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"low")</f>
-        <v>177.6</v>
+        <v>175.8</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v/>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13">
-        <v>67.06</v>
+        <v>66.38</v>
       </c>
       <c r="E13">
-        <v>66.28</v>
+        <v>65.7</v>
       </c>
       <c r="F13">
-        <v>240518</v>
+        <v>203722</v>
       </c>
       <c r="G13">
         <f>RTD("ontrade.quotes",,"SSE",C13,"mid")</f>
-        <v>65.58</v>
-      </c>
-      <c r="H13" s="1">
+        <v>66.710000000000008</v>
+      </c>
+      <c r="H13" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C13,"open")/RTD("ontrade.quotes",,"SSE",C13,"lastvalidprevclose")-1</f>
-        <v>6.3291139240506666E-3</v>
+        <v>2.4397682220189676E-3</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>1.1699415029248554E-2</v>
+        <v>1.0296789824348769E-2</v>
       </c>
       <c r="J13" s="3">
-        <v>370667.65</v>
+        <v>324694.3</v>
       </c>
       <c r="K13">
         <f>RTD("ontrade.quotes",,"SSE",C13,"low")</f>
@@ -1410,92 +1411,92 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v>Highs</v>
       </c>
       <c r="M13" t="str">
-        <f>IF(H13&lt;0,IF(I13&lt;0.02,IF(F13&gt;1.5*J13,IF(K13&lt;E13,-1,""),""),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="E14">
-        <v>656.4</v>
+        <v>647.20000000000005</v>
       </c>
       <c r="F14">
-        <v>6386</v>
+        <v>3902</v>
       </c>
       <c r="G14">
         <f>RTD("ontrade.quotes",,"SSE",C14,"mid")</f>
-        <v>649.20000000000005</v>
-      </c>
-      <c r="H14" s="1">
+        <v>651.6</v>
+      </c>
+      <c r="H14" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C14,"open")/RTD("ontrade.quotes",,"SSE",C14,"lastvalidprevclose")-1</f>
-        <v>3.0534351145037331E-3</v>
+        <v>3.0807147258160583E-4</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>6.983452254440599E-3</v>
+        <v>4.316990440949668E-3</v>
       </c>
       <c r="J14" s="3">
-        <v>5902.95</v>
+        <v>4896.8999999999996</v>
       </c>
       <c r="K14">
         <f>RTD("ontrade.quotes",,"SSE",C14,"low")</f>
-        <v>647</v>
+        <v>645.6</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v>Highs</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15">
-        <v>308.8</v>
+        <v>299</v>
       </c>
       <c r="E15">
-        <v>305.60000000000002</v>
+        <v>295.5</v>
       </c>
       <c r="F15">
-        <v>12754</v>
+        <v>12013</v>
       </c>
       <c r="G15">
         <f>RTD("ontrade.quotes",,"SSE",C15,"mid")</f>
-        <v>297</v>
-      </c>
-      <c r="H15" s="1">
+        <v>295</v>
+      </c>
+      <c r="H15" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C15,"open")/RTD("ontrade.quotes",,"SSE",C15,"lastvalidprevclose")-1</f>
-        <v>8.5301837270339576E-3</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
-        <v>1.0416666666666628E-2</v>
+        <v>1.1774600504625737E-2</v>
       </c>
       <c r="J15" s="3">
-        <v>26226.95</v>
+        <v>16841.7</v>
       </c>
       <c r="K15">
         <f>RTD("ontrade.quotes",,"SSE",C15,"low")</f>
-        <v>296.39999999999998</v>
+        <v>293.8</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
         <v>Lows</v>
       </c>
       <c r="M15" t="str">
-        <f>IF(H15&lt;0,IF(I15&lt;0.02,IF(F15&gt;1.5*J15,IF(K15&lt;E15,-1,""),""),""),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>

--- a/New highs and lows.xlsx
+++ b/New highs and lows.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\GitHub\Growth-stock-high-volume-short\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56439094-4F3E-4295-81F0-A9B12512ACA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED99130-D7A7-4334-B88A-95F453FBC979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{56CA8ECF-8D06-4762-A8AA-5F67DF2C767F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{56CA8ECF-8D06-4762-A8AA-5F67DF2C767F}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>High</t>
   </si>
@@ -103,16 +103,26 @@
   </si>
   <si>
     <t>Mid</t>
+  </si>
+  <si>
+    <t>INDT</t>
+  </si>
+  <si>
+    <t>LIFCO B</t>
+  </si>
+  <si>
+    <t>LAGR B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -152,12 +162,13 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -203,416 +214,640 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="ontrade.quotes">
-      <tp>
-        <v>355.5</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
         <stp>low</stp>
         <tr r="K5" s="1"/>
       </tp>
-      <tp>
-        <v>356.6</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
         <stp>mid</stp>
         <tr r="G5" s="1"/>
       </tp>
-      <tp>
-        <v>1176</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H9" s="1"/>
       </tp>
-      <tp>
-        <v>651.6</v>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>STORY B</stp>
+        <stp>volume</stp>
+        <tr r="N10" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>BALD B</stp>
+        <stp>volume</stp>
+        <tr r="N14" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>INDT</stp>
+        <stp>lastvalidprevclose</stp>
+        <tr r="H16" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>KINV B</stp>
+        <stp>volume</stp>
+        <tr r="N6" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
         <stp>mid</stp>
         <tr r="G14" s="1"/>
       </tp>
-      <tp>
-        <v>127.85</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
         <stp>low</stp>
         <tr r="K7" s="1"/>
       </tp>
-      <tp>
-        <v>645.6</v>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>NIBE B</stp>
+        <stp>volume</stp>
+        <tr r="N7" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
         <stp>low</stp>
         <tr r="K14" s="1"/>
       </tp>
-      <tp>
-        <v>128.90000000000003</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
         <stp>mid</stp>
         <tr r="G7" s="1"/>
       </tp>
-      <tp>
-        <v>293.8</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
         <stp>low</stp>
         <tr r="K15" s="1"/>
       </tp>
-      <tp>
-        <v>295</v>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>INDT</stp>
+        <stp>open</stp>
+        <tr r="H16" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
         <stp>mid</stp>
         <tr r="G15" s="1"/>
       </tp>
-      <tp>
-        <v>110.64999999999999</v>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>LAGR B</stp>
+        <stp>volume</stp>
+        <tr r="N18" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>SAGA B</stp>
+        <stp>volume</stp>
+        <tr r="N15" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>LIFCO B</stp>
+        <stp>volume</stp>
+        <tr r="N17" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H4" s="1"/>
       </tp>
-      <tp>
-        <v>110.85</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
         <stp>open</stp>
         <tr r="H4" s="1"/>
       </tp>
-      <tp>
-        <v>66.710000000000008</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
         <stp>mid</stp>
         <tr r="G13" s="1"/>
       </tp>
-      <tp>
-        <v>65.400000000000006</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
         <stp>low</stp>
         <tr r="K13" s="1"/>
       </tp>
-      <tp>
-        <v>65.58</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H13" s="1"/>
       </tp>
-      <tp>
-        <v>115.1</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
         <stp>mid</stp>
         <tr r="G4" s="1"/>
       </tp>
-      <tp>
-        <v>311.47500000000002</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
         <stp>mid</stp>
         <tr r="G6" s="1"/>
       </tp>
-      <tp>
-        <v>110.8</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
         <stp>low</stp>
         <tr r="K4" s="1"/>
       </tp>
-      <tp>
-        <v>311.2</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
         <stp>low</stp>
         <tr r="K6" s="1"/>
       </tp>
-      <tp>
-        <v>1179</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
         <stp>open</stp>
         <tr r="H9" s="1"/>
       </tp>
-      <tp>
-        <v>178</v>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>LAGR B</stp>
+        <stp>mid</stp>
+        <tr r="G18" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>LATO B</stp>
+        <stp>volume</stp>
+        <tr r="N5" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>LAGR B</stp>
+        <stp>low</stp>
+        <tr r="K18" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H12" s="1"/>
       </tp>
-      <tp>
-        <v>485.4</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H8" s="1"/>
       </tp>
-      <tp>
-        <v>1282</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H3" s="1"/>
       </tp>
-      <tp>
-        <v>162.77500000000001</v>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>LIFCO B</stp>
+        <stp>low</stp>
+        <tr r="K17" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>LIFCO B</stp>
+        <stp>mid</stp>
+        <tr r="G17" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
         <stp>mid</stp>
         <tr r="G10" s="1"/>
       </tp>
-      <tp>
-        <v>162.15</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
         <stp>low</stp>
         <tr r="K10" s="1"/>
       </tp>
-      <tp>
-        <v>50.5</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H11" s="1"/>
       </tp>
-      <tp>
-        <v>297</v>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>LIFCO B</stp>
+        <stp>open</stp>
+        <tr r="H17" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>SF</stp>
+        <stp>volume</stp>
+        <tr r="N11" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
         <stp>open</stp>
         <tr r="H15" s="1"/>
       </tp>
-      <tp>
-        <v>51.75</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
         <stp>mid</stp>
         <tr r="G11" s="1"/>
       </tp>
-      <tp>
-        <v>50.2</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
         <stp>low</stp>
         <tr r="K11" s="1"/>
       </tp>
-      <tp>
-        <v>317</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
         <stp>open</stp>
         <tr r="H6" s="1"/>
       </tp>
-      <tp>
-        <v>362.8</v>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>PDX</stp>
+        <stp>volume</stp>
+        <tr r="N12" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>EVO</stp>
+        <stp>volume</stp>
+        <tr r="N3" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>EQT</stp>
+        <stp>volume</stp>
+        <tr r="N8" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
         <stp>open</stp>
         <tr r="H5" s="1"/>
       </tp>
-      <tp>
-        <v>129.85000000000002</v>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>LAGR B</stp>
+        <stp>open</stp>
+        <tr r="H18" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
         <stp>open</stp>
         <tr r="H7" s="1"/>
       </tp>
-      <tp>
-        <v>649.4</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
         <stp>open</stp>
         <tr r="H14" s="1"/>
       </tp>
-      <tp>
-        <v>162.9</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
         <stp>open</stp>
         <tr r="H10" s="1"/>
       </tp>
-      <tp>
-        <v>473.7</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
         <stp>low</stp>
         <tr r="K8" s="1"/>
       </tp>
-      <tp>
-        <v>1271.5999999999999</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
         <stp>low</stp>
         <tr r="K3" s="1"/>
       </tp>
-      <tp>
-        <v>1284</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
         <stp>mid</stp>
         <tr r="G3" s="1"/>
       </tp>
-      <tp>
-        <v>474.7</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
         <stp>mid</stp>
         <tr r="G8" s="1"/>
       </tp>
-      <tp>
-        <v>362.5</v>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>LIFCO B</stp>
+        <stp>lastvalidprevclose</stp>
+        <tr r="H17" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>SINCH</stp>
+        <stp>volume</stp>
+        <tr r="N4" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H5" s="1"/>
       </tp>
-      <tp>
-        <v>50.8</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
         <stp>open</stp>
         <tr r="H11" s="1"/>
       </tp>
-      <tp>
-        <v>178</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
         <stp>open</stp>
         <tr r="H12" s="1"/>
       </tp>
-      <tp>
-        <v>316</v>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>SBB B</stp>
+        <stp>volume</stp>
+        <tr r="N13" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H6" s="1"/>
       </tp>
-      <tp>
-        <v>65.740000000000009</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
         <stp>open</stp>
         <tr r="H13" s="1"/>
       </tp>
-      <tp>
-        <v>649.20000000000005</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H14" s="1"/>
       </tp>
-      <tp>
-        <v>176.85</v>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>INDT</stp>
+        <stp>volume</stp>
+        <tr r="N16" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
         <stp>mid</stp>
         <tr r="G12" s="1"/>
       </tp>
-      <tp>
-        <v>162.9</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H10" s="1"/>
       </tp>
-      <tp>
-        <v>175.8</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
         <stp>low</stp>
         <tr r="K12" s="1"/>
       </tp>
-      <tp>
-        <v>1285.5999999999999</v>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>MIPS</stp>
+        <stp>volume</stp>
+        <tr r="N9" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>LAGR B</stp>
+        <stp>lastvalidprevclose</stp>
+        <tr r="H18" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
         <stp>open</stp>
         <tr r="H3" s="1"/>
       </tp>
-      <tp>
-        <v>297</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H15" s="1"/>
       </tp>
-      <tp>
-        <v>1160</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
         <stp>low</stp>
         <tr r="K9" s="1"/>
       </tp>
-      <tp>
-        <v>1175</v>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
         <stp>mid</stp>
         <tr r="G9" s="1"/>
       </tp>
-      <tp>
-        <v>129.69999999999999</v>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>INDT</stp>
+        <stp>mid</stp>
+        <tr r="G16" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H7" s="1"/>
       </tp>
-      <tp>
-        <v>486.9</v>
+      <tp t="e">
+        <v>#N/A</v>
+        <stp/>
+        <stp>SSE</stp>
+        <stp>INDT</stp>
+        <stp>low</stp>
+        <tr r="K16" s="1"/>
+      </tp>
+      <tp t="e">
+        <v>#N/A</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -921,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268B5E47-AB21-40CD-8773-87AC1EA351F0}">
-  <dimension ref="C2:M15"/>
+  <dimension ref="C2:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -935,7 +1170,7 @@
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -967,551 +1202,750 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>1289</v>
+        <v>1229.4000000000001</v>
       </c>
       <c r="E3">
-        <v>1271.5999999999999</v>
+        <v>1216.4000000000001</v>
       </c>
       <c r="F3">
-        <v>53191</v>
-      </c>
-      <c r="G3">
+        <v>32533</v>
+      </c>
+      <c r="G3" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C3,"mid")</f>
-        <v>1284</v>
-      </c>
-      <c r="H3" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="H3" s="4" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C3,"open")/RTD("ontrade.quotes",,"SSE",C3,"lastvalidprevclose")-1</f>
-        <v>2.8081123244929618E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="I3" s="1">
         <f>(D3-E3)/AVERAGE(D3:E3)</f>
-        <v>1.3590564711395837E-2</v>
+        <v>1.0630468558344918E-2</v>
       </c>
       <c r="J3" s="3">
-        <v>171992.2</v>
-      </c>
-      <c r="K3">
+        <v>106443.2</v>
+      </c>
+      <c r="K3" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C3,"low")</f>
-        <v>1271.5999999999999</v>
-      </c>
-      <c r="L3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L3" t="e">
         <f>IF(G3&lt;E3,"Lows",IF(G3&gt;D3,"Highs",""))</f>
-        <v/>
-      </c>
-      <c r="M3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M3" t="e">
         <f>IF(H3&lt;=0,IF(I3&lt;0.02,IF(F3&gt;1.5*J3,IF(K3&lt;E3,-1,""),""),""),"")</f>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="N3" s="5" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C3,"volume")/J3</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4">
-        <v>112.75</v>
+        <v>96.04</v>
       </c>
       <c r="E4">
-        <v>110.8</v>
+        <v>94.2</v>
       </c>
       <c r="F4">
-        <v>191407</v>
-      </c>
-      <c r="G4">
+        <v>106712</v>
+      </c>
+      <c r="G4" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C4,"mid")</f>
-        <v>115.1</v>
-      </c>
-      <c r="H4" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="H4" s="4" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C4,"open")/RTD("ontrade.quotes",,"SSE",C4,"lastvalidprevclose")-1</f>
-        <v>1.8075011296883048E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I15" si="0">(D4-E4)/AVERAGE(D4:E4)</f>
-        <v>1.744576157459184E-2</v>
+        <f t="shared" ref="I4:I18" si="0">(D4-E4)/AVERAGE(D4:E4)</f>
+        <v>1.9343986543313745E-2</v>
       </c>
       <c r="J4" s="3">
-        <v>199325.7</v>
-      </c>
-      <c r="K4">
+        <v>265100.09999999998</v>
+      </c>
+      <c r="K4" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C4,"low")</f>
-        <v>110.8</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" ref="L4:L15" si="1">IF(G4&lt;E4,"Lows",IF(G4&gt;D4,"Highs",""))</f>
-        <v>Highs</v>
-      </c>
-      <c r="M4" t="str">
-        <f t="shared" ref="M4:M15" si="2">IF(H4&lt;=0,IF(I4&lt;0.02,IF(F4&gt;1.5*J4,IF(K4&lt;E4,-1,""),""),""),"")</f>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="L4" t="e">
+        <f t="shared" ref="L4:L18" si="1">IF(G4&lt;E4,"Lows",IF(G4&gt;D4,"Highs",""))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M4" t="e">
+        <f>IF(H4&lt;=0,IF(I4&lt;0.02,IF(F4&gt;1.5*J4,IF(K4&lt;E4,-1,""),""),""),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N4" s="5" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C4,"volume")/J4</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>364.7</v>
+        <v>297.7</v>
       </c>
       <c r="E5">
-        <v>360.8</v>
+        <v>293.8</v>
       </c>
       <c r="F5">
-        <v>18446</v>
-      </c>
-      <c r="G5">
+        <v>18006</v>
+      </c>
+      <c r="G5" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C5,"mid")</f>
-        <v>356.6</v>
-      </c>
-      <c r="H5" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="H5" s="4" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C5,"open")/RTD("ontrade.quotes",,"SSE",C5,"lastvalidprevclose")-1</f>
-        <v>8.2758620689649121E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>1.0751206064782845E-2</v>
+        <v>1.318681318681311E-2</v>
       </c>
       <c r="J5" s="3">
-        <v>16920</v>
-      </c>
-      <c r="K5">
+        <v>26365.75</v>
+      </c>
+      <c r="K5" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C5,"low")</f>
-        <v>355.5</v>
-      </c>
-      <c r="L5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L5" t="e">
         <f t="shared" si="1"/>
-        <v>Lows</v>
-      </c>
-      <c r="M5" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="M5" t="e">
+        <f t="shared" ref="M5:M18" si="2">IF(H5&lt;=0,IF(I5&lt;0.02,IF(F5&gt;1.5*J5,IF(K5&lt;E5,-1,""),""),""),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N5" s="5" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C5,"volume")/J5</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>318.35000000000002</v>
+        <v>282.5</v>
       </c>
       <c r="E6">
-        <v>314.2</v>
+        <v>280.05</v>
       </c>
       <c r="F6">
-        <v>49669</v>
-      </c>
-      <c r="G6">
+        <v>19973</v>
+      </c>
+      <c r="G6" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C6,"mid")</f>
-        <v>311.47500000000002</v>
-      </c>
-      <c r="H6" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="H6" s="4" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C6,"open")/RTD("ontrade.quotes",,"SSE",C6,"lastvalidprevclose")-1</f>
-        <v>3.1645569620253333E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>1.3121492372144604E-2</v>
+        <v>8.7103368589458319E-3</v>
       </c>
       <c r="J6" s="3">
-        <v>36267.75</v>
-      </c>
-      <c r="K6">
+        <v>43207.95</v>
+      </c>
+      <c r="K6" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C6,"low")</f>
-        <v>311.2</v>
-      </c>
-      <c r="L6" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L6" t="e">
         <f t="shared" si="1"/>
-        <v>Lows</v>
-      </c>
-      <c r="M6" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M6" t="e">
         <f t="shared" si="2"/>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="N6" s="5" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C6,"volume")/J6</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7">
-        <v>131.30000000000001</v>
+        <v>96.64</v>
       </c>
       <c r="E7">
-        <v>129.6</v>
+        <v>95.42</v>
       </c>
       <c r="F7">
-        <v>80853</v>
-      </c>
-      <c r="G7">
+        <v>111461</v>
+      </c>
+      <c r="G7" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C7,"mid")</f>
-        <v>128.90000000000003</v>
-      </c>
-      <c r="H7" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" s="4" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C7,"open")/RTD("ontrade.quotes",,"SSE",C7,"lastvalidprevclose")-1</f>
-        <v>1.1565150346957154E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>1.3031812955155363E-2</v>
+        <v>1.2704363219827125E-2</v>
       </c>
       <c r="J7" s="3">
-        <v>77822.95</v>
-      </c>
-      <c r="K7">
+        <v>175442.4</v>
+      </c>
+      <c r="K7" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C7,"low")</f>
-        <v>127.85</v>
-      </c>
-      <c r="L7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L7" t="e">
         <f t="shared" si="1"/>
-        <v>Lows</v>
-      </c>
-      <c r="M7" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M7" t="e">
         <f t="shared" si="2"/>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="N7" s="5" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C7,"volume")/J7</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8">
-        <v>491.1</v>
+        <v>415.5</v>
       </c>
       <c r="E8">
-        <v>483.5</v>
+        <v>405</v>
       </c>
       <c r="F8">
-        <v>42068</v>
-      </c>
-      <c r="G8">
+        <v>26994</v>
+      </c>
+      <c r="G8" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C8,"mid")</f>
-        <v>474.7</v>
-      </c>
-      <c r="H8" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="H8" s="4" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C8,"open")/RTD("ontrade.quotes",,"SSE",C8,"lastvalidprevclose")-1</f>
-        <v>3.0902348578492056E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>1.5596142006977268E-2</v>
+        <v>2.5594149908592323E-2</v>
       </c>
       <c r="J8" s="3">
-        <v>45933.9</v>
-      </c>
-      <c r="K8">
+        <v>62386.1</v>
+      </c>
+      <c r="K8" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C8,"low")</f>
-        <v>473.7</v>
-      </c>
-      <c r="L8" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L8" t="e">
         <f t="shared" si="1"/>
-        <v>Lows</v>
-      </c>
-      <c r="M8" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M8" t="e">
         <f t="shared" si="2"/>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="N8" s="5" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C8,"volume")/J8</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>1206</v>
+        <v>913.5</v>
       </c>
       <c r="E9">
-        <v>1167</v>
+        <v>895.5</v>
       </c>
       <c r="F9">
-        <v>3194</v>
-      </c>
-      <c r="G9">
+        <v>4172</v>
+      </c>
+      <c r="G9" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C9,"mid")</f>
-        <v>1175</v>
-      </c>
-      <c r="H9" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="H9" s="4" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C9,"open")/RTD("ontrade.quotes",,"SSE",C9,"lastvalidprevclose")-1</f>
-        <v>2.5510204081633514E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>3.286978508217446E-2</v>
+        <v>1.9900497512437811E-2</v>
       </c>
       <c r="J9" s="3">
-        <v>1956.9</v>
-      </c>
-      <c r="K9">
+        <v>6309.9</v>
+      </c>
+      <c r="K9" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C9,"low")</f>
-        <v>1160</v>
-      </c>
-      <c r="L9" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L9" t="e">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M9" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M9" t="e">
         <f t="shared" si="2"/>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="N9" s="5" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C9,"volume")/J9</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10">
-        <v>165.35</v>
+        <v>155</v>
       </c>
       <c r="E10">
-        <v>162.15</v>
+        <v>153.6</v>
       </c>
       <c r="F10">
-        <v>14830</v>
-      </c>
-      <c r="G10">
+        <v>2606</v>
+      </c>
+      <c r="G10" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C10,"mid")</f>
-        <v>162.77500000000001</v>
-      </c>
-      <c r="H10" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="H10" s="4" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C10,"open")/RTD("ontrade.quotes",,"SSE",C10,"lastvalidprevclose")-1</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>1.9541984732824359E-2</v>
+        <v>9.0732339598185718E-3</v>
       </c>
       <c r="J10" s="3">
-        <v>17542.8</v>
-      </c>
-      <c r="K10">
+        <v>13652.05</v>
+      </c>
+      <c r="K10" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C10,"low")</f>
-        <v>162.15</v>
-      </c>
-      <c r="L10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L10" t="e">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M10" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M10" t="e">
         <f t="shared" si="2"/>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="N10" s="5" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C10,"volume")/J10</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11">
-        <v>50.95</v>
+        <v>51.05</v>
       </c>
       <c r="E11">
-        <v>50.2</v>
+        <v>47.98</v>
       </c>
       <c r="F11">
-        <v>94636</v>
-      </c>
-      <c r="G11">
+        <v>551988</v>
+      </c>
+      <c r="G11" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C11,"mid")</f>
-        <v>51.75</v>
-      </c>
-      <c r="H11" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="H11" s="4" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C11,"open")/RTD("ontrade.quotes",,"SSE",C11,"lastvalidprevclose")-1</f>
-        <v>5.9405940594059459E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>1.4829461196243203E-2</v>
+        <v>6.2001413713016262E-2</v>
       </c>
       <c r="J11" s="3">
-        <v>73081.75</v>
-      </c>
-      <c r="K11">
+        <v>97213.75</v>
+      </c>
+      <c r="K11" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C11,"low")</f>
-        <v>50.2</v>
-      </c>
-      <c r="L11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L11" t="e">
         <f t="shared" si="1"/>
-        <v>Highs</v>
-      </c>
-      <c r="M11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M11" t="e">
         <f t="shared" si="2"/>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="N11" s="5" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C11,"volume")/J11</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>178.45</v>
+        <v>182.7</v>
       </c>
       <c r="E12">
-        <v>175.8</v>
+        <v>176.7</v>
       </c>
       <c r="F12">
-        <v>7158</v>
-      </c>
-      <c r="G12">
+        <v>10583</v>
+      </c>
+      <c r="G12" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C12,"mid")</f>
-        <v>176.85</v>
-      </c>
-      <c r="H12" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="H12" s="4" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C12,"open")/RTD("ontrade.quotes",,"SSE",C12,"lastvalidprevclose")-1</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>1.4961185603387311E-2</v>
+        <v>3.3388981636060105E-2</v>
       </c>
       <c r="J12" s="3">
-        <v>9188.4</v>
-      </c>
-      <c r="K12">
+        <v>6368.7</v>
+      </c>
+      <c r="K12" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C12,"low")</f>
-        <v>175.8</v>
-      </c>
-      <c r="L12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L12" t="e">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M12" t="e">
         <f t="shared" si="2"/>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="N12" s="5" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C12,"volume")/J12</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13">
-        <v>66.38</v>
+        <v>56.7</v>
       </c>
       <c r="E13">
-        <v>65.7</v>
+        <v>56</v>
       </c>
       <c r="F13">
-        <v>203722</v>
-      </c>
-      <c r="G13">
+        <v>574759</v>
+      </c>
+      <c r="G13" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C13,"mid")</f>
-        <v>66.710000000000008</v>
-      </c>
-      <c r="H13" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="H13" s="4" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C13,"open")/RTD("ontrade.quotes",,"SSE",C13,"lastvalidprevclose")-1</f>
-        <v>2.4397682220189676E-3</v>
+        <v>#N/A</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>1.0296789824348769E-2</v>
+        <v>1.2422360248447254E-2</v>
       </c>
       <c r="J13" s="3">
-        <v>324694.3</v>
-      </c>
-      <c r="K13">
+        <v>487941.6</v>
+      </c>
+      <c r="K13" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C13,"low")</f>
-        <v>65.400000000000006</v>
-      </c>
-      <c r="L13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L13" t="e">
         <f t="shared" si="1"/>
-        <v>Highs</v>
-      </c>
-      <c r="M13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M13" t="e">
         <f t="shared" si="2"/>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="N13" s="5" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C13,"volume")/J13</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14">
-        <v>650</v>
+        <v>572.79999999999995</v>
       </c>
       <c r="E14">
-        <v>647.20000000000005</v>
+        <v>564.79999999999995</v>
       </c>
       <c r="F14">
-        <v>3902</v>
-      </c>
-      <c r="G14">
+        <v>11214</v>
+      </c>
+      <c r="G14" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C14,"mid")</f>
-        <v>651.6</v>
-      </c>
-      <c r="H14" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="H14" s="4" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C14,"open")/RTD("ontrade.quotes",,"SSE",C14,"lastvalidprevclose")-1</f>
-        <v>3.0807147258160583E-4</v>
+        <v>#N/A</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>4.316990440949668E-3</v>
+        <v>1.4064697609001408E-2</v>
       </c>
       <c r="J14" s="3">
-        <v>4896.8999999999996</v>
-      </c>
-      <c r="K14">
+        <v>6901.05</v>
+      </c>
+      <c r="K14" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C14,"low")</f>
-        <v>645.6</v>
-      </c>
-      <c r="L14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L14" t="e">
         <f t="shared" si="1"/>
-        <v>Highs</v>
-      </c>
-      <c r="M14" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="M14" t="e">
+        <f>IF(H14&lt;=0,IF(I14&lt;0.02,IF(F14&gt;1.5*J14,IF(K14&lt;E14,-1,""),""),""),"")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N14" s="5" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C14,"volume")/J14</f>
+        <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15">
-        <v>299</v>
+        <v>271.60000000000002</v>
       </c>
       <c r="E15">
-        <v>295.5</v>
+        <v>264.2</v>
       </c>
       <c r="F15">
-        <v>12013</v>
-      </c>
-      <c r="G15">
+        <v>49993</v>
+      </c>
+      <c r="G15" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C15,"mid")</f>
-        <v>295</v>
-      </c>
-      <c r="H15" s="4">
+        <v>#N/A</v>
+      </c>
+      <c r="H15" s="4" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C15,"open")/RTD("ontrade.quotes",,"SSE",C15,"lastvalidprevclose")-1</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
-        <v>1.1774600504625737E-2</v>
+        <v>2.7622247107129655E-2</v>
       </c>
       <c r="J15" s="3">
-        <v>16841.7</v>
-      </c>
-      <c r="K15">
+        <v>16335.1</v>
+      </c>
+      <c r="K15" t="e">
         <f>RTD("ontrade.quotes",,"SSE",C15,"low")</f>
-        <v>293.8</v>
-      </c>
-      <c r="L15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="L15" t="e">
         <f t="shared" si="1"/>
-        <v>Lows</v>
-      </c>
-      <c r="M15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M15" t="e">
         <f t="shared" si="2"/>
-        <v/>
+        <v>#N/A</v>
+      </c>
+      <c r="N15" s="5" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C15,"volume")/J15</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>245.1</v>
+      </c>
+      <c r="E16">
+        <v>241.7</v>
+      </c>
+      <c r="F16">
+        <v>5920</v>
+      </c>
+      <c r="G16" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C16,"mid")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H16" s="4" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C16,"open")/RTD("ontrade.quotes",,"SSE",C16,"lastvalidprevclose")-1</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3968775677896492E-2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>20196.55</v>
+      </c>
+      <c r="K16" s="2" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C16,"low")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L16" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M16" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N16" s="5" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C16,"volume")/J16</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>219</v>
+      </c>
+      <c r="E17">
+        <v>216.4</v>
+      </c>
+      <c r="F17">
+        <v>7310</v>
+      </c>
+      <c r="G17" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C17,"mid")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H17" s="4" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C17,"open")/RTD("ontrade.quotes",,"SSE",C17,"lastvalidprevclose")-1</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1943040881947609E-2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>29180.85</v>
+      </c>
+      <c r="K17" s="2" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C17,"low")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L17" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M17" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N17" s="5" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C17,"volume")/J17</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>106.9</v>
+      </c>
+      <c r="E18">
+        <v>106.2</v>
+      </c>
+      <c r="F18">
+        <v>6839</v>
+      </c>
+      <c r="G18" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C18,"mid")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H18" s="4" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C18,"open")/RTD("ontrade.quotes",,"SSE",C18,"lastvalidprevclose")-1</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5696855936180458E-3</v>
+      </c>
+      <c r="J18" s="2">
+        <v>9889.9500000000007</v>
+      </c>
+      <c r="K18" s="2" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C18,"low")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L18" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M18" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N18" s="5" t="e">
+        <f>RTD("ontrade.quotes",,"SSE",C18,"volume")/J18</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L1048576 M2">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="M2 L1:L1048576">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Lows"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"Highs"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I15">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="I3:I18">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>0.02</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/New highs and lows.xlsx
+++ b/New highs and lows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\GitHub\Growth-stock-high-volume-short\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED99130-D7A7-4334-B88A-95F453FBC979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F321EC97-F9D4-4BDE-AD15-C67CDACDA4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{56CA8ECF-8D06-4762-A8AA-5F67DF2C767F}"/>
+    <workbookView xWindow="1300" yWindow="30" windowWidth="17900" windowHeight="10170" xr2:uid="{56CA8ECF-8D06-4762-A8AA-5F67DF2C767F}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -214,640 +214,640 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="ontrade.quotes">
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>280.10000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
         <stp>low</stp>
         <tr r="K5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>286.89999999999998</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
         <stp>mid</stp>
         <tr r="G5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>883</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H9" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>61251</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
         <stp>volume</stp>
         <tr r="N10" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>109480</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
         <stp>volume</stp>
         <tr r="N14" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>224</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H16" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>282016</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
         <stp>volume</stp>
         <tr r="N6" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>588.29999999999995</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
         <stp>mid</stp>
         <tr r="G14" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>82.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
         <stp>low</stp>
         <tr r="K7" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>3320650</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
         <stp>volume</stp>
         <tr r="N7" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>575.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
         <stp>low</stp>
         <tr r="K14" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>87.149999999999991</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
         <stp>mid</stp>
         <tr r="G7" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>253</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
         <stp>low</stp>
         <tr r="K15" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>226</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
         <stp>open</stp>
         <tr r="H16" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>264.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
         <stp>mid</stp>
         <tr r="G15" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>140243</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
         <stp>volume</stp>
         <tr r="N18" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>108507</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
         <stp>volume</stp>
         <tr r="N15" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>453984</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
         <stp>volume</stp>
         <tr r="N17" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>85.98</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H4" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>87.02</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
         <stp>open</stp>
         <tr r="H4" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>55.620000000000005</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
         <stp>mid</stp>
         <tr r="G13" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>53.839999999999996</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
         <stp>low</stp>
         <tr r="K13" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>53.379999999999995</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H13" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>89.93</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
         <stp>mid</stp>
         <tr r="G4" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>273.05</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
         <stp>mid</stp>
         <tr r="G6" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>86.240000000000009</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
         <stp>low</stp>
         <tr r="K4" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>266.10000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
         <stp>low</stp>
         <tr r="K6" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>894.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
         <stp>open</stp>
         <tr r="H9" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>102.55000000000001</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
         <stp>mid</stp>
         <tr r="G18" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>132466</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
         <stp>volume</stp>
         <tr r="N5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>98.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
         <stp>low</stp>
         <tr r="K18" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>182.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H12" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>354.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H8" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>1129.5999999999999</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H3" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>200.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
         <stp>low</stp>
         <tr r="K17" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>206.7</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
         <stp>mid</stp>
         <tr r="G17" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>136.15000000000003</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
         <stp>mid</stp>
         <tr r="G10" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>132.05000000000001</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
         <stp>low</stp>
         <tr r="K10" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>43.339999999999996</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H11" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>201.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
         <stp>open</stp>
         <tr r="H17" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>649921</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
         <stp>volume</stp>
         <tr r="N11" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>255.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
         <stp>open</stp>
         <tr r="H15" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>45.019999999999996</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
         <stp>mid</stp>
         <tr r="G11" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>43.64</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
         <stp>low</stp>
         <tr r="K11" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>267.39999999999998</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
         <stp>open</stp>
         <tr r="H6" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>84994</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
         <stp>volume</stp>
         <tr r="N12" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>562356</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
         <stp>volume</stp>
         <tr r="N3" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>345950</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
         <stp>volume</stp>
         <tr r="N8" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>281</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
         <stp>open</stp>
         <tr r="H5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>99.05</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
         <stp>open</stp>
         <tr r="H18" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>84.1</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
         <stp>open</stp>
         <tr r="H7" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>575.79999999999995</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
         <stp>open</stp>
         <tr r="H14" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>136</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
         <stp>open</stp>
         <tr r="H10" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>350.1</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
         <stp>low</stp>
         <tr r="K8" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>1151</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
         <stp>low</stp>
         <tr r="K3" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>1205.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
         <stp>mid</stp>
         <tr r="G3" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>363.15</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
         <stp>mid</stp>
         <tr r="G8" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>200</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H17" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>1320269</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
         <stp>volume</stp>
         <tr r="N4" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>279.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H5" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>43.64</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
         <stp>open</stp>
         <tr r="H11" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>185.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
         <stp>open</stp>
         <tr r="H12" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>4099518</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
         <stp>volume</stp>
         <tr r="N13" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>265.15000000000003</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H6" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>54.14</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
         <stp>open</stp>
         <tr r="H13" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>572.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H14" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>300945</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
         <stp>volume</stp>
         <tr r="N16" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>190.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
         <stp>mid</stp>
         <tr r="G12" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>131.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H10" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>185.1</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
         <stp>low</stp>
         <tr r="K12" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>46059</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
         <stp>volume</stp>
         <tr r="N9" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>98.05</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H18" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>1151</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
         <stp>open</stp>
         <tr r="H3" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>252.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H15" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>888.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
         <stp>low</stp>
         <tr r="K9" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>896</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
         <stp>mid</stp>
         <tr r="G9" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>226.3</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
         <stp>mid</stp>
         <tr r="G16" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>83.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
         <stp>lastvalidprevclose</stp>
         <tr r="H7" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>223.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
         <stp>low</stp>
         <tr r="K16" s="1"/>
       </tp>
-      <tp t="e">
-        <v>#N/A</v>
+      <tp>
+        <v>356.7</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -1207,44 +1207,44 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>1229.4000000000001</v>
+        <v>1178</v>
       </c>
       <c r="E3">
-        <v>1216.4000000000001</v>
+        <v>1158</v>
       </c>
       <c r="F3">
-        <v>32533</v>
-      </c>
-      <c r="G3" t="e">
+        <v>85459</v>
+      </c>
+      <c r="G3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"mid")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H3" s="4" t="e">
+        <v>1205.8</v>
+      </c>
+      <c r="H3" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C3,"open")/RTD("ontrade.quotes",,"SSE",C3,"lastvalidprevclose")-1</f>
-        <v>#N/A</v>
+        <v>1.8944759206799056E-2</v>
       </c>
       <c r="I3" s="1">
         <f>(D3-E3)/AVERAGE(D3:E3)</f>
-        <v>1.0630468558344918E-2</v>
+        <v>1.7123287671232876E-2</v>
       </c>
       <c r="J3" s="3">
-        <v>106443.2</v>
-      </c>
-      <c r="K3" t="e">
+        <v>96945.65</v>
+      </c>
+      <c r="K3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"low")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L3" t="e">
+        <v>1151</v>
+      </c>
+      <c r="L3" t="str">
         <f>IF(G3&lt;E3,"Lows",IF(G3&gt;D3,"Highs",""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M3" t="e">
+        <v>Highs</v>
+      </c>
+      <c r="M3" t="str">
         <f>IF(H3&lt;=0,IF(I3&lt;0.02,IF(F3&gt;1.5*J3,IF(K3&lt;E3,-1,""),""),""),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N3" s="5" t="e">
+        <v/>
+      </c>
+      <c r="N3" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C3,"volume")/J3</f>
-        <v>#N/A</v>
+        <v>5.8007347415794319</v>
       </c>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.35">
@@ -1252,44 +1252,44 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>96.04</v>
+        <v>90.3</v>
       </c>
       <c r="E4">
-        <v>94.2</v>
+        <v>89.2</v>
       </c>
       <c r="F4">
-        <v>106712</v>
-      </c>
-      <c r="G4" t="e">
+        <v>165102</v>
+      </c>
+      <c r="G4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"mid")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H4" s="4" t="e">
+        <v>89.93</v>
+      </c>
+      <c r="H4" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"open")/RTD("ontrade.quotes",,"SSE",C4,"lastvalidprevclose")-1</f>
-        <v>#N/A</v>
+        <v>1.2095836240986202E-2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I18" si="0">(D4-E4)/AVERAGE(D4:E4)</f>
-        <v>1.9343986543313745E-2</v>
+        <v>1.225626740947069E-2</v>
       </c>
       <c r="J4" s="3">
-        <v>265100.09999999998</v>
-      </c>
-      <c r="K4" t="e">
+        <v>280639.90000000002</v>
+      </c>
+      <c r="K4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"low")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L4" t="e">
+        <v>86.240000000000009</v>
+      </c>
+      <c r="L4" t="str">
         <f t="shared" ref="L4:L18" si="1">IF(G4&lt;E4,"Lows",IF(G4&gt;D4,"Highs",""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M4" t="e">
+        <v/>
+      </c>
+      <c r="M4" t="str">
         <f>IF(H4&lt;=0,IF(I4&lt;0.02,IF(F4&gt;1.5*J4,IF(K4&lt;E4,-1,""),""),""),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N4" s="5" t="e">
+        <v/>
+      </c>
+      <c r="N4" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C4,"volume")/J4</f>
-        <v>#N/A</v>
+        <v>4.7044949773713567</v>
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.35">
@@ -1297,44 +1297,44 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>297.7</v>
+        <v>284.5</v>
       </c>
       <c r="E5">
-        <v>293.8</v>
+        <v>279.60000000000002</v>
       </c>
       <c r="F5">
-        <v>18006</v>
-      </c>
-      <c r="G5" t="e">
+        <v>35851</v>
+      </c>
+      <c r="G5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"mid")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H5" s="4" t="e">
+        <v>286.89999999999998</v>
+      </c>
+      <c r="H5" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C5,"open")/RTD("ontrade.quotes",,"SSE",C5,"lastvalidprevclose")-1</f>
-        <v>#N/A</v>
+        <v>5.3667262969587792E-3</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>1.318681318681311E-2</v>
+        <v>1.7372806240028283E-2</v>
       </c>
       <c r="J5" s="3">
-        <v>26365.75</v>
-      </c>
-      <c r="K5" t="e">
+        <v>29470.6</v>
+      </c>
+      <c r="K5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"low")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L5" t="e">
+        <v>280.10000000000002</v>
+      </c>
+      <c r="L5" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M5" t="e">
+        <v>Highs</v>
+      </c>
+      <c r="M5" t="str">
         <f t="shared" ref="M5:M18" si="2">IF(H5&lt;=0,IF(I5&lt;0.02,IF(F5&gt;1.5*J5,IF(K5&lt;E5,-1,""),""),""),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N5" s="5" t="e">
+        <v/>
+      </c>
+      <c r="N5" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"volume")/J5</f>
-        <v>#N/A</v>
+        <v>4.4948524970648718</v>
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.35">
@@ -1342,44 +1342,44 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>282.5</v>
+        <v>269.25</v>
       </c>
       <c r="E6">
-        <v>280.05</v>
+        <v>263.95</v>
       </c>
       <c r="F6">
-        <v>19973</v>
-      </c>
-      <c r="G6" t="e">
+        <v>59872</v>
+      </c>
+      <c r="G6">
         <f>RTD("ontrade.quotes",,"SSE",C6,"mid")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H6" s="4" t="e">
+        <v>273.05</v>
+      </c>
+      <c r="H6" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C6,"open")/RTD("ontrade.quotes",,"SSE",C6,"lastvalidprevclose")-1</f>
-        <v>#N/A</v>
+        <v>8.4857627757870535E-3</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>8.7103368589458319E-3</v>
+        <v>1.9879969992498164E-2</v>
       </c>
       <c r="J6" s="3">
-        <v>43207.95</v>
-      </c>
-      <c r="K6" t="e">
+        <v>49340.800000000003</v>
+      </c>
+      <c r="K6">
         <f>RTD("ontrade.quotes",,"SSE",C6,"low")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L6" t="e">
+        <v>266.10000000000002</v>
+      </c>
+      <c r="L6" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M6" t="e">
+        <v>Highs</v>
+      </c>
+      <c r="M6" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N6" s="5" t="e">
+        <v/>
+      </c>
+      <c r="N6" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C6,"volume")/J6</f>
-        <v>#N/A</v>
+        <v>5.7156754653349759</v>
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.35">
@@ -1387,44 +1387,44 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>96.64</v>
+        <v>87.84</v>
       </c>
       <c r="E7">
-        <v>95.42</v>
+        <v>87</v>
       </c>
       <c r="F7">
-        <v>111461</v>
-      </c>
-      <c r="G7" t="e">
+        <v>250234</v>
+      </c>
+      <c r="G7">
         <f>RTD("ontrade.quotes",,"SSE",C7,"mid")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H7" s="4" t="e">
+        <v>87.149999999999991</v>
+      </c>
+      <c r="H7" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C7,"open")/RTD("ontrade.quotes",,"SSE",C7,"lastvalidprevclose")-1</f>
-        <v>#N/A</v>
+        <v>1.0817307692307487E-2</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>1.2704363219827125E-2</v>
+        <v>9.6087851750171968E-3</v>
       </c>
       <c r="J7" s="3">
-        <v>175442.4</v>
-      </c>
-      <c r="K7" t="e">
+        <v>222980.3</v>
+      </c>
+      <c r="K7">
         <f>RTD("ontrade.quotes",,"SSE",C7,"low")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L7" t="e">
+        <v>82.9</v>
+      </c>
+      <c r="L7" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M7" t="e">
+        <v/>
+      </c>
+      <c r="M7" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N7" s="5" t="e">
+        <v/>
+      </c>
+      <c r="N7" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C7,"volume")/J7</f>
-        <v>#N/A</v>
+        <v>14.892122757032796</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.35">
@@ -1432,44 +1432,44 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>415.5</v>
+        <v>369.6</v>
       </c>
       <c r="E8">
-        <v>405</v>
+        <v>363.5</v>
       </c>
       <c r="F8">
-        <v>26994</v>
-      </c>
-      <c r="G8" t="e">
+        <v>48968</v>
+      </c>
+      <c r="G8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"mid")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H8" s="4" t="e">
+        <v>363.15</v>
+      </c>
+      <c r="H8" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C8,"open")/RTD("ontrade.quotes",,"SSE",C8,"lastvalidprevclose")-1</f>
-        <v>#N/A</v>
+        <v>6.4898419864560797E-3</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>2.5594149908592323E-2</v>
+        <v>1.6641658709589478E-2</v>
       </c>
       <c r="J8" s="3">
-        <v>62386.1</v>
-      </c>
-      <c r="K8" t="e">
+        <v>77413.350000000006</v>
+      </c>
+      <c r="K8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"low")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L8" t="e">
+        <v>350.1</v>
+      </c>
+      <c r="L8" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M8" t="e">
+        <v>Lows</v>
+      </c>
+      <c r="M8" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N8" s="5" t="e">
+        <v/>
+      </c>
+      <c r="N8" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C8,"volume")/J8</f>
-        <v>#N/A</v>
+        <v>4.4688674498649128</v>
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.35">
@@ -1477,44 +1477,44 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>913.5</v>
+        <v>908</v>
       </c>
       <c r="E9">
-        <v>895.5</v>
+        <v>885.5</v>
       </c>
       <c r="F9">
-        <v>4172</v>
-      </c>
-      <c r="G9" t="e">
+        <v>6608</v>
+      </c>
+      <c r="G9">
         <f>RTD("ontrade.quotes",,"SSE",C9,"mid")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H9" s="4" t="e">
+        <v>896</v>
+      </c>
+      <c r="H9" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C9,"open")/RTD("ontrade.quotes",,"SSE",C9,"lastvalidprevclose")-1</f>
-        <v>#N/A</v>
+        <v>1.3023782559456354E-2</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>1.9900497512437811E-2</v>
+        <v>2.5090604962364094E-2</v>
       </c>
       <c r="J9" s="3">
-        <v>6309.9</v>
-      </c>
-      <c r="K9" t="e">
+        <v>8488.2999999999993</v>
+      </c>
+      <c r="K9">
         <f>RTD("ontrade.quotes",,"SSE",C9,"low")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L9" t="e">
+        <v>888.5</v>
+      </c>
+      <c r="L9" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M9" t="e">
+        <v/>
+      </c>
+      <c r="M9" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N9" s="5" t="e">
+        <v/>
+      </c>
+      <c r="N9" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C9,"volume")/J9</f>
-        <v>#N/A</v>
+        <v>5.4261748524439524</v>
       </c>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.35">
@@ -1522,44 +1522,44 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>155</v>
+        <v>141.80000000000001</v>
       </c>
       <c r="E10">
-        <v>153.6</v>
+        <v>136.5</v>
       </c>
       <c r="F10">
-        <v>2606</v>
-      </c>
-      <c r="G10" t="e">
+        <v>9892</v>
+      </c>
+      <c r="G10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"mid")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H10" s="4" t="e">
+        <v>136.15000000000003</v>
+      </c>
+      <c r="H10" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C10,"open")/RTD("ontrade.quotes",,"SSE",C10,"lastvalidprevclose")-1</f>
-        <v>#N/A</v>
+        <v>3.4220532319391594E-2</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>9.0732339598185718E-3</v>
+        <v>3.8088393819619197E-2</v>
       </c>
       <c r="J10" s="3">
-        <v>13652.05</v>
-      </c>
-      <c r="K10" t="e">
+        <v>14527.55</v>
+      </c>
+      <c r="K10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"low")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L10" t="e">
+        <v>132.05000000000001</v>
+      </c>
+      <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M10" t="e">
+        <v>Lows</v>
+      </c>
+      <c r="M10" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N10" s="5" t="e">
+        <v/>
+      </c>
+      <c r="N10" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C10,"volume")/J10</f>
-        <v>#N/A</v>
+        <v>4.2161961239162835</v>
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.35">
@@ -1567,44 +1567,44 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>51.05</v>
+        <v>47.32</v>
       </c>
       <c r="E11">
-        <v>47.98</v>
+        <v>46.5</v>
       </c>
       <c r="F11">
-        <v>551988</v>
-      </c>
-      <c r="G11" t="e">
+        <v>75799</v>
+      </c>
+      <c r="G11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"mid")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H11" s="4" t="e">
+        <v>45.019999999999996</v>
+      </c>
+      <c r="H11" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C11,"open")/RTD("ontrade.quotes",,"SSE",C11,"lastvalidprevclose")-1</f>
-        <v>#N/A</v>
+        <v>6.9220119981541206E-3</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>6.2001413713016262E-2</v>
+        <v>1.7480281389895554E-2</v>
       </c>
       <c r="J11" s="3">
-        <v>97213.75</v>
-      </c>
-      <c r="K11" t="e">
+        <v>134567.95000000001</v>
+      </c>
+      <c r="K11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"low")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L11" t="e">
+        <v>43.64</v>
+      </c>
+      <c r="L11" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M11" t="e">
+        <v>Lows</v>
+      </c>
+      <c r="M11" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N11" s="5" t="e">
+        <v/>
+      </c>
+      <c r="N11" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C11,"volume")/J11</f>
-        <v>#N/A</v>
+        <v>4.8296864149301522</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.35">
@@ -1612,44 +1612,44 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>182.7</v>
+        <v>178</v>
       </c>
       <c r="E12">
-        <v>176.7</v>
+        <v>175.8</v>
       </c>
       <c r="F12">
-        <v>10583</v>
-      </c>
-      <c r="G12" t="e">
+        <v>3596</v>
+      </c>
+      <c r="G12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"mid")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="4" t="e">
+        <v>190.5</v>
+      </c>
+      <c r="H12" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C12,"open")/RTD("ontrade.quotes",,"SSE",C12,"lastvalidprevclose")-1</f>
-        <v>#N/A</v>
+        <v>1.975850713501659E-2</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>3.3388981636060105E-2</v>
+        <v>1.2436404748445385E-2</v>
       </c>
       <c r="J12" s="3">
-        <v>6368.7</v>
-      </c>
-      <c r="K12" t="e">
+        <v>7314.85</v>
+      </c>
+      <c r="K12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"low")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L12" t="e">
+        <v>185.1</v>
+      </c>
+      <c r="L12" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M12" t="e">
+        <v>Highs</v>
+      </c>
+      <c r="M12" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N12" s="5" t="e">
+        <v/>
+      </c>
+      <c r="N12" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C12,"volume")/J12</f>
-        <v>#N/A</v>
+        <v>11.619377020718128</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.35">
@@ -1657,44 +1657,44 @@
         <v>13</v>
       </c>
       <c r="D13">
-        <v>56.7</v>
+        <v>55.3</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F13">
-        <v>574759</v>
-      </c>
-      <c r="G13" t="e">
+        <v>608142</v>
+      </c>
+      <c r="G13">
         <f>RTD("ontrade.quotes",,"SSE",C13,"mid")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H13" s="4" t="e">
+        <v>55.620000000000005</v>
+      </c>
+      <c r="H13" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C13,"open")/RTD("ontrade.quotes",,"SSE",C13,"lastvalidprevclose")-1</f>
-        <v>#N/A</v>
+        <v>1.4237542150618232E-2</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>1.2422360248447254E-2</v>
+        <v>2.3787740164684303E-2</v>
       </c>
       <c r="J13" s="3">
-        <v>487941.6</v>
-      </c>
-      <c r="K13" t="e">
+        <v>607453.30000000005</v>
+      </c>
+      <c r="K13">
         <f>RTD("ontrade.quotes",,"SSE",C13,"low")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L13" t="e">
+        <v>53.839999999999996</v>
+      </c>
+      <c r="L13" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M13" t="e">
+        <v>Highs</v>
+      </c>
+      <c r="M13" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N13" s="5" t="e">
+        <v/>
+      </c>
+      <c r="N13" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C13,"volume")/J13</f>
-        <v>#N/A</v>
+        <v>6.7486965664685661</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.35">
@@ -1702,44 +1702,44 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>572.79999999999995</v>
+        <v>575.20000000000005</v>
       </c>
       <c r="E14">
-        <v>564.79999999999995</v>
+        <v>568.6</v>
       </c>
       <c r="F14">
-        <v>11214</v>
-      </c>
-      <c r="G14" t="e">
+        <v>7309</v>
+      </c>
+      <c r="G14">
         <f>RTD("ontrade.quotes",,"SSE",C14,"mid")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H14" s="4" t="e">
+        <v>588.29999999999995</v>
+      </c>
+      <c r="H14" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C14,"open")/RTD("ontrade.quotes",,"SSE",C14,"lastvalidprevclose")-1</f>
-        <v>#N/A</v>
+        <v>5.588543485853803E-3</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>1.4064697609001408E-2</v>
+        <v>1.1540479104738629E-2</v>
       </c>
       <c r="J14" s="3">
-        <v>6901.05</v>
-      </c>
-      <c r="K14" t="e">
+        <v>7969.8</v>
+      </c>
+      <c r="K14">
         <f>RTD("ontrade.quotes",,"SSE",C14,"low")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L14" t="e">
+        <v>575.6</v>
+      </c>
+      <c r="L14" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M14" t="e">
+        <v>Highs</v>
+      </c>
+      <c r="M14" t="str">
         <f>IF(H14&lt;=0,IF(I14&lt;0.02,IF(F14&gt;1.5*J14,IF(K14&lt;E14,-1,""),""),""),"")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N14" s="5" t="e">
+        <v/>
+      </c>
+      <c r="N14" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C14,"volume")/J14</f>
-        <v>#N/A</v>
+        <v>13.736856633792566</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.35">
@@ -1747,44 +1747,44 @@
         <v>15</v>
       </c>
       <c r="D15">
-        <v>271.60000000000002</v>
+        <v>258.60000000000002</v>
       </c>
       <c r="E15">
+        <v>255</v>
+      </c>
+      <c r="F15">
+        <v>10251</v>
+      </c>
+      <c r="G15">
+        <f>RTD("ontrade.quotes",,"SSE",C15,"mid")</f>
         <v>264.2</v>
       </c>
-      <c r="F15">
-        <v>49993</v>
-      </c>
-      <c r="G15" t="e">
-        <f>RTD("ontrade.quotes",,"SSE",C15,"mid")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H15" s="4" t="e">
+      <c r="H15" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C15,"open")/RTD("ontrade.quotes",,"SSE",C15,"lastvalidprevclose")-1</f>
-        <v>#N/A</v>
+        <v>1.0284810126582222E-2</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
-        <v>2.7622247107129655E-2</v>
+        <v>1.4018691588785135E-2</v>
       </c>
       <c r="J15" s="3">
-        <v>16335.1</v>
-      </c>
-      <c r="K15" t="e">
+        <v>22160.15</v>
+      </c>
+      <c r="K15">
         <f>RTD("ontrade.quotes",,"SSE",C15,"low")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L15" t="e">
+        <v>253</v>
+      </c>
+      <c r="L15" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M15" t="e">
+        <v>Highs</v>
+      </c>
+      <c r="M15" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N15" s="5" t="e">
+        <v/>
+      </c>
+      <c r="N15" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C15,"volume")/J15</f>
-        <v>#N/A</v>
+        <v>4.8964921266327162</v>
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.35">
@@ -1792,44 +1792,44 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>245.1</v>
+        <v>230.2</v>
       </c>
       <c r="E16">
-        <v>241.7</v>
+        <v>227.5</v>
       </c>
       <c r="F16">
-        <v>5920</v>
-      </c>
-      <c r="G16" t="e">
+        <v>33632</v>
+      </c>
+      <c r="G16">
         <f>RTD("ontrade.quotes",,"SSE",C16,"mid")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H16" s="4" t="e">
+        <v>226.3</v>
+      </c>
+      <c r="H16" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C16,"open")/RTD("ontrade.quotes",,"SSE",C16,"lastvalidprevclose")-1</f>
-        <v>#N/A</v>
+        <v>8.9285714285713969E-3</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="0"/>
-        <v>1.3968775677896492E-2</v>
+        <v>1.1798121039982472E-2</v>
       </c>
       <c r="J16" s="2">
-        <v>20196.55</v>
-      </c>
-      <c r="K16" s="2" t="e">
+        <v>20907.25</v>
+      </c>
+      <c r="K16" s="2">
         <f>RTD("ontrade.quotes",,"SSE",C16,"low")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L16" t="e">
+        <v>223.6</v>
+      </c>
+      <c r="L16" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M16" t="e">
+        <v>Lows</v>
+      </c>
+      <c r="M16" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N16" s="5" t="e">
+        <v/>
+      </c>
+      <c r="N16" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C16,"volume")/J16</f>
-        <v>#N/A</v>
+        <v>14.394289062406582</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.35">
@@ -1837,44 +1837,44 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>219</v>
+        <v>207.2</v>
       </c>
       <c r="E17">
-        <v>216.4</v>
+        <v>205.1</v>
       </c>
       <c r="F17">
-        <v>7310</v>
-      </c>
-      <c r="G17" t="e">
+        <v>23567</v>
+      </c>
+      <c r="G17">
         <f>RTD("ontrade.quotes",,"SSE",C17,"mid")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H17" s="4" t="e">
+        <v>206.7</v>
+      </c>
+      <c r="H17" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C17,"open")/RTD("ontrade.quotes",,"SSE",C17,"lastvalidprevclose")-1</f>
-        <v>#N/A</v>
+        <v>9.5000000000000639E-3</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="0"/>
-        <v>1.1943040881947609E-2</v>
+        <v>1.0186757215619667E-2</v>
       </c>
       <c r="J17" s="2">
-        <v>29180.85</v>
-      </c>
-      <c r="K17" s="2" t="e">
+        <v>30266.400000000001</v>
+      </c>
+      <c r="K17" s="2">
         <f>RTD("ontrade.quotes",,"SSE",C17,"low")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L17" t="e">
+        <v>200.8</v>
+      </c>
+      <c r="L17" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M17" t="e">
+        <v/>
+      </c>
+      <c r="M17" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N17" s="5" t="e">
+        <v/>
+      </c>
+      <c r="N17" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C17,"volume")/J17</f>
-        <v>#N/A</v>
+        <v>14.999603520735866</v>
       </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.35">
@@ -1882,44 +1882,44 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>106.9</v>
+        <v>99.8</v>
       </c>
       <c r="E18">
-        <v>106.2</v>
+        <v>97.5</v>
       </c>
       <c r="F18">
-        <v>6839</v>
-      </c>
-      <c r="G18" t="e">
+        <v>8088</v>
+      </c>
+      <c r="G18">
         <f>RTD("ontrade.quotes",,"SSE",C18,"mid")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H18" s="4" t="e">
+        <v>102.55000000000001</v>
+      </c>
+      <c r="H18" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C18,"open")/RTD("ontrade.quotes",,"SSE",C18,"lastvalidprevclose")-1</f>
-        <v>#N/A</v>
+        <v>1.0198878123406363E-2</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="0"/>
-        <v>6.5696855936180458E-3</v>
+        <v>2.3314749113025821E-2</v>
       </c>
       <c r="J18" s="2">
-        <v>9889.9500000000007</v>
-      </c>
-      <c r="K18" s="2" t="e">
+        <v>10139</v>
+      </c>
+      <c r="K18" s="2">
         <f>RTD("ontrade.quotes",,"SSE",C18,"low")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L18" t="e">
+        <v>98.9</v>
+      </c>
+      <c r="L18" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M18" t="e">
+        <v>Highs</v>
+      </c>
+      <c r="M18" t="str">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="N18" s="5" t="e">
+        <v/>
+      </c>
+      <c r="N18" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C18,"volume")/J18</f>
-        <v>#N/A</v>
+        <v>13.832034717427755</v>
       </c>
     </row>
   </sheetData>

--- a/New highs and lows.xlsx
+++ b/New highs and lows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\GitHub\Growth-stock-high-volume-short\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F321EC97-F9D4-4BDE-AD15-C67CDACDA4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E99F14E-B753-4403-BC77-B25E27D1899B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="30" windowWidth="17900" windowHeight="10170" xr2:uid="{56CA8ECF-8D06-4762-A8AA-5F67DF2C767F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{56CA8ECF-8D06-4762-A8AA-5F67DF2C767F}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -162,13 +162,14 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -215,7 +216,7 @@
   <volType type="realTimeData">
     <main first="ontrade.quotes">
       <tp>
-        <v>280.10000000000002</v>
+        <v>273</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -223,7 +224,7 @@
         <tr r="K5" s="1"/>
       </tp>
       <tp>
-        <v>286.89999999999998</v>
+        <v>277.3</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -231,7 +232,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>883</v>
+        <v>723.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -239,7 +240,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>61251</v>
+        <v>190740</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -247,7 +248,7 @@
         <tr r="N10" s="1"/>
       </tp>
       <tp>
-        <v>109480</v>
+        <v>253321</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -255,7 +256,7 @@
         <tr r="N14" s="1"/>
       </tp>
       <tp>
-        <v>224</v>
+        <v>225.7</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
@@ -263,7 +264,7 @@
         <tr r="H16" s="1"/>
       </tp>
       <tp>
-        <v>282016</v>
+        <v>517304</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -271,7 +272,7 @@
         <tr r="N6" s="1"/>
       </tp>
       <tp>
-        <v>588.29999999999995</v>
+        <v>618.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -279,7 +280,7 @@
         <tr r="G14" s="1"/>
       </tp>
       <tp>
-        <v>82.9</v>
+        <v>87.38</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -287,7 +288,7 @@
         <tr r="K7" s="1"/>
       </tp>
       <tp>
-        <v>3320650</v>
+        <v>1985873</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -295,7 +296,7 @@
         <tr r="N7" s="1"/>
       </tp>
       <tp>
-        <v>575.6</v>
+        <v>593.20000000000005</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -303,7 +304,7 @@
         <tr r="K14" s="1"/>
       </tp>
       <tp>
-        <v>87.149999999999991</v>
+        <v>87.460000000000008</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -311,7 +312,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>253</v>
+        <v>252.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -319,7 +320,7 @@
         <tr r="K15" s="1"/>
       </tp>
       <tp>
-        <v>226</v>
+        <v>220.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
@@ -327,7 +328,7 @@
         <tr r="H16" s="1"/>
       </tp>
       <tp>
-        <v>264.2</v>
+        <v>262.60000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -335,7 +336,7 @@
         <tr r="G15" s="1"/>
       </tp>
       <tp>
-        <v>140243</v>
+        <v>437249</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
@@ -343,7 +344,7 @@
         <tr r="N18" s="1"/>
       </tp>
       <tp>
-        <v>108507</v>
+        <v>340850</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -351,7 +352,7 @@
         <tr r="N15" s="1"/>
       </tp>
       <tp>
-        <v>453984</v>
+        <v>297356</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
@@ -359,7 +360,7 @@
         <tr r="N17" s="1"/>
       </tp>
       <tp>
-        <v>85.98</v>
+        <v>102.95</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -367,7 +368,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>87.02</v>
+        <v>100.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -375,7 +376,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>55.620000000000005</v>
+        <v>47.3</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -383,7 +384,7 @@
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>53.839999999999996</v>
+        <v>46.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -391,7 +392,7 @@
         <tr r="K13" s="1"/>
       </tp>
       <tp>
-        <v>53.379999999999995</v>
+        <v>47.97</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -399,7 +400,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>89.93</v>
+        <v>100.1</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -407,7 +408,7 @@
         <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>273.05</v>
+        <v>259.55</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -415,7 +416,7 @@
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>86.240000000000009</v>
+        <v>99.48</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -423,7 +424,7 @@
         <tr r="K4" s="1"/>
       </tp>
       <tp>
-        <v>266.10000000000002</v>
+        <v>256.05</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -431,7 +432,7 @@
         <tr r="K6" s="1"/>
       </tp>
       <tp>
-        <v>894.5</v>
+        <v>715</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -439,7 +440,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>102.55000000000001</v>
+        <v>100</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
@@ -447,7 +448,7 @@
         <tr r="G18" s="1"/>
       </tp>
       <tp>
-        <v>132466</v>
+        <v>348639</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -455,7 +456,7 @@
         <tr r="N5" s="1"/>
       </tp>
       <tp>
-        <v>98.9</v>
+        <v>100</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
@@ -463,7 +464,7 @@
         <tr r="K18" s="1"/>
       </tp>
       <tp>
-        <v>182.2</v>
+        <v>205.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -471,7 +472,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>354.4</v>
+        <v>347.3</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -479,7 +480,7 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>1129.5999999999999</v>
+        <v>1106</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -487,7 +488,7 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>200.8</v>
+        <v>204.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
@@ -495,7 +496,7 @@
         <tr r="K17" s="1"/>
       </tp>
       <tp>
-        <v>206.7</v>
+        <v>206.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
@@ -503,7 +504,7 @@
         <tr r="G17" s="1"/>
       </tp>
       <tp>
-        <v>136.15000000000003</v>
+        <v>121.95</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -511,7 +512,7 @@
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>132.05000000000001</v>
+        <v>121.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -519,7 +520,7 @@
         <tr r="K10" s="1"/>
       </tp>
       <tp>
-        <v>43.339999999999996</v>
+        <v>46.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -527,7 +528,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>201.9</v>
+        <v>207.1</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
@@ -535,7 +536,7 @@
         <tr r="H17" s="1"/>
       </tp>
       <tp>
-        <v>649921</v>
+        <v>921563</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -543,7 +544,7 @@
         <tr r="N11" s="1"/>
       </tp>
       <tp>
-        <v>255.4</v>
+        <v>258.39999999999998</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -551,7 +552,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>45.019999999999996</v>
+        <v>45.74</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -559,7 +560,7 @@
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>43.64</v>
+        <v>45.32</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -567,7 +568,7 @@
         <tr r="K11" s="1"/>
       </tp>
       <tp>
-        <v>267.39999999999998</v>
+        <v>257.7</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -575,7 +576,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>84994</v>
+        <v>98459</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -583,7 +584,7 @@
         <tr r="N12" s="1"/>
       </tp>
       <tp>
-        <v>562356</v>
+        <v>1441169</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -591,7 +592,7 @@
         <tr r="N3" s="1"/>
       </tp>
       <tp>
-        <v>345950</v>
+        <v>627428</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -599,7 +600,7 @@
         <tr r="N8" s="1"/>
       </tp>
       <tp>
-        <v>281</v>
+        <v>280</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -607,7 +608,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>99.05</v>
+        <v>102.7</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
@@ -615,7 +616,7 @@
         <tr r="H18" s="1"/>
       </tp>
       <tp>
-        <v>84.1</v>
+        <v>88.179999999999993</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -623,7 +624,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>575.79999999999995</v>
+        <v>603.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -631,7 +632,7 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>136</v>
+        <v>125</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -639,7 +640,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>350.1</v>
+        <v>337.7</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -647,7 +648,7 @@
         <tr r="K8" s="1"/>
       </tp>
       <tp>
-        <v>1151</v>
+        <v>1050</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -655,7 +656,7 @@
         <tr r="K3" s="1"/>
       </tp>
       <tp>
-        <v>1205.8</v>
+        <v>1076.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -663,7 +664,7 @@
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>363.15</v>
+        <v>341.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -671,7 +672,7 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>200</v>
+        <v>210.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
@@ -679,7 +680,7 @@
         <tr r="H17" s="1"/>
       </tp>
       <tp>
-        <v>1320269</v>
+        <v>2327559</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -687,7 +688,7 @@
         <tr r="N4" s="1"/>
       </tp>
       <tp>
-        <v>279.5</v>
+        <v>287.10000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -695,7 +696,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>43.64</v>
+        <v>46</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -703,7 +704,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>185.8</v>
+        <v>204.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -711,7 +712,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>4099518</v>
+        <v>11933088</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -719,7 +720,7 @@
         <tr r="N13" s="1"/>
       </tp>
       <tp>
-        <v>265.15000000000003</v>
+        <v>261.89999999999998</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -727,7 +728,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>54.14</v>
+        <v>47.41</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -735,7 +736,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>572.6</v>
+        <v>604.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -743,7 +744,7 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>300945</v>
+        <v>294471</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
@@ -751,7 +752,7 @@
         <tr r="N16" s="1"/>
       </tp>
       <tp>
-        <v>190.5</v>
+        <v>205.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -759,7 +760,7 @@
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>131.5</v>
+        <v>127</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -767,7 +768,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>185.1</v>
+        <v>202.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -775,7 +776,7 @@
         <tr r="K12" s="1"/>
       </tp>
       <tp>
-        <v>46059</v>
+        <v>437336</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -783,7 +784,7 @@
         <tr r="N9" s="1"/>
       </tp>
       <tp>
-        <v>98.05</v>
+        <v>104.1</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
@@ -791,7 +792,7 @@
         <tr r="H18" s="1"/>
       </tp>
       <tp>
-        <v>1151</v>
+        <v>1085</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -799,7 +800,7 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>252.8</v>
+        <v>261</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -807,7 +808,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>888.5</v>
+        <v>703</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -815,7 +816,7 @@
         <tr r="K9" s="1"/>
       </tp>
       <tp>
-        <v>896</v>
+        <v>732</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -823,7 +824,7 @@
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>226.3</v>
+        <v>220</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
@@ -831,7 +832,7 @@
         <tr r="G16" s="1"/>
       </tp>
       <tp>
-        <v>83.2</v>
+        <v>89.179999999999993</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -839,7 +840,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>223.6</v>
+        <v>219.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
@@ -847,7 +848,7 @@
         <tr r="K16" s="1"/>
       </tp>
       <tp>
-        <v>356.7</v>
+        <v>338.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -1156,16 +1157,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268B5E47-AB21-40CD-8773-87AC1EA351F0}">
-  <dimension ref="C2:N18"/>
+  <dimension ref="C2:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.81640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="30.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -1207,36 +1209,36 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>1178</v>
+        <v>1093.2</v>
       </c>
       <c r="E3">
-        <v>1158</v>
+        <v>1080</v>
       </c>
       <c r="F3">
-        <v>85459</v>
+        <v>61936</v>
       </c>
       <c r="G3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"mid")</f>
-        <v>1205.8</v>
+        <v>1076.2</v>
       </c>
       <c r="H3" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C3,"open")/RTD("ontrade.quotes",,"SSE",C3,"lastvalidprevclose")-1</f>
-        <v>1.8944759206799056E-2</v>
+        <v>-1.8987341772151889E-2</v>
       </c>
       <c r="I3" s="1">
         <f>(D3-E3)/AVERAGE(D3:E3)</f>
-        <v>1.7123287671232876E-2</v>
+        <v>1.2147984538928812E-2</v>
       </c>
       <c r="J3" s="3">
-        <v>96945.65</v>
+        <v>145349.85</v>
       </c>
       <c r="K3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"low")</f>
-        <v>1151</v>
+        <v>1050</v>
       </c>
       <c r="L3" t="str">
         <f>IF(G3&lt;E3,"Lows",IF(G3&gt;D3,"Highs",""))</f>
-        <v>Highs</v>
+        <v>Lows</v>
       </c>
       <c r="M3" t="str">
         <f>IF(H3&lt;=0,IF(I3&lt;0.02,IF(F3&gt;1.5*J3,IF(K3&lt;E3,-1,""),""),""),"")</f>
@@ -1244,7 +1246,7 @@
       </c>
       <c r="N3" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C3,"volume")/J3</f>
-        <v>5.8007347415794319</v>
+        <v>9.9151736310701377</v>
       </c>
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.35">
@@ -1252,36 +1254,36 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>90.3</v>
+        <v>101.3</v>
       </c>
       <c r="E4">
-        <v>89.2</v>
+        <v>100.15</v>
       </c>
       <c r="F4">
-        <v>165102</v>
+        <v>158399</v>
       </c>
       <c r="G4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"mid")</f>
-        <v>89.93</v>
+        <v>100.1</v>
       </c>
       <c r="H4" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"open")/RTD("ontrade.quotes",,"SSE",C4,"lastvalidprevclose")-1</f>
-        <v>1.2095836240986202E-2</v>
+        <v>-1.9912578921806645E-2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I18" si="0">(D4-E4)/AVERAGE(D4:E4)</f>
-        <v>1.225626740947069E-2</v>
+        <v>1.1417225117895176E-2</v>
       </c>
       <c r="J4" s="3">
-        <v>280639.90000000002</v>
+        <v>315335.15000000002</v>
       </c>
       <c r="K4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"low")</f>
-        <v>86.240000000000009</v>
+        <v>99.48</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" ref="L4:L18" si="1">IF(G4&lt;E4,"Lows",IF(G4&gt;D4,"Highs",""))</f>
-        <v/>
+        <v>Lows</v>
       </c>
       <c r="M4" t="str">
         <f>IF(H4&lt;=0,IF(I4&lt;0.02,IF(F4&gt;1.5*J4,IF(K4&lt;E4,-1,""),""),""),"")</f>
@@ -1289,7 +1291,7 @@
       </c>
       <c r="N4" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C4,"volume")/J4</f>
-        <v>4.7044949773713567</v>
+        <v>7.3812228037375469</v>
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.35">
@@ -1297,36 +1299,36 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>284.5</v>
+        <v>280.2</v>
       </c>
       <c r="E5">
-        <v>279.60000000000002</v>
+        <v>275.8</v>
       </c>
       <c r="F5">
-        <v>35851</v>
+        <v>26733</v>
       </c>
       <c r="G5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"mid")</f>
-        <v>286.89999999999998</v>
+        <v>277.3</v>
       </c>
       <c r="H5" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C5,"open")/RTD("ontrade.quotes",,"SSE",C5,"lastvalidprevclose")-1</f>
-        <v>5.3667262969587792E-3</v>
+        <v>-2.4730059212817901E-2</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>1.7372806240028283E-2</v>
+        <v>1.582733812949632E-2</v>
       </c>
       <c r="J5" s="3">
-        <v>29470.6</v>
+        <v>32223.85</v>
       </c>
       <c r="K5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"low")</f>
-        <v>280.10000000000002</v>
+        <v>273</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v/>
       </c>
       <c r="M5" t="str">
         <f t="shared" ref="M5:M18" si="2">IF(H5&lt;=0,IF(I5&lt;0.02,IF(F5&gt;1.5*J5,IF(K5&lt;E5,-1,""),""),""),"")</f>
@@ -1334,7 +1336,7 @@
       </c>
       <c r="N5" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"volume")/J5</f>
-        <v>4.4948524970648718</v>
+        <v>10.819284474077431</v>
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.35">
@@ -1342,32 +1344,32 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>269.25</v>
+        <v>258.14999999999998</v>
       </c>
       <c r="E6">
-        <v>263.95</v>
+        <v>256.05</v>
       </c>
       <c r="F6">
-        <v>59872</v>
+        <v>38916</v>
       </c>
       <c r="G6">
         <f>RTD("ontrade.quotes",,"SSE",C6,"mid")</f>
-        <v>273.05</v>
+        <v>259.55</v>
       </c>
       <c r="H6" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C6,"open")/RTD("ontrade.quotes",,"SSE",C6,"lastvalidprevclose")-1</f>
-        <v>8.4857627757870535E-3</v>
+        <v>-1.6036655211912887E-2</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>1.9879969992498164E-2</v>
+        <v>8.1680280046673107E-3</v>
       </c>
       <c r="J6" s="3">
-        <v>49340.800000000003</v>
+        <v>76103.25</v>
       </c>
       <c r="K6">
         <f>RTD("ontrade.quotes",,"SSE",C6,"low")</f>
-        <v>266.10000000000002</v>
+        <v>256.05</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
@@ -1379,7 +1381,7 @@
       </c>
       <c r="N6" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C6,"volume")/J6</f>
-        <v>5.7156754653349759</v>
+        <v>6.7973969574229747</v>
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.35">
@@ -1387,36 +1389,36 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>87.84</v>
+        <v>88.84</v>
       </c>
       <c r="E7">
-        <v>87</v>
+        <v>87.72</v>
       </c>
       <c r="F7">
-        <v>250234</v>
+        <v>155824</v>
       </c>
       <c r="G7">
         <f>RTD("ontrade.quotes",,"SSE",C7,"mid")</f>
-        <v>87.149999999999991</v>
+        <v>87.460000000000008</v>
       </c>
       <c r="H7" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C7,"open")/RTD("ontrade.quotes",,"SSE",C7,"lastvalidprevclose")-1</f>
-        <v>1.0817307692307487E-2</v>
+        <v>-1.1213276519398963E-2</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>9.6087851750171968E-3</v>
+        <v>1.2686905301314052E-2</v>
       </c>
       <c r="J7" s="3">
-        <v>222980.3</v>
+        <v>301474.7</v>
       </c>
       <c r="K7">
         <f>RTD("ontrade.quotes",,"SSE",C7,"low")</f>
-        <v>82.9</v>
+        <v>87.38</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Lows</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="2"/>
@@ -1424,7 +1426,7 @@
       </c>
       <c r="N7" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C7,"volume")/J7</f>
-        <v>14.892122757032796</v>
+        <v>6.5871962058507725</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.35">
@@ -1432,36 +1434,36 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>369.6</v>
+        <v>341.6</v>
       </c>
       <c r="E8">
-        <v>363.5</v>
+        <v>337.7</v>
       </c>
       <c r="F8">
-        <v>48968</v>
+        <v>25672</v>
       </c>
       <c r="G8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"mid")</f>
-        <v>363.15</v>
+        <v>341.5</v>
       </c>
       <c r="H8" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C8,"open")/RTD("ontrade.quotes",,"SSE",C8,"lastvalidprevclose")-1</f>
-        <v>6.4898419864560797E-3</v>
+        <v>-2.4186582205586005E-2</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>1.6641658709589478E-2</v>
+        <v>1.1482408361548754E-2</v>
       </c>
       <c r="J8" s="3">
-        <v>77413.350000000006</v>
+        <v>73035.05</v>
       </c>
       <c r="K8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"low")</f>
-        <v>350.1</v>
+        <v>337.7</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v/>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="2"/>
@@ -1469,7 +1471,7 @@
       </c>
       <c r="N8" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C8,"volume")/J8</f>
-        <v>4.4688674498649128</v>
+        <v>8.5907793586777856</v>
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.35">
@@ -1477,36 +1479,36 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>908</v>
+        <v>729.5</v>
       </c>
       <c r="E9">
-        <v>885.5</v>
+        <v>703</v>
       </c>
       <c r="F9">
-        <v>6608</v>
+        <v>34547</v>
       </c>
       <c r="G9">
         <f>RTD("ontrade.quotes",,"SSE",C9,"mid")</f>
-        <v>896</v>
+        <v>732</v>
       </c>
       <c r="H9" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C9,"open")/RTD("ontrade.quotes",,"SSE",C9,"lastvalidprevclose")-1</f>
-        <v>1.3023782559456354E-2</v>
+        <v>-1.1748445058742174E-2</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>2.5090604962364094E-2</v>
+        <v>3.6998254799301918E-2</v>
       </c>
       <c r="J9" s="3">
-        <v>8488.2999999999993</v>
+        <v>11108.1</v>
       </c>
       <c r="K9">
         <f>RTD("ontrade.quotes",,"SSE",C9,"low")</f>
-        <v>888.5</v>
+        <v>703</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Highs</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="2"/>
@@ -1514,7 +1516,7 @@
       </c>
       <c r="N9" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C9,"volume")/J9</f>
-        <v>5.4261748524439524</v>
+        <v>39.370909516478967</v>
       </c>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.35">
@@ -1522,32 +1524,32 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>141.80000000000001</v>
+        <v>125</v>
       </c>
       <c r="E10">
-        <v>136.5</v>
+        <v>123.2</v>
       </c>
       <c r="F10">
-        <v>9892</v>
+        <v>6796</v>
       </c>
       <c r="G10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"mid")</f>
-        <v>136.15000000000003</v>
+        <v>121.95</v>
       </c>
       <c r="H10" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C10,"open")/RTD("ontrade.quotes",,"SSE",C10,"lastvalidprevclose")-1</f>
-        <v>3.4220532319391594E-2</v>
+        <v>-1.5748031496062964E-2</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>3.8088393819619197E-2</v>
+        <v>1.450443190975018E-2</v>
       </c>
       <c r="J10" s="3">
-        <v>14527.55</v>
+        <v>13454.8</v>
       </c>
       <c r="K10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"low")</f>
-        <v>132.05000000000001</v>
+        <v>121.6</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
@@ -1559,7 +1561,7 @@
       </c>
       <c r="N10" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C10,"volume")/J10</f>
-        <v>4.2161961239162835</v>
+        <v>14.176353420340696</v>
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.35">
@@ -1567,36 +1569,36 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>47.32</v>
+        <v>46.22</v>
       </c>
       <c r="E11">
-        <v>46.5</v>
+        <v>45.5</v>
       </c>
       <c r="F11">
-        <v>75799</v>
+        <v>45790</v>
       </c>
       <c r="G11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"mid")</f>
-        <v>45.019999999999996</v>
+        <v>45.74</v>
       </c>
       <c r="H11" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C11,"open")/RTD("ontrade.quotes",,"SSE",C11,"lastvalidprevclose")-1</f>
-        <v>6.9220119981541206E-3</v>
+        <v>-1.2875536480686733E-2</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>1.7480281389895554E-2</v>
+        <v>1.5699956389010006E-2</v>
       </c>
       <c r="J11" s="3">
-        <v>134567.95000000001</v>
+        <v>154154.4</v>
       </c>
       <c r="K11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"low")</f>
-        <v>43.64</v>
+        <v>45.32</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v/>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="2"/>
@@ -1604,7 +1606,7 @@
       </c>
       <c r="N11" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C11,"volume")/J11</f>
-        <v>4.8296864149301522</v>
+        <v>5.9781816153155543</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.35">
@@ -1612,32 +1614,32 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>178</v>
+        <v>204.8</v>
       </c>
       <c r="E12">
-        <v>175.8</v>
+        <v>202.6</v>
       </c>
       <c r="F12">
-        <v>3596</v>
+        <v>729</v>
       </c>
       <c r="G12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"mid")</f>
-        <v>190.5</v>
+        <v>205.4</v>
       </c>
       <c r="H12" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C12,"open")/RTD("ontrade.quotes",,"SSE",C12,"lastvalidprevclose")-1</f>
-        <v>1.975850713501659E-2</v>
+        <v>-3.8910505836574627E-3</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>1.2436404748445385E-2</v>
+        <v>1.0800196367206761E-2</v>
       </c>
       <c r="J12" s="3">
-        <v>7314.85</v>
+        <v>7345.85</v>
       </c>
       <c r="K12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"low")</f>
-        <v>185.1</v>
+        <v>202.6</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
@@ -1649,7 +1651,7 @@
       </c>
       <c r="N12" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C12,"volume")/J12</f>
-        <v>11.619377020718128</v>
+        <v>13.403350190924126</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.35">
@@ -1657,36 +1659,36 @@
         <v>13</v>
       </c>
       <c r="D13">
-        <v>55.3</v>
+        <v>47.62</v>
       </c>
       <c r="E13">
-        <v>54</v>
+        <v>46.6</v>
       </c>
       <c r="F13">
-        <v>608142</v>
+        <v>757933</v>
       </c>
       <c r="G13">
         <f>RTD("ontrade.quotes",,"SSE",C13,"mid")</f>
-        <v>55.620000000000005</v>
+        <v>47.3</v>
       </c>
       <c r="H13" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C13,"open")/RTD("ontrade.quotes",,"SSE",C13,"lastvalidprevclose")-1</f>
-        <v>1.4237542150618232E-2</v>
+        <v>-1.1673962893475109E-2</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>2.3787740164684303E-2</v>
+        <v>2.1651454043727363E-2</v>
       </c>
       <c r="J13" s="3">
-        <v>607453.30000000005</v>
+        <v>950360.95</v>
       </c>
       <c r="K13">
         <f>RTD("ontrade.quotes",,"SSE",C13,"low")</f>
-        <v>53.839999999999996</v>
+        <v>46.6</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v/>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="2"/>
@@ -1694,7 +1696,7 @@
       </c>
       <c r="N13" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C13,"volume")/J13</f>
-        <v>6.7486965664685661</v>
+        <v>12.556374501709062</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.35">
@@ -1702,32 +1704,32 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>575.20000000000005</v>
+        <v>607.20000000000005</v>
       </c>
       <c r="E14">
-        <v>568.6</v>
+        <v>593.20000000000005</v>
       </c>
       <c r="F14">
-        <v>7309</v>
+        <v>7730</v>
       </c>
       <c r="G14">
         <f>RTD("ontrade.quotes",,"SSE",C14,"mid")</f>
-        <v>588.29999999999995</v>
+        <v>618.4</v>
       </c>
       <c r="H14" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C14,"open")/RTD("ontrade.quotes",,"SSE",C14,"lastvalidprevclose")-1</f>
-        <v>5.588543485853803E-3</v>
+        <v>-1.6539861065166805E-3</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>1.1540479104738629E-2</v>
+        <v>2.3325558147284237E-2</v>
       </c>
       <c r="J14" s="3">
-        <v>7969.8</v>
+        <v>10249.450000000001</v>
       </c>
       <c r="K14">
         <f>RTD("ontrade.quotes",,"SSE",C14,"low")</f>
-        <v>575.6</v>
+        <v>593.20000000000005</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
@@ -1739,7 +1741,7 @@
       </c>
       <c r="N14" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C14,"volume")/J14</f>
-        <v>13.736856633792566</v>
+        <v>24.715570103761664</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.35">
@@ -1747,32 +1749,32 @@
         <v>15</v>
       </c>
       <c r="D15">
-        <v>258.60000000000002</v>
+        <v>259.39999999999998</v>
       </c>
       <c r="E15">
-        <v>255</v>
+        <v>256.8</v>
       </c>
       <c r="F15">
-        <v>10251</v>
+        <v>11547</v>
       </c>
       <c r="G15">
         <f>RTD("ontrade.quotes",,"SSE",C15,"mid")</f>
-        <v>264.2</v>
+        <v>262.60000000000002</v>
       </c>
       <c r="H15" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C15,"open")/RTD("ontrade.quotes",,"SSE",C15,"lastvalidprevclose")-1</f>
-        <v>1.0284810126582222E-2</v>
+        <v>-9.9616858237548955E-3</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
-        <v>1.4018691588785135E-2</v>
+        <v>1.0073614877954148E-2</v>
       </c>
       <c r="J15" s="3">
-        <v>22160.15</v>
+        <v>19318.849999999999</v>
       </c>
       <c r="K15">
         <f>RTD("ontrade.quotes",,"SSE",C15,"low")</f>
-        <v>253</v>
+        <v>252.8</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
@@ -1784,7 +1786,7 @@
       </c>
       <c r="N15" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C15,"volume")/J15</f>
-        <v>4.8964921266327162</v>
+        <v>17.643389746284072</v>
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.35">
@@ -1792,32 +1794,32 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>230.2</v>
+        <v>223</v>
       </c>
       <c r="E16">
-        <v>227.5</v>
+        <v>220.5</v>
       </c>
       <c r="F16">
-        <v>33632</v>
+        <v>20896</v>
       </c>
       <c r="G16">
         <f>RTD("ontrade.quotes",,"SSE",C16,"mid")</f>
-        <v>226.3</v>
+        <v>220</v>
       </c>
       <c r="H16" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C16,"open")/RTD("ontrade.quotes",,"SSE",C16,"lastvalidprevclose")-1</f>
-        <v>8.9285714285713969E-3</v>
+        <v>-2.1710234824988794E-2</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="0"/>
-        <v>1.1798121039982472E-2</v>
+        <v>1.1273957158962795E-2</v>
       </c>
       <c r="J16" s="2">
-        <v>20907.25</v>
+        <v>23931.200000000001</v>
       </c>
       <c r="K16" s="2">
         <f>RTD("ontrade.quotes",,"SSE",C16,"low")</f>
-        <v>223.6</v>
+        <v>219.4</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="1"/>
@@ -1829,40 +1831,40 @@
       </c>
       <c r="N16" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C16,"volume")/J16</f>
-        <v>14.394289062406582</v>
+        <v>12.304899043925921</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17">
-        <v>207.2</v>
+        <v>207.5</v>
       </c>
       <c r="E17">
-        <v>205.1</v>
+        <v>206.3</v>
       </c>
       <c r="F17">
-        <v>23567</v>
+        <v>10511</v>
       </c>
       <c r="G17">
         <f>RTD("ontrade.quotes",,"SSE",C17,"mid")</f>
-        <v>206.7</v>
+        <v>206.4</v>
       </c>
       <c r="H17" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C17,"open")/RTD("ontrade.quotes",,"SSE",C17,"lastvalidprevclose")-1</f>
-        <v>9.5000000000000639E-3</v>
+        <v>-1.6619183285849992E-2</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="0"/>
-        <v>1.0186757215619667E-2</v>
+        <v>5.7999033349443625E-3</v>
       </c>
       <c r="J17" s="2">
-        <v>30266.400000000001</v>
+        <v>36436.949999999997</v>
       </c>
       <c r="K17" s="2">
         <f>RTD("ontrade.quotes",,"SSE",C17,"low")</f>
-        <v>200.8</v>
+        <v>204.6</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="1"/>
@@ -1874,44 +1876,44 @@
       </c>
       <c r="N17" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C17,"volume")/J17</f>
-        <v>14.999603520735866</v>
+        <v>8.160836733041597</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>25</v>
       </c>
       <c r="D18">
-        <v>99.8</v>
+        <v>102.7</v>
       </c>
       <c r="E18">
-        <v>97.5</v>
+        <v>100.8</v>
       </c>
       <c r="F18">
-        <v>8088</v>
+        <v>3333</v>
       </c>
       <c r="G18">
         <f>RTD("ontrade.quotes",,"SSE",C18,"mid")</f>
-        <v>102.55000000000001</v>
+        <v>100</v>
       </c>
       <c r="H18" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C18,"open")/RTD("ontrade.quotes",,"SSE",C18,"lastvalidprevclose")-1</f>
-        <v>1.0198878123406363E-2</v>
+        <v>-1.3448607108549337E-2</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="0"/>
-        <v>2.3314749113025821E-2</v>
+        <v>1.8673218673218729E-2</v>
       </c>
       <c r="J18" s="2">
-        <v>10139</v>
+        <v>13344.5</v>
       </c>
       <c r="K18" s="2">
         <f>RTD("ontrade.quotes",,"SSE",C18,"low")</f>
-        <v>98.9</v>
+        <v>100</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v>Lows</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="2"/>
@@ -1919,8 +1921,18 @@
       </c>
       <c r="N18" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C18,"volume")/J18</f>
-        <v>13.832034717427755</v>
-      </c>
+        <v>32.76623327962831</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.35">
+      <c r="P32" s="1"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="41" spans="16:20" x14ac:dyDescent="0.35">
+      <c r="P41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="M2 L1:L1048576">

--- a/New highs and lows.xlsx
+++ b/New highs and lows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\GitHub\Growth-stock-high-volume-short\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E99F14E-B753-4403-BC77-B25E27D1899B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A9C36C-25F5-43AC-A483-9E0978093A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{56CA8ECF-8D06-4762-A8AA-5F67DF2C767F}"/>
   </bookViews>
@@ -216,7 +216,7 @@
   <volType type="realTimeData">
     <main first="ontrade.quotes">
       <tp>
-        <v>273</v>
+        <v>265.3</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -224,7 +224,7 @@
         <tr r="K5" s="1"/>
       </tp>
       <tp>
-        <v>277.3</v>
+        <v>274.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -232,7 +232,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>723.5</v>
+        <v>684.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -240,7 +240,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>190740</v>
+        <v>47425</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -248,7 +248,7 @@
         <tr r="N10" s="1"/>
       </tp>
       <tp>
-        <v>253321</v>
+        <v>41951</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -256,7 +256,7 @@
         <tr r="N14" s="1"/>
       </tp>
       <tp>
-        <v>225.7</v>
+        <v>212.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
@@ -264,7 +264,7 @@
         <tr r="H16" s="1"/>
       </tp>
       <tp>
-        <v>517304</v>
+        <v>154586</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -272,7 +272,7 @@
         <tr r="N6" s="1"/>
       </tp>
       <tp>
-        <v>618.4</v>
+        <v>598.29999999999995</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -280,7 +280,7 @@
         <tr r="G14" s="1"/>
       </tp>
       <tp>
-        <v>87.38</v>
+        <v>85.02</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -288,7 +288,7 @@
         <tr r="K7" s="1"/>
       </tp>
       <tp>
-        <v>1985873</v>
+        <v>422118</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -296,7 +296,7 @@
         <tr r="N7" s="1"/>
       </tp>
       <tp>
-        <v>593.20000000000005</v>
+        <v>589.20000000000005</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -304,7 +304,7 @@
         <tr r="K14" s="1"/>
       </tp>
       <tp>
-        <v>87.460000000000008</v>
+        <v>87.78</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -312,7 +312,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>252.8</v>
+        <v>251.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -320,7 +320,7 @@
         <tr r="K15" s="1"/>
       </tp>
       <tp>
-        <v>220.8</v>
+        <v>212.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
@@ -328,7 +328,7 @@
         <tr r="H16" s="1"/>
       </tp>
       <tp>
-        <v>262.60000000000002</v>
+        <v>260.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -336,7 +336,7 @@
         <tr r="G15" s="1"/>
       </tp>
       <tp>
-        <v>437249</v>
+        <v>16702</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
@@ -344,7 +344,7 @@
         <tr r="N18" s="1"/>
       </tp>
       <tp>
-        <v>340850</v>
+        <v>86458</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -352,7 +352,7 @@
         <tr r="N15" s="1"/>
       </tp>
       <tp>
-        <v>297356</v>
+        <v>93200</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
@@ -360,7 +360,7 @@
         <tr r="N17" s="1"/>
       </tp>
       <tp>
-        <v>102.95</v>
+        <v>95.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -368,7 +368,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>100.9</v>
+        <v>95.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -376,7 +376,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>47.3</v>
+        <v>45.765000000000001</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -384,7 +384,7 @@
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>46.6</v>
+        <v>44.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -392,7 +392,7 @@
         <tr r="K13" s="1"/>
       </tp>
       <tp>
-        <v>47.97</v>
+        <v>45.39</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -400,7 +400,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>100.1</v>
+        <v>96.93</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -408,7 +408,7 @@
         <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>259.55</v>
+        <v>256</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -416,7 +416,7 @@
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>99.48</v>
+        <v>95.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -424,7 +424,7 @@
         <tr r="K4" s="1"/>
       </tp>
       <tp>
-        <v>256.05</v>
+        <v>250.25</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -432,7 +432,7 @@
         <tr r="K6" s="1"/>
       </tp>
       <tp>
-        <v>715</v>
+        <v>684</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -440,7 +440,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>100</v>
+        <v>99.65</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
@@ -448,7 +448,7 @@
         <tr r="G18" s="1"/>
       </tp>
       <tp>
-        <v>348639</v>
+        <v>82751</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -456,7 +456,7 @@
         <tr r="N5" s="1"/>
       </tp>
       <tp>
-        <v>100</v>
+        <v>97.7</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
@@ -464,7 +464,7 @@
         <tr r="K18" s="1"/>
       </tp>
       <tp>
-        <v>205.6</v>
+        <v>203</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -472,7 +472,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>347.3</v>
+        <v>339</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -480,7 +480,7 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>1106</v>
+        <v>1060</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -488,7 +488,7 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>204.6</v>
+        <v>203.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
@@ -496,7 +496,7 @@
         <tr r="K17" s="1"/>
       </tp>
       <tp>
-        <v>206.4</v>
+        <v>210.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
@@ -504,7 +504,7 @@
         <tr r="G17" s="1"/>
       </tp>
       <tp>
-        <v>121.95</v>
+        <v>124.05000000000001</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -512,7 +512,7 @@
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>121.6</v>
+        <v>121.05</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -520,7 +520,7 @@
         <tr r="K10" s="1"/>
       </tp>
       <tp>
-        <v>46.6</v>
+        <v>44.220000000000006</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -528,7 +528,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>207.1</v>
+        <v>204.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
@@ -536,7 +536,7 @@
         <tr r="H17" s="1"/>
       </tp>
       <tp>
-        <v>921563</v>
+        <v>248507</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -544,7 +544,7 @@
         <tr r="N11" s="1"/>
       </tp>
       <tp>
-        <v>258.39999999999998</v>
+        <v>253.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -552,7 +552,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>45.74</v>
+        <v>45.150000000000006</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -560,7 +560,7 @@
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>45.32</v>
+        <v>44.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -568,7 +568,7 @@
         <tr r="K11" s="1"/>
       </tp>
       <tp>
-        <v>257.7</v>
+        <v>251.95000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -576,7 +576,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>98459</v>
+        <v>30895</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -584,7 +584,7 @@
         <tr r="N12" s="1"/>
       </tp>
       <tp>
-        <v>1441169</v>
+        <v>184365</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -592,7 +592,7 @@
         <tr r="N3" s="1"/>
       </tp>
       <tp>
-        <v>627428</v>
+        <v>78084</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -600,7 +600,7 @@
         <tr r="N8" s="1"/>
       </tp>
       <tp>
-        <v>280</v>
+        <v>266.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -608,7 +608,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>102.7</v>
+        <v>97.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
@@ -616,7 +616,7 @@
         <tr r="H18" s="1"/>
       </tp>
       <tp>
-        <v>88.179999999999993</v>
+        <v>85.14</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -624,7 +624,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>603.6</v>
+        <v>590</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -632,7 +632,7 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>125</v>
+        <v>121.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -640,7 +640,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>337.7</v>
+        <v>336</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -648,7 +648,7 @@
         <tr r="K8" s="1"/>
       </tp>
       <tp>
-        <v>1050</v>
+        <v>1051.4000000000001</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -656,7 +656,7 @@
         <tr r="K3" s="1"/>
       </tp>
       <tp>
-        <v>1076.2</v>
+        <v>1073.1999999999998</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -664,7 +664,7 @@
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>341.5</v>
+        <v>346.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -672,7 +672,7 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>210.6</v>
+        <v>203.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
@@ -680,7 +680,7 @@
         <tr r="H17" s="1"/>
       </tp>
       <tp>
-        <v>2327559</v>
+        <v>755196</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -688,7 +688,7 @@
         <tr r="N4" s="1"/>
       </tp>
       <tp>
-        <v>287.10000000000002</v>
+        <v>266.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -696,7 +696,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>46</v>
+        <v>44.42</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -704,7 +704,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>204.8</v>
+        <v>195.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -712,7 +712,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>11933088</v>
+        <v>2410141</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -720,7 +720,7 @@
         <tr r="N13" s="1"/>
       </tp>
       <tp>
-        <v>261.89999999999998</v>
+        <v>253.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -728,7 +728,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>47.41</v>
+        <v>45.39</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -736,7 +736,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>604.6</v>
+        <v>586.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -744,7 +744,7 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>294471</v>
+        <v>40516</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
@@ -752,7 +752,7 @@
         <tr r="N16" s="1"/>
       </tp>
       <tp>
-        <v>205.4</v>
+        <v>191.3</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -760,7 +760,7 @@
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>127</v>
+        <v>121.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -768,7 +768,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>202.6</v>
+        <v>190.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -776,7 +776,7 @@
         <tr r="K12" s="1"/>
       </tp>
       <tp>
-        <v>437336</v>
+        <v>45293</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -784,7 +784,7 @@
         <tr r="N9" s="1"/>
       </tp>
       <tp>
-        <v>104.1</v>
+        <v>97.7</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
@@ -792,7 +792,7 @@
         <tr r="H18" s="1"/>
       </tp>
       <tp>
-        <v>1085</v>
+        <v>1057.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -800,7 +800,7 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>261</v>
+        <v>255</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -808,7 +808,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>703</v>
+        <v>683</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -816,7 +816,7 @@
         <tr r="K9" s="1"/>
       </tp>
       <tp>
-        <v>732</v>
+        <v>710.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -824,7 +824,7 @@
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>220</v>
+        <v>216.65</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
@@ -832,7 +832,7 @@
         <tr r="G16" s="1"/>
       </tp>
       <tp>
-        <v>89.179999999999993</v>
+        <v>85.14</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -840,7 +840,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>219.4</v>
+        <v>212.1</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
@@ -848,7 +848,7 @@
         <tr r="K16" s="1"/>
       </tp>
       <tp>
-        <v>338.9</v>
+        <v>338.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -1160,7 +1160,7 @@
   <dimension ref="C2:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1172,7 +1172,7 @@
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:15" x14ac:dyDescent="0.35">
       <c r="D2" t="s">
         <v>0</v>
       </c>
@@ -1204,41 +1204,41 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>1093.2</v>
+        <v>1077</v>
       </c>
       <c r="E3">
-        <v>1080</v>
+        <v>1051.4000000000001</v>
       </c>
       <c r="F3">
-        <v>61936</v>
+        <v>63478</v>
       </c>
       <c r="G3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"mid")</f>
-        <v>1076.2</v>
+        <v>1073.1999999999998</v>
       </c>
       <c r="H3" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C3,"open")/RTD("ontrade.quotes",,"SSE",C3,"lastvalidprevclose")-1</f>
-        <v>-1.8987341772151889E-2</v>
+        <v>-2.0754716981132848E-3</v>
       </c>
       <c r="I3" s="1">
         <f>(D3-E3)/AVERAGE(D3:E3)</f>
-        <v>1.2147984538928812E-2</v>
+        <v>2.4055628641232764E-2</v>
       </c>
       <c r="J3" s="3">
-        <v>145349.85</v>
+        <v>144598.39999999999</v>
       </c>
       <c r="K3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"low")</f>
-        <v>1050</v>
+        <v>1051.4000000000001</v>
       </c>
       <c r="L3" t="str">
         <f>IF(G3&lt;E3,"Lows",IF(G3&gt;D3,"Highs",""))</f>
-        <v>Lows</v>
+        <v/>
       </c>
       <c r="M3" t="str">
         <f>IF(H3&lt;=0,IF(I3&lt;0.02,IF(F3&gt;1.5*J3,IF(K3&lt;E3,-1,""),""),""),"")</f>
@@ -1246,44 +1246,48 @@
       </c>
       <c r="N3" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C3,"volume")/J3</f>
-        <v>9.9151736310701377</v>
+        <v>1.2750141080399231</v>
+      </c>
+      <c r="O3" s="5">
+        <f>F3/J3</f>
+        <v>0.43899517560360285</v>
       </c>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4">
-        <v>101.3</v>
+        <v>97.62</v>
       </c>
       <c r="E4">
-        <v>100.15</v>
+        <v>95.4</v>
       </c>
       <c r="F4">
-        <v>158399</v>
+        <v>259079</v>
       </c>
       <c r="G4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"mid")</f>
-        <v>100.1</v>
+        <v>96.93</v>
       </c>
       <c r="H4" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"open")/RTD("ontrade.quotes",,"SSE",C4,"lastvalidprevclose")-1</f>
-        <v>-1.9912578921806645E-2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I18" si="0">(D4-E4)/AVERAGE(D4:E4)</f>
-        <v>1.1417225117895176E-2</v>
+        <v>2.30027976375505E-2</v>
       </c>
       <c r="J4" s="3">
-        <v>315335.15000000002</v>
+        <v>313353.7</v>
       </c>
       <c r="K4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"low")</f>
-        <v>99.48</v>
+        <v>95.4</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" ref="L4:L18" si="1">IF(G4&lt;E4,"Lows",IF(G4&gt;D4,"Highs",""))</f>
-        <v>Lows</v>
+        <v/>
       </c>
       <c r="M4" t="str">
         <f>IF(H4&lt;=0,IF(I4&lt;0.02,IF(F4&gt;1.5*J4,IF(K4&lt;E4,-1,""),""),""),"")</f>
@@ -1291,449 +1295,489 @@
       </c>
       <c r="N4" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C4,"volume")/J4</f>
-        <v>7.3812228037375469</v>
+        <v>2.410043347182433</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" ref="O4:O18" si="2">F4/J4</f>
+        <v>0.82679413072192853</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>280.2</v>
+        <v>272.60000000000002</v>
       </c>
       <c r="E5">
-        <v>275.8</v>
+        <v>265.3</v>
       </c>
       <c r="F5">
-        <v>26733</v>
+        <v>29070</v>
       </c>
       <c r="G5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"mid")</f>
-        <v>277.3</v>
+        <v>274.2</v>
       </c>
       <c r="H5" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C5,"open")/RTD("ontrade.quotes",,"SSE",C5,"lastvalidprevclose")-1</f>
-        <v>-2.4730059212817901E-2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>1.582733812949632E-2</v>
+        <v>2.7142591559769513E-2</v>
       </c>
       <c r="J5" s="3">
-        <v>32223.85</v>
+        <v>31693.25</v>
       </c>
       <c r="K5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"low")</f>
-        <v>273</v>
+        <v>265.3</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Highs</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" ref="M5:M18" si="2">IF(H5&lt;=0,IF(I5&lt;0.02,IF(F5&gt;1.5*J5,IF(K5&lt;E5,-1,""),""),""),"")</f>
+        <f t="shared" ref="M5:M18" si="3">IF(H5&lt;=0,IF(I5&lt;0.02,IF(F5&gt;1.5*J5,IF(K5&lt;E5,-1,""),""),""),"")</f>
         <v/>
       </c>
       <c r="N5" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"volume")/J5</f>
-        <v>10.819284474077431</v>
+        <v>2.6109976099011618</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.91723000954461908</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>258.14999999999998</v>
+        <v>256</v>
       </c>
       <c r="E6">
-        <v>256.05</v>
+        <v>250.25</v>
       </c>
       <c r="F6">
-        <v>38916</v>
+        <v>61267</v>
       </c>
       <c r="G6">
         <f>RTD("ontrade.quotes",,"SSE",C6,"mid")</f>
-        <v>259.55</v>
+        <v>256</v>
       </c>
       <c r="H6" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C6,"open")/RTD("ontrade.quotes",,"SSE",C6,"lastvalidprevclose")-1</f>
-        <v>-1.6036655211912887E-2</v>
+        <v>-4.936808846761287E-3</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>8.1680280046673107E-3</v>
+        <v>2.2716049382716048E-2</v>
       </c>
       <c r="J6" s="3">
-        <v>76103.25</v>
+        <v>76686.649999999994</v>
       </c>
       <c r="K6">
         <f>RTD("ontrade.quotes",,"SSE",C6,"low")</f>
-        <v>256.05</v>
+        <v>250.25</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v/>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N6" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C6,"volume")/J6</f>
-        <v>6.7973969574229747</v>
+        <v>2.0158137042105766</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.79892654066907354</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7">
-        <v>88.84</v>
+        <v>87.08</v>
       </c>
       <c r="E7">
-        <v>87.72</v>
+        <v>85.02</v>
       </c>
       <c r="F7">
-        <v>155824</v>
+        <v>141267</v>
       </c>
       <c r="G7">
         <f>RTD("ontrade.quotes",,"SSE",C7,"mid")</f>
-        <v>87.460000000000008</v>
+        <v>87.78</v>
       </c>
       <c r="H7" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C7,"open")/RTD("ontrade.quotes",,"SSE",C7,"lastvalidprevclose")-1</f>
-        <v>-1.1213276519398963E-2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>1.2686905301314052E-2</v>
+        <v>2.3939570017431754E-2</v>
       </c>
       <c r="J7" s="3">
-        <v>301474.7</v>
+        <v>288215.65000000002</v>
       </c>
       <c r="K7">
         <f>RTD("ontrade.quotes",,"SSE",C7,"low")</f>
-        <v>87.38</v>
+        <v>85.02</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v>Highs</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N7" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C7,"volume")/J7</f>
-        <v>6.5871962058507725</v>
+        <v>1.4645908367571294</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.49014340477347429</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8">
-        <v>341.6</v>
+        <v>342.9</v>
       </c>
       <c r="E8">
-        <v>337.7</v>
+        <v>336</v>
       </c>
       <c r="F8">
-        <v>25672</v>
+        <v>22383</v>
       </c>
       <c r="G8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"mid")</f>
-        <v>341.5</v>
+        <v>346.5</v>
       </c>
       <c r="H8" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C8,"open")/RTD("ontrade.quotes",,"SSE",C8,"lastvalidprevclose")-1</f>
-        <v>-2.4186582205586005E-2</v>
+        <v>-2.3598820058997605E-3</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>1.1482408361548754E-2</v>
+        <v>2.0326999558108638E-2</v>
       </c>
       <c r="J8" s="3">
-        <v>73035.05</v>
+        <v>71353.8</v>
       </c>
       <c r="K8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"low")</f>
-        <v>337.7</v>
+        <v>336</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Highs</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N8" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C8,"volume")/J8</f>
-        <v>8.5907793586777856</v>
+        <v>1.0943215357836582</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.31369037108044701</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>729.5</v>
+        <v>707.5</v>
       </c>
       <c r="E9">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="F9">
-        <v>34547</v>
+        <v>19096</v>
       </c>
       <c r="G9">
         <f>RTD("ontrade.quotes",,"SSE",C9,"mid")</f>
-        <v>732</v>
+        <v>710.5</v>
       </c>
       <c r="H9" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C9,"open")/RTD("ontrade.quotes",,"SSE",C9,"lastvalidprevclose")-1</f>
-        <v>-1.1748445058742174E-2</v>
+        <v>-7.3046018991962391E-4</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>3.6998254799301918E-2</v>
+        <v>3.5239122617763394E-2</v>
       </c>
       <c r="J9" s="3">
-        <v>11108.1</v>
+        <v>13735.75</v>
       </c>
       <c r="K9">
         <f>RTD("ontrade.quotes",,"SSE",C9,"low")</f>
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
         <v>Highs</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N9" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C9,"volume")/J9</f>
-        <v>39.370909516478967</v>
+        <v>3.2974537247693063</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="2"/>
+        <v>1.3902407950057332</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10">
-        <v>125</v>
+        <v>124.3</v>
       </c>
       <c r="E10">
-        <v>123.2</v>
+        <v>121.9</v>
       </c>
       <c r="F10">
-        <v>6796</v>
+        <v>19741</v>
       </c>
       <c r="G10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"mid")</f>
-        <v>121.95</v>
+        <v>124.05000000000001</v>
       </c>
       <c r="H10" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C10,"open")/RTD("ontrade.quotes",,"SSE",C10,"lastvalidprevclose")-1</f>
-        <v>-1.5748031496062964E-2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>1.450443190975018E-2</v>
+        <v>1.949634443541829E-2</v>
       </c>
       <c r="J10" s="3">
-        <v>13454.8</v>
+        <v>14129.95</v>
       </c>
       <c r="K10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"low")</f>
-        <v>121.6</v>
+        <v>121.05</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v/>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N10" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C10,"volume")/J10</f>
-        <v>14.176353420340696</v>
+        <v>3.3563459177137922</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="2"/>
+        <v>1.3971033160060722</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11">
-        <v>46.22</v>
+        <v>45.74</v>
       </c>
       <c r="E11">
-        <v>45.5</v>
+        <v>44.2</v>
       </c>
       <c r="F11">
-        <v>45790</v>
+        <v>86038</v>
       </c>
       <c r="G11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"mid")</f>
-        <v>45.74</v>
+        <v>45.150000000000006</v>
       </c>
       <c r="H11" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C11,"open")/RTD("ontrade.quotes",,"SSE",C11,"lastvalidprevclose")-1</f>
-        <v>-1.2875536480686733E-2</v>
+        <v>4.5228403437358455E-3</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>1.5699956389010006E-2</v>
+        <v>3.4245052257060246E-2</v>
       </c>
       <c r="J11" s="3">
-        <v>154154.4</v>
+        <v>156657.95000000001</v>
       </c>
       <c r="K11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"low")</f>
-        <v>45.32</v>
+        <v>44.2</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N11" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C11,"volume")/J11</f>
-        <v>5.9781816153155543</v>
+        <v>1.5863031528243539</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="2"/>
+        <v>0.54920928047379658</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12">
-        <v>204.8</v>
+        <v>201</v>
       </c>
       <c r="E12">
-        <v>202.6</v>
+        <v>195.8</v>
       </c>
       <c r="F12">
-        <v>729</v>
+        <v>8461</v>
       </c>
       <c r="G12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"mid")</f>
-        <v>205.4</v>
+        <v>191.3</v>
       </c>
       <c r="H12" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C12,"open")/RTD("ontrade.quotes",,"SSE",C12,"lastvalidprevclose")-1</f>
-        <v>-3.8910505836574627E-3</v>
+        <v>-3.4975369458128069E-2</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>1.0800196367206761E-2</v>
+        <v>2.6209677419354781E-2</v>
       </c>
       <c r="J12" s="3">
-        <v>7345.85</v>
+        <v>7651.25</v>
       </c>
       <c r="K12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"low")</f>
-        <v>202.6</v>
+        <v>190.2</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v>Lows</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N12" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C12,"volume")/J12</f>
-        <v>13.403350190924126</v>
+        <v>4.037902303545172</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1058323803300114</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>13</v>
       </c>
       <c r="D13">
-        <v>47.62</v>
+        <v>46.18</v>
       </c>
       <c r="E13">
-        <v>46.6</v>
+        <v>44.8</v>
       </c>
       <c r="F13">
-        <v>757933</v>
+        <v>907594</v>
       </c>
       <c r="G13">
         <f>RTD("ontrade.quotes",,"SSE",C13,"mid")</f>
-        <v>47.3</v>
+        <v>45.765000000000001</v>
       </c>
       <c r="H13" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C13,"open")/RTD("ontrade.quotes",,"SSE",C13,"lastvalidprevclose")-1</f>
-        <v>-1.1673962893475109E-2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>2.1651454043727363E-2</v>
+        <v>3.0336337656627889E-2</v>
       </c>
       <c r="J13" s="3">
-        <v>950360.95</v>
+        <v>1043431.55</v>
       </c>
       <c r="K13">
         <f>RTD("ontrade.quotes",,"SSE",C13,"low")</f>
-        <v>46.6</v>
+        <v>44.8</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N13" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C13,"volume")/J13</f>
-        <v>12.556374501709062</v>
+        <v>2.3098218565463156</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="2"/>
+        <v>0.86981652030744128</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>14</v>
       </c>
       <c r="D14">
-        <v>607.20000000000005</v>
+        <v>598.79999999999995</v>
       </c>
       <c r="E14">
-        <v>593.20000000000005</v>
+        <v>589.20000000000005</v>
       </c>
       <c r="F14">
-        <v>7730</v>
+        <v>13244</v>
       </c>
       <c r="G14">
         <f>RTD("ontrade.quotes",,"SSE",C14,"mid")</f>
-        <v>618.4</v>
+        <v>598.29999999999995</v>
       </c>
       <c r="H14" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C14,"open")/RTD("ontrade.quotes",,"SSE",C14,"lastvalidprevclose")-1</f>
-        <v>-1.6539861065166805E-3</v>
+        <v>5.7961131946810962E-3</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>2.3325558147284237E-2</v>
+        <v>1.6161616161616009E-2</v>
       </c>
       <c r="J14" s="3">
-        <v>10249.450000000001</v>
+        <v>11429.9</v>
       </c>
       <c r="K14">
         <f>RTD("ontrade.quotes",,"SSE",C14,"low")</f>
-        <v>593.20000000000005</v>
+        <v>589.20000000000005</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v/>
       </c>
       <c r="M14" t="str">
         <f>IF(H14&lt;=0,IF(I14&lt;0.02,IF(F14&gt;1.5*J14,IF(K14&lt;E14,-1,""),""),""),"")</f>
@@ -1741,97 +1785,109 @@
       </c>
       <c r="N14" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C14,"volume")/J14</f>
-        <v>24.715570103761664</v>
+        <v>3.670285829272347</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1587152993464511</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15">
-        <v>259.39999999999998</v>
+        <v>260.39999999999998</v>
       </c>
       <c r="E15">
-        <v>256.8</v>
+        <v>251.4</v>
       </c>
       <c r="F15">
-        <v>11547</v>
+        <v>50779</v>
       </c>
       <c r="G15">
         <f>RTD("ontrade.quotes",,"SSE",C15,"mid")</f>
-        <v>262.60000000000002</v>
+        <v>260.2</v>
       </c>
       <c r="H15" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C15,"open")/RTD("ontrade.quotes",,"SSE",C15,"lastvalidprevclose")-1</f>
-        <v>-9.9616858237548955E-3</v>
+        <v>-5.4901960784313752E-3</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
-        <v>1.0073614877954148E-2</v>
+        <v>3.5169988276670464E-2</v>
       </c>
       <c r="J15" s="3">
-        <v>19318.849999999999</v>
+        <v>19491.05</v>
       </c>
       <c r="K15">
         <f>RTD("ontrade.quotes",,"SSE",C15,"low")</f>
-        <v>252.8</v>
+        <v>251.4</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v/>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N15" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C15,"volume")/J15</f>
-        <v>17.643389746284072</v>
+        <v>4.4357794987956014</v>
+      </c>
+      <c r="O15" s="5">
+        <f t="shared" si="2"/>
+        <v>2.6052470236339245</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>23</v>
       </c>
       <c r="D16">
-        <v>223</v>
+        <v>215.9</v>
       </c>
       <c r="E16">
-        <v>220.5</v>
+        <v>212.1</v>
       </c>
       <c r="F16">
-        <v>20896</v>
+        <v>11521</v>
       </c>
       <c r="G16">
         <f>RTD("ontrade.quotes",,"SSE",C16,"mid")</f>
-        <v>220</v>
+        <v>216.65</v>
       </c>
       <c r="H16" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C16,"open")/RTD("ontrade.quotes",,"SSE",C16,"lastvalidprevclose")-1</f>
-        <v>-2.1710234824988794E-2</v>
+        <v>-2.3485204321277431E-3</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="0"/>
-        <v>1.1273957158962795E-2</v>
+        <v>1.7757009345794446E-2</v>
       </c>
       <c r="J16" s="2">
-        <v>23931.200000000001</v>
+        <v>24393.95</v>
       </c>
       <c r="K16" s="2">
         <f>RTD("ontrade.quotes",,"SSE",C16,"low")</f>
-        <v>219.4</v>
+        <v>212.1</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v>Highs</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N16" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C16,"volume")/J16</f>
-        <v>12.304899043925921</v>
+        <v>1.6609036256940757</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.47228923565064285</v>
       </c>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.35">
@@ -1839,44 +1895,48 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>207.5</v>
+        <v>207.6</v>
       </c>
       <c r="E17">
-        <v>206.3</v>
+        <v>203.8</v>
       </c>
       <c r="F17">
-        <v>10511</v>
+        <v>26405</v>
       </c>
       <c r="G17">
         <f>RTD("ontrade.quotes",,"SSE",C17,"mid")</f>
-        <v>206.4</v>
+        <v>210.5</v>
       </c>
       <c r="H17" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C17,"open")/RTD("ontrade.quotes",,"SSE",C17,"lastvalidprevclose")-1</f>
-        <v>-1.6619183285849992E-2</v>
+        <v>6.3882063882063633E-3</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="0"/>
-        <v>5.7999033349443625E-3</v>
+        <v>1.8473505104521067E-2</v>
       </c>
       <c r="J17" s="2">
-        <v>36436.949999999997</v>
+        <v>33869.1</v>
       </c>
       <c r="K17" s="2">
         <f>RTD("ontrade.quotes",,"SSE",C17,"low")</f>
-        <v>204.6</v>
+        <v>203.8</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Highs</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N17" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C17,"volume")/J17</f>
-        <v>8.160836733041597</v>
+        <v>2.7517707881225069</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.77961918090530902</v>
       </c>
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.35">
@@ -1884,44 +1944,48 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>102.7</v>
+        <v>99.4</v>
       </c>
       <c r="E18">
-        <v>100.8</v>
+        <v>97.7</v>
       </c>
       <c r="F18">
-        <v>3333</v>
+        <v>5238</v>
       </c>
       <c r="G18">
         <f>RTD("ontrade.quotes",,"SSE",C18,"mid")</f>
-        <v>100</v>
+        <v>99.65</v>
       </c>
       <c r="H18" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C18,"open")/RTD("ontrade.quotes",,"SSE",C18,"lastvalidprevclose")-1</f>
-        <v>-1.3448607108549337E-2</v>
+        <v>1.0235414534287557E-3</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="0"/>
-        <v>1.8673218673218729E-2</v>
+        <v>1.7250126839167962E-2</v>
       </c>
       <c r="J18" s="2">
-        <v>13344.5</v>
+        <v>12949.75</v>
       </c>
       <c r="K18" s="2">
         <f>RTD("ontrade.quotes",,"SSE",C18,"low")</f>
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v>Highs</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N18" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C18,"volume")/J18</f>
-        <v>32.76623327962831</v>
+        <v>1.289754628467731</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.4044865730998668</v>
       </c>
     </row>
     <row r="32" spans="3:18" x14ac:dyDescent="0.35">

--- a/New highs and lows.xlsx
+++ b/New highs and lows.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\GitHub\Growth-stock-high-volume-short\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A9C36C-25F5-43AC-A483-9E0978093A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478E7D26-ACA5-4529-BBC9-B5139B82C0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{56CA8ECF-8D06-4762-A8AA-5F67DF2C767F}"/>
   </bookViews>
@@ -216,7 +216,7 @@
   <volType type="realTimeData">
     <main first="ontrade.quotes">
       <tp>
-        <v>265.3</v>
+        <v>258.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -224,7 +224,7 @@
         <tr r="K5" s="1"/>
       </tp>
       <tp>
-        <v>274.2</v>
+        <v>259.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -232,7 +232,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>684.5</v>
+        <v>693</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -240,7 +240,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>47425</v>
+        <v>4218864</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -248,7 +248,7 @@
         <tr r="N10" s="1"/>
       </tp>
       <tp>
-        <v>41951</v>
+        <v>195092</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -256,7 +256,7 @@
         <tr r="N14" s="1"/>
       </tp>
       <tp>
-        <v>212.9</v>
+        <v>211.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
@@ -264,7 +264,7 @@
         <tr r="H16" s="1"/>
       </tp>
       <tp>
-        <v>154586</v>
+        <v>676455</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -272,7 +272,7 @@
         <tr r="N6" s="1"/>
       </tp>
       <tp>
-        <v>598.29999999999995</v>
+        <v>588.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -280,7 +280,7 @@
         <tr r="G14" s="1"/>
       </tp>
       <tp>
-        <v>85.02</v>
+        <v>76.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -288,7 +288,7 @@
         <tr r="K7" s="1"/>
       </tp>
       <tp>
-        <v>422118</v>
+        <v>6150934</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -296,7 +296,7 @@
         <tr r="N7" s="1"/>
       </tp>
       <tp>
-        <v>589.20000000000005</v>
+        <v>583</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -304,7 +304,7 @@
         <tr r="K14" s="1"/>
       </tp>
       <tp>
-        <v>87.78</v>
+        <v>77.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -312,7 +312,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>251.4</v>
+        <v>252.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -320,7 +320,7 @@
         <tr r="K15" s="1"/>
       </tp>
       <tp>
-        <v>212.4</v>
+        <v>211.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
@@ -328,7 +328,7 @@
         <tr r="H16" s="1"/>
       </tp>
       <tp>
-        <v>260.2</v>
+        <v>254</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -336,7 +336,7 @@
         <tr r="G15" s="1"/>
       </tp>
       <tp>
-        <v>16702</v>
+        <v>153185</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
@@ -344,7 +344,7 @@
         <tr r="N18" s="1"/>
       </tp>
       <tp>
-        <v>86458</v>
+        <v>178738</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -352,7 +352,7 @@
         <tr r="N15" s="1"/>
       </tp>
       <tp>
-        <v>93200</v>
+        <v>518464</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
@@ -360,7 +360,7 @@
         <tr r="N17" s="1"/>
       </tp>
       <tp>
-        <v>95.8</v>
+        <v>76.16</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -368,7 +368,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>95.8</v>
+        <v>76.16</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -376,7 +376,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>45.765000000000001</v>
+        <v>41.28</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -384,7 +384,7 @@
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>44.8</v>
+        <v>41.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -392,7 +392,7 @@
         <tr r="K13" s="1"/>
       </tp>
       <tp>
-        <v>45.39</v>
+        <v>42.08</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -400,7 +400,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>96.93</v>
+        <v>67.08</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -408,7 +408,7 @@
         <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>256</v>
+        <v>237.95000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -416,7 +416,7 @@
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>95.4</v>
+        <v>66.819999999999993</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -424,7 +424,7 @@
         <tr r="K4" s="1"/>
       </tp>
       <tp>
-        <v>250.25</v>
+        <v>237.05</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -432,7 +432,7 @@
         <tr r="K6" s="1"/>
       </tp>
       <tp>
-        <v>684</v>
+        <v>693</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -440,7 +440,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>99.65</v>
+        <v>94.149999999999991</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
@@ -448,7 +448,7 @@
         <tr r="G18" s="1"/>
       </tp>
       <tp>
-        <v>82751</v>
+        <v>242566</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -456,7 +456,7 @@
         <tr r="N5" s="1"/>
       </tp>
       <tp>
-        <v>97.7</v>
+        <v>94</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
@@ -464,7 +464,7 @@
         <tr r="K18" s="1"/>
       </tp>
       <tp>
-        <v>203</v>
+        <v>191</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -472,7 +472,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>339</v>
+        <v>334.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -480,7 +480,7 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>1060</v>
+        <v>1047.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -488,7 +488,7 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>203.8</v>
+        <v>202.3</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
@@ -496,7 +496,7 @@
         <tr r="K17" s="1"/>
       </tp>
       <tp>
-        <v>210.5</v>
+        <v>202.7</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
@@ -504,7 +504,7 @@
         <tr r="G17" s="1"/>
       </tp>
       <tp>
-        <v>124.05000000000001</v>
+        <v>89.78</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -512,7 +512,7 @@
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>121.05</v>
+        <v>89.42</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -520,7 +520,7 @@
         <tr r="K10" s="1"/>
       </tp>
       <tp>
-        <v>44.220000000000006</v>
+        <v>34.760000000000005</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -528,7 +528,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>204.8</v>
+        <v>206.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
@@ -536,7 +536,7 @@
         <tr r="H17" s="1"/>
       </tp>
       <tp>
-        <v>248507</v>
+        <v>5229968</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -544,7 +544,7 @@
         <tr r="N11" s="1"/>
       </tp>
       <tp>
-        <v>253.6</v>
+        <v>262.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -552,7 +552,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>45.150000000000006</v>
+        <v>35.299999999999997</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -560,7 +560,7 @@
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>44.2</v>
+        <v>33.86</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -568,7 +568,7 @@
         <tr r="K11" s="1"/>
       </tp>
       <tp>
-        <v>251.95000000000002</v>
+        <v>246.35000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -576,7 +576,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>30895</v>
+        <v>133139</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -584,7 +584,7 @@
         <tr r="N12" s="1"/>
       </tp>
       <tp>
-        <v>184365</v>
+        <v>1080588</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -592,7 +592,7 @@
         <tr r="N3" s="1"/>
       </tp>
       <tp>
-        <v>78084</v>
+        <v>685607</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -600,7 +600,7 @@
         <tr r="N8" s="1"/>
       </tp>
       <tp>
-        <v>266.8</v>
+        <v>268.89999999999998</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -608,7 +608,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>97.8</v>
+        <v>97.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
@@ -616,7 +616,7 @@
         <tr r="H18" s="1"/>
       </tp>
       <tp>
-        <v>85.14</v>
+        <v>83.3</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -624,7 +624,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>590</v>
+        <v>596</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -632,7 +632,7 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>121.9</v>
+        <v>98</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -640,7 +640,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>336</v>
+        <v>320.39999999999998</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -648,7 +648,7 @@
         <tr r="K8" s="1"/>
       </tp>
       <tp>
-        <v>1051.4000000000001</v>
+        <v>986.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -656,7 +656,7 @@
         <tr r="K3" s="1"/>
       </tp>
       <tp>
-        <v>1073.1999999999998</v>
+        <v>991.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -664,7 +664,7 @@
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>346.5</v>
+        <v>321.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -672,7 +672,7 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>203.5</v>
+        <v>206.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
@@ -680,7 +680,7 @@
         <tr r="H17" s="1"/>
       </tp>
       <tp>
-        <v>755196</v>
+        <v>12085205</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -688,7 +688,7 @@
         <tr r="N4" s="1"/>
       </tp>
       <tp>
-        <v>266.8</v>
+        <v>269.89999999999998</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -696,7 +696,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>44.42</v>
+        <v>35.299999999999997</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -704,7 +704,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>195.9</v>
+        <v>190.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -712,7 +712,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>2410141</v>
+        <v>16924275</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -720,7 +720,7 @@
         <tr r="N13" s="1"/>
       </tp>
       <tp>
-        <v>253.2</v>
+        <v>246.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -728,7 +728,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>45.39</v>
+        <v>41.9</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -736,7 +736,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>586.6</v>
+        <v>598.20000000000005</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -744,7 +744,7 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>40516</v>
+        <v>246982</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
@@ -752,7 +752,7 @@
         <tr r="N16" s="1"/>
       </tp>
       <tp>
-        <v>191.3</v>
+        <v>190.3</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -760,7 +760,7 @@
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>121.9</v>
+        <v>118.7</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -768,7 +768,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>190.2</v>
+        <v>187.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -776,7 +776,7 @@
         <tr r="K12" s="1"/>
       </tp>
       <tp>
-        <v>45293</v>
+        <v>112607</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -784,7 +784,7 @@
         <tr r="N9" s="1"/>
       </tp>
       <tp>
-        <v>97.7</v>
+        <v>97.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
@@ -792,7 +792,7 @@
         <tr r="H18" s="1"/>
       </tp>
       <tp>
-        <v>1057.8</v>
+        <v>1045</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -800,7 +800,7 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>255</v>
+        <v>262.39999999999998</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -808,7 +808,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>683</v>
+        <v>675</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -816,7 +816,7 @@
         <tr r="K9" s="1"/>
       </tp>
       <tp>
-        <v>710.5</v>
+        <v>678.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -824,7 +824,7 @@
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>216.65</v>
+        <v>207.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
@@ -832,7 +832,7 @@
         <tr r="G16" s="1"/>
       </tp>
       <tp>
-        <v>85.14</v>
+        <v>83.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -840,7 +840,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>212.1</v>
+        <v>206</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
@@ -848,7 +848,7 @@
         <tr r="K16" s="1"/>
       </tp>
       <tp>
-        <v>338.2</v>
+        <v>333.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -858,6 +858,10 @@
     </main>
   </volType>
 </volTypes>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1160,7 +1164,7 @@
   <dimension ref="C2:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1209,36 +1213,36 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>1077</v>
+        <v>1045</v>
       </c>
       <c r="E3">
-        <v>1051.4000000000001</v>
+        <v>1018.8</v>
       </c>
       <c r="F3">
-        <v>63478</v>
+        <v>75930</v>
       </c>
       <c r="G3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"mid")</f>
-        <v>1073.1999999999998</v>
+        <v>991.9</v>
       </c>
       <c r="H3" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C3,"open")/RTD("ontrade.quotes",,"SSE",C3,"lastvalidprevclose")-1</f>
-        <v>-2.0754716981132848E-3</v>
+        <v>-2.1008403361344463E-3</v>
       </c>
       <c r="I3" s="1">
         <f>(D3-E3)/AVERAGE(D3:E3)</f>
-        <v>2.4055628641232764E-2</v>
+        <v>2.5390057176082996E-2</v>
       </c>
       <c r="J3" s="3">
-        <v>144598.39999999999</v>
+        <v>144582.35</v>
       </c>
       <c r="K3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"low")</f>
-        <v>1051.4000000000001</v>
+        <v>986.9</v>
       </c>
       <c r="L3" t="str">
         <f>IF(G3&lt;E3,"Lows",IF(G3&gt;D3,"Highs",""))</f>
-        <v/>
+        <v>Lows</v>
       </c>
       <c r="M3" t="str">
         <f>IF(H3&lt;=0,IF(I3&lt;0.02,IF(F3&gt;1.5*J3,IF(K3&lt;E3,-1,""),""),""),"")</f>
@@ -1246,11 +1250,11 @@
       </c>
       <c r="N3" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C3,"volume")/J3</f>
-        <v>1.2750141080399231</v>
+        <v>7.4738583236473879</v>
       </c>
       <c r="O3" s="5">
         <f>F3/J3</f>
-        <v>0.43899517560360285</v>
+        <v>0.52516783687635449</v>
       </c>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.35">
@@ -1258,17 +1262,17 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>97.62</v>
+        <v>76.64</v>
       </c>
       <c r="E4">
-        <v>95.4</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="F4">
-        <v>259079</v>
+        <v>766688</v>
       </c>
       <c r="G4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"mid")</f>
-        <v>96.93</v>
+        <v>67.08</v>
       </c>
       <c r="H4" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"open")/RTD("ontrade.quotes",,"SSE",C4,"lastvalidprevclose")-1</f>
@@ -1276,18 +1280,18 @@
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I18" si="0">(D4-E4)/AVERAGE(D4:E4)</f>
-        <v>2.30027976375505E-2</v>
+        <v>2.697699021422912E-2</v>
       </c>
       <c r="J4" s="3">
-        <v>313353.7</v>
+        <v>333835.40000000002</v>
       </c>
       <c r="K4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"low")</f>
-        <v>95.4</v>
+        <v>66.819999999999993</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" ref="L4:L18" si="1">IF(G4&lt;E4,"Lows",IF(G4&gt;D4,"Highs",""))</f>
-        <v/>
+        <v>Lows</v>
       </c>
       <c r="M4" t="str">
         <f>IF(H4&lt;=0,IF(I4&lt;0.02,IF(F4&gt;1.5*J4,IF(K4&lt;E4,-1,""),""),""),"")</f>
@@ -1295,11 +1299,11 @@
       </c>
       <c r="N4" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C4,"volume")/J4</f>
-        <v>2.410043347182433</v>
+        <v>36.201088919868894</v>
       </c>
       <c r="O4" s="5">
-        <f t="shared" ref="O4:O18" si="2">F4/J4</f>
-        <v>0.82679413072192853</v>
+        <f>F4/J4</f>
+        <v>2.2966048537692525</v>
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.35">
@@ -1307,48 +1311,48 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>272.60000000000002</v>
+        <v>269.7</v>
       </c>
       <c r="E5">
-        <v>265.3</v>
+        <v>264.89999999999998</v>
       </c>
       <c r="F5">
-        <v>29070</v>
+        <v>19262</v>
       </c>
       <c r="G5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"mid")</f>
-        <v>274.2</v>
+        <v>259.8</v>
       </c>
       <c r="H5" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C5,"open")/RTD("ontrade.quotes",,"SSE",C5,"lastvalidprevclose")-1</f>
-        <v>0</v>
+        <v>-3.7050759540571132E-3</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>2.7142591559769513E-2</v>
+        <v>1.7957351290684671E-2</v>
       </c>
       <c r="J5" s="3">
-        <v>31693.25</v>
+        <v>29687.599999999999</v>
       </c>
       <c r="K5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"low")</f>
-        <v>265.3</v>
+        <v>258.5</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v>Lows</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" ref="M5:M18" si="3">IF(H5&lt;=0,IF(I5&lt;0.02,IF(F5&gt;1.5*J5,IF(K5&lt;E5,-1,""),""),""),"")</f>
+        <f t="shared" ref="M5:M18" si="2">IF(H5&lt;=0,IF(I5&lt;0.02,IF(F5&gt;1.5*J5,IF(K5&lt;E5,-1,""),""),""),"")</f>
         <v/>
       </c>
       <c r="N5" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"volume")/J5</f>
-        <v>2.6109976099011618</v>
+        <v>8.1706166884490496</v>
       </c>
       <c r="O5" s="5">
-        <f t="shared" si="2"/>
-        <v>0.91723000954461908</v>
+        <f t="shared" ref="O5:O18" si="3">F5/J5</f>
+        <v>0.6488230776485806</v>
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.35">
@@ -1356,48 +1360,48 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>256</v>
+        <v>247.65</v>
       </c>
       <c r="E6">
-        <v>250.25</v>
+        <v>245</v>
       </c>
       <c r="F6">
-        <v>61267</v>
+        <v>48862</v>
       </c>
       <c r="G6">
         <f>RTD("ontrade.quotes",,"SSE",C6,"mid")</f>
-        <v>256</v>
+        <v>237.95000000000002</v>
       </c>
       <c r="H6" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C6,"open")/RTD("ontrade.quotes",,"SSE",C6,"lastvalidprevclose")-1</f>
-        <v>-4.936808846761287E-3</v>
+        <v>-2.2276225192384702E-3</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>2.2716049382716048E-2</v>
+        <v>1.0758144727494187E-2</v>
       </c>
       <c r="J6" s="3">
-        <v>76686.649999999994</v>
+        <v>71072.149999999994</v>
       </c>
       <c r="K6">
         <f>RTD("ontrade.quotes",,"SSE",C6,"low")</f>
-        <v>250.25</v>
+        <v>237.05</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Lows</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N6" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C6,"volume")/J6</f>
-        <v>2.0158137042105766</v>
+        <v>9.5178631855093734</v>
       </c>
       <c r="O6" s="5">
-        <f t="shared" si="2"/>
-        <v>0.79892654066907354</v>
+        <f t="shared" si="3"/>
+        <v>0.68749854900970353</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.35">
@@ -1405,48 +1409,48 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>87.08</v>
+        <v>83.3</v>
       </c>
       <c r="E7">
-        <v>85.02</v>
+        <v>81.040000000000006</v>
       </c>
       <c r="F7">
-        <v>141267</v>
+        <v>479119</v>
       </c>
       <c r="G7">
         <f>RTD("ontrade.quotes",,"SSE",C7,"mid")</f>
-        <v>87.78</v>
+        <v>77.2</v>
       </c>
       <c r="H7" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C7,"open")/RTD("ontrade.quotes",,"SSE",C7,"lastvalidprevclose")-1</f>
-        <v>0</v>
+        <v>-1.1990407673861947E-3</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>2.3939570017431754E-2</v>
+        <v>2.7503955214798478E-2</v>
       </c>
       <c r="J7" s="3">
-        <v>288215.65000000002</v>
+        <v>284333</v>
       </c>
       <c r="K7">
         <f>RTD("ontrade.quotes",,"SSE",C7,"low")</f>
-        <v>85.02</v>
+        <v>76.5</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v>Lows</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N7" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C7,"volume")/J7</f>
-        <v>1.4645908367571294</v>
+        <v>21.632853027963691</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" si="2"/>
-        <v>0.49014340477347429</v>
+        <f t="shared" si="3"/>
+        <v>1.6850629367678041</v>
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.35">
@@ -1454,48 +1458,48 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>342.9</v>
+        <v>333.2</v>
       </c>
       <c r="E8">
-        <v>336</v>
+        <v>322.8</v>
       </c>
       <c r="F8">
-        <v>22383</v>
+        <v>43300</v>
       </c>
       <c r="G8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"mid")</f>
-        <v>346.5</v>
+        <v>321.8</v>
       </c>
       <c r="H8" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C8,"open")/RTD("ontrade.quotes",,"SSE",C8,"lastvalidprevclose")-1</f>
-        <v>-2.3598820058997605E-3</v>
+        <v>-3.5885167464114742E-3</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>2.0326999558108638E-2</v>
+        <v>3.1707317073170663E-2</v>
       </c>
       <c r="J8" s="3">
-        <v>71353.8</v>
+        <v>58149.35</v>
       </c>
       <c r="K8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"low")</f>
-        <v>336</v>
+        <v>320.39999999999998</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v>Lows</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N8" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C8,"volume")/J8</f>
-        <v>1.0943215357836582</v>
+        <v>11.790449936241764</v>
       </c>
       <c r="O8" s="5">
-        <f t="shared" si="2"/>
-        <v>0.31369037108044701</v>
+        <f t="shared" si="3"/>
+        <v>0.74463429083902055</v>
       </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.35">
@@ -1503,48 +1507,48 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>707.5</v>
+        <v>699</v>
       </c>
       <c r="E9">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="F9">
-        <v>19096</v>
+        <v>6957</v>
       </c>
       <c r="G9">
         <f>RTD("ontrade.quotes",,"SSE",C9,"mid")</f>
-        <v>710.5</v>
+        <v>678.5</v>
       </c>
       <c r="H9" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C9,"open")/RTD("ontrade.quotes",,"SSE",C9,"lastvalidprevclose")-1</f>
-        <v>-7.3046018991962391E-4</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>3.5239122617763394E-2</v>
+        <v>1.8772563176895306E-2</v>
       </c>
       <c r="J9" s="3">
-        <v>13735.75</v>
+        <v>14344.4</v>
       </c>
       <c r="K9">
         <f>RTD("ontrade.quotes",,"SSE",C9,"low")</f>
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v>Lows</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N9" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C9,"volume")/J9</f>
-        <v>3.2974537247693063</v>
+        <v>7.8502412091129639</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="2"/>
-        <v>1.3902407950057332</v>
+        <f t="shared" si="3"/>
+        <v>0.48499762973704025</v>
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.35">
@@ -1552,48 +1556,48 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>124.3</v>
+        <v>98</v>
       </c>
       <c r="E10">
-        <v>121.9</v>
+        <v>94</v>
       </c>
       <c r="F10">
-        <v>19741</v>
+        <v>274295</v>
       </c>
       <c r="G10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"mid")</f>
-        <v>124.05000000000001</v>
+        <v>89.78</v>
       </c>
       <c r="H10" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C10,"open")/RTD("ontrade.quotes",,"SSE",C10,"lastvalidprevclose")-1</f>
-        <v>0</v>
+        <v>-0.17438921651221573</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>1.949634443541829E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="J10" s="3">
-        <v>14129.95</v>
+        <v>14584.95</v>
       </c>
       <c r="K10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"low")</f>
-        <v>121.05</v>
+        <v>89.42</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Lows</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N10" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C10,"volume")/J10</f>
-        <v>3.3563459177137922</v>
+        <v>289.26146472905288</v>
       </c>
       <c r="O10" s="5">
-        <f t="shared" si="2"/>
-        <v>1.3971033160060722</v>
+        <f t="shared" si="3"/>
+        <v>18.806715141292909</v>
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.35">
@@ -1601,48 +1605,48 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>45.74</v>
+        <v>35.76</v>
       </c>
       <c r="E11">
-        <v>44.2</v>
+        <v>33.86</v>
       </c>
       <c r="F11">
-        <v>86038</v>
+        <v>450458</v>
       </c>
       <c r="G11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"mid")</f>
-        <v>45.150000000000006</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="H11" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C11,"open")/RTD("ontrade.quotes",,"SSE",C11,"lastvalidprevclose")-1</f>
-        <v>4.5228403437358455E-3</v>
+        <v>1.5535097813578647E-2</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>3.4245052257060246E-2</v>
+        <v>5.4582016661878729E-2</v>
       </c>
       <c r="J11" s="3">
-        <v>156657.95000000001</v>
+        <v>163415.79999999999</v>
       </c>
       <c r="K11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"low")</f>
-        <v>44.2</v>
+        <v>33.86</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N11" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C11,"volume")/J11</f>
-        <v>1.5863031528243539</v>
+        <v>32.004053463618575</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" si="2"/>
-        <v>0.54920928047379658</v>
+        <f t="shared" si="3"/>
+        <v>2.7565143639721499</v>
       </c>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.35">
@@ -1650,48 +1654,48 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>201</v>
+        <v>192.6</v>
       </c>
       <c r="E12">
-        <v>195.8</v>
+        <v>189</v>
       </c>
       <c r="F12">
-        <v>8461</v>
+        <v>22515</v>
       </c>
       <c r="G12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"mid")</f>
-        <v>191.3</v>
+        <v>190.3</v>
       </c>
       <c r="H12" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C12,"open")/RTD("ontrade.quotes",,"SSE",C12,"lastvalidprevclose")-1</f>
-        <v>-3.4975369458128069E-2</v>
+        <v>-4.1884816753927634E-3</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>2.6209677419354781E-2</v>
+        <v>1.8867924528301855E-2</v>
       </c>
       <c r="J12" s="3">
-        <v>7651.25</v>
+        <v>7237.35</v>
       </c>
       <c r="K12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"low")</f>
-        <v>190.2</v>
+        <v>187.8</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
-      </c>
-      <c r="M12" t="str">
-        <f t="shared" si="3"/>
         <v/>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>-1</v>
       </c>
       <c r="N12" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C12,"volume")/J12</f>
-        <v>4.037902303545172</v>
+        <v>18.396098019302645</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="2"/>
-        <v>1.1058323803300114</v>
+        <f t="shared" si="3"/>
+        <v>3.1109453045658975</v>
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.35">
@@ -1699,48 +1703,48 @@
         <v>13</v>
       </c>
       <c r="D13">
-        <v>46.18</v>
+        <v>42.05</v>
       </c>
       <c r="E13">
-        <v>44.8</v>
+        <v>41.2</v>
       </c>
       <c r="F13">
-        <v>907594</v>
+        <v>1050539</v>
       </c>
       <c r="G13">
         <f>RTD("ontrade.quotes",,"SSE",C13,"mid")</f>
-        <v>45.765000000000001</v>
+        <v>41.28</v>
       </c>
       <c r="H13" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C13,"open")/RTD("ontrade.quotes",,"SSE",C13,"lastvalidprevclose")-1</f>
-        <v>0</v>
+        <v>-4.2775665399239493E-3</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>3.0336337656627889E-2</v>
+        <v>2.0420420420420284E-2</v>
       </c>
       <c r="J13" s="3">
-        <v>1043431.55</v>
+        <v>1049752.75</v>
       </c>
       <c r="K13">
         <f>RTD("ontrade.quotes",,"SSE",C13,"low")</f>
-        <v>44.8</v>
+        <v>41.2</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N13" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C13,"volume")/J13</f>
-        <v>2.3098218565463156</v>
+        <v>16.122153526151752</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="2"/>
-        <v>0.86981652030744128</v>
+        <f t="shared" si="3"/>
+        <v>1.0007489858921541</v>
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.35">
@@ -1748,36 +1752,36 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>598.79999999999995</v>
+        <v>598.20000000000005</v>
       </c>
       <c r="E14">
-        <v>589.20000000000005</v>
+        <v>590.20000000000005</v>
       </c>
       <c r="F14">
-        <v>13244</v>
+        <v>9770</v>
       </c>
       <c r="G14">
         <f>RTD("ontrade.quotes",,"SSE",C14,"mid")</f>
-        <v>598.29999999999995</v>
+        <v>588.4</v>
       </c>
       <c r="H14" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C14,"open")/RTD("ontrade.quotes",,"SSE",C14,"lastvalidprevclose")-1</f>
-        <v>5.7961131946810962E-3</v>
+        <v>-3.6776997659646593E-3</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>1.6161616161616009E-2</v>
+        <v>1.3463480309660046E-2</v>
       </c>
       <c r="J14" s="3">
-        <v>11429.9</v>
+        <v>10933.15</v>
       </c>
       <c r="K14">
         <f>RTD("ontrade.quotes",,"SSE",C14,"low")</f>
-        <v>589.20000000000005</v>
+        <v>583</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Lows</v>
       </c>
       <c r="M14" t="str">
         <f>IF(H14&lt;=0,IF(I14&lt;0.02,IF(F14&gt;1.5*J14,IF(K14&lt;E14,-1,""),""),""),"")</f>
@@ -1785,11 +1789,11 @@
       </c>
       <c r="N14" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C14,"volume")/J14</f>
-        <v>3.670285829272347</v>
+        <v>17.844079702555987</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="2"/>
-        <v>1.1587152993464511</v>
+        <f t="shared" si="3"/>
+        <v>0.89361254533231504</v>
       </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.35">
@@ -1797,48 +1801,48 @@
         <v>15</v>
       </c>
       <c r="D15">
-        <v>260.39999999999998</v>
+        <v>262.2</v>
       </c>
       <c r="E15">
-        <v>251.4</v>
+        <v>258.39999999999998</v>
       </c>
       <c r="F15">
-        <v>50779</v>
+        <v>4750</v>
       </c>
       <c r="G15">
         <f>RTD("ontrade.quotes",,"SSE",C15,"mid")</f>
-        <v>260.2</v>
+        <v>254</v>
       </c>
       <c r="H15" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C15,"open")/RTD("ontrade.quotes",,"SSE",C15,"lastvalidprevclose")-1</f>
-        <v>-5.4901960784313752E-3</v>
+        <v>-7.6219512195119243E-4</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
-        <v>3.5169988276670464E-2</v>
+        <v>1.4598540145985448E-2</v>
       </c>
       <c r="J15" s="3">
-        <v>19491.05</v>
+        <v>19037.95</v>
       </c>
       <c r="K15">
         <f>RTD("ontrade.quotes",,"SSE",C15,"low")</f>
-        <v>251.4</v>
+        <v>252.4</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Lows</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N15" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C15,"volume")/J15</f>
-        <v>4.4357794987956014</v>
+        <v>9.3885108428165847</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="2"/>
-        <v>2.6052470236339245</v>
+        <f t="shared" si="3"/>
+        <v>0.24950165327674459</v>
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.35">
@@ -1846,48 +1850,48 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>215.9</v>
+        <v>211.4</v>
       </c>
       <c r="E16">
-        <v>212.1</v>
+        <v>207.3</v>
       </c>
       <c r="F16">
-        <v>11521</v>
+        <v>8005</v>
       </c>
       <c r="G16">
         <f>RTD("ontrade.quotes",,"SSE",C16,"mid")</f>
-        <v>216.65</v>
+        <v>207.5</v>
       </c>
       <c r="H16" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C16,"open")/RTD("ontrade.quotes",,"SSE",C16,"lastvalidprevclose")-1</f>
-        <v>-2.3485204321277431E-3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="0"/>
-        <v>1.7757009345794446E-2</v>
+        <v>1.9584427991401931E-2</v>
       </c>
       <c r="J16" s="2">
-        <v>24393.95</v>
+        <v>21946.6</v>
       </c>
       <c r="K16" s="2">
         <f>RTD("ontrade.quotes",,"SSE",C16,"low")</f>
-        <v>212.1</v>
+        <v>206</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v/>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N16" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C16,"volume")/J16</f>
-        <v>1.6609036256940757</v>
+        <v>11.253770515706305</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="2"/>
-        <v>0.47228923565064285</v>
+        <f t="shared" si="3"/>
+        <v>0.36474898161902075</v>
       </c>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.35">
@@ -1895,48 +1899,48 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>207.6</v>
+        <v>206.9</v>
       </c>
       <c r="E17">
         <v>203.8</v>
       </c>
       <c r="F17">
-        <v>26405</v>
+        <v>8310</v>
       </c>
       <c r="G17">
         <f>RTD("ontrade.quotes",,"SSE",C17,"mid")</f>
-        <v>210.5</v>
+        <v>202.7</v>
       </c>
       <c r="H17" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C17,"open")/RTD("ontrade.quotes",,"SSE",C17,"lastvalidprevclose")-1</f>
-        <v>6.3882063882063633E-3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="0"/>
-        <v>1.8473505104521067E-2</v>
+        <v>1.509617725833939E-2</v>
       </c>
       <c r="J17" s="2">
-        <v>33869.1</v>
+        <v>32293.9</v>
       </c>
       <c r="K17" s="2">
         <f>RTD("ontrade.quotes",,"SSE",C17,"low")</f>
-        <v>203.8</v>
+        <v>202.3</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v>Lows</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N17" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C17,"volume")/J17</f>
-        <v>2.7517707881225069</v>
+        <v>16.054549001514218</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="2"/>
-        <v>0.77961918090530902</v>
+        <f t="shared" si="3"/>
+        <v>0.25732413861441322</v>
       </c>
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.35">
@@ -1944,48 +1948,48 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>99.4</v>
+        <v>97.5</v>
       </c>
       <c r="E18">
-        <v>97.7</v>
+        <v>95.8</v>
       </c>
       <c r="F18">
-        <v>5238</v>
+        <v>6420</v>
       </c>
       <c r="G18">
         <f>RTD("ontrade.quotes",,"SSE",C18,"mid")</f>
-        <v>99.65</v>
+        <v>94.149999999999991</v>
       </c>
       <c r="H18" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C18,"open")/RTD("ontrade.quotes",,"SSE",C18,"lastvalidprevclose")-1</f>
-        <v>1.0235414534287557E-3</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="0"/>
-        <v>1.7250126839167962E-2</v>
+        <v>1.7589239524055899E-2</v>
       </c>
       <c r="J18" s="2">
-        <v>12949.75</v>
+        <v>12600.3</v>
       </c>
       <c r="K18" s="2">
         <f>RTD("ontrade.quotes",,"SSE",C18,"low")</f>
-        <v>97.7</v>
+        <v>94</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="1"/>
-        <v>Highs</v>
+        <v>Lows</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N18" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C18,"volume")/J18</f>
-        <v>1.289754628467731</v>
+        <v>12.157250224201011</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="2"/>
-        <v>0.4044865730998668</v>
+        <f t="shared" si="3"/>
+        <v>0.50951167829337396</v>
       </c>
     </row>
     <row r="32" spans="3:18" x14ac:dyDescent="0.35">

--- a/New highs and lows.xlsx
+++ b/New highs and lows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\Documents\GitHub\Growth-stock-high-volume-short\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478E7D26-ACA5-4529-BBC9-B5139B82C0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B910DB0D-A761-41DB-8B15-76AB6AC4370E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{56CA8ECF-8D06-4762-A8AA-5F67DF2C767F}"/>
   </bookViews>
@@ -216,7 +216,7 @@
   <volType type="realTimeData">
     <main first="ontrade.quotes">
       <tp>
-        <v>258.5</v>
+        <v>245.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -224,7 +224,7 @@
         <tr r="K5" s="1"/>
       </tp>
       <tp>
-        <v>259.8</v>
+        <v>262.75</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -232,7 +232,7 @@
         <tr r="G5" s="1"/>
       </tp>
       <tp>
-        <v>693</v>
+        <v>667</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -240,7 +240,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>4218864</v>
+        <v>1131678</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -248,7 +248,7 @@
         <tr r="N10" s="1"/>
       </tp>
       <tp>
-        <v>195092</v>
+        <v>137132</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -256,7 +256,7 @@
         <tr r="N14" s="1"/>
       </tp>
       <tp>
-        <v>211.4</v>
+        <v>202.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
@@ -264,7 +264,7 @@
         <tr r="H16" s="1"/>
       </tp>
       <tp>
-        <v>676455</v>
+        <v>619769</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -272,7 +272,7 @@
         <tr r="N6" s="1"/>
       </tp>
       <tp>
-        <v>588.4</v>
+        <v>578.70000000000005</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -280,7 +280,7 @@
         <tr r="G14" s="1"/>
       </tp>
       <tp>
-        <v>76.5</v>
+        <v>72.3</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -288,7 +288,7 @@
         <tr r="K7" s="1"/>
       </tp>
       <tp>
-        <v>6150934</v>
+        <v>2144959</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -296,7 +296,7 @@
         <tr r="N7" s="1"/>
       </tp>
       <tp>
-        <v>583</v>
+        <v>551.20000000000005</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -304,7 +304,7 @@
         <tr r="K14" s="1"/>
       </tp>
       <tp>
-        <v>77.2</v>
+        <v>78.039999999999992</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -312,7 +312,7 @@
         <tr r="G7" s="1"/>
       </tp>
       <tp>
-        <v>252.4</v>
+        <v>232.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -320,7 +320,7 @@
         <tr r="K15" s="1"/>
       </tp>
       <tp>
-        <v>211.4</v>
+        <v>197.45000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
@@ -328,7 +328,7 @@
         <tr r="H16" s="1"/>
       </tp>
       <tp>
-        <v>254</v>
+        <v>251.89999999999998</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -336,7 +336,7 @@
         <tr r="G15" s="1"/>
       </tp>
       <tp>
-        <v>153185</v>
+        <v>224588</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
@@ -344,7 +344,7 @@
         <tr r="N18" s="1"/>
       </tp>
       <tp>
-        <v>178738</v>
+        <v>127080</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -352,7 +352,7 @@
         <tr r="N15" s="1"/>
       </tp>
       <tp>
-        <v>518464</v>
+        <v>529976</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
@@ -360,7 +360,7 @@
         <tr r="N17" s="1"/>
       </tp>
       <tp>
-        <v>76.16</v>
+        <v>65.72</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -368,7 +368,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>76.16</v>
+        <v>63.1</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -376,7 +376,7 @@
         <tr r="H4" s="1"/>
       </tp>
       <tp>
-        <v>41.28</v>
+        <v>47.515000000000001</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -384,7 +384,7 @@
         <tr r="G13" s="1"/>
       </tp>
       <tp>
-        <v>41.2</v>
+        <v>41.620000000000005</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -392,7 +392,7 @@
         <tr r="K13" s="1"/>
       </tp>
       <tp>
-        <v>42.08</v>
+        <v>43.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -400,7 +400,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>67.08</v>
+        <v>69.84</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -408,7 +408,7 @@
         <tr r="G4" s="1"/>
       </tp>
       <tp>
-        <v>237.95000000000002</v>
+        <v>238.3</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -416,7 +416,7 @@
         <tr r="G6" s="1"/>
       </tp>
       <tp>
-        <v>66.819999999999993</v>
+        <v>62.56</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -424,7 +424,7 @@
         <tr r="K4" s="1"/>
       </tp>
       <tp>
-        <v>237.05</v>
+        <v>222.15</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -432,7 +432,7 @@
         <tr r="K6" s="1"/>
       </tp>
       <tp>
-        <v>693</v>
+        <v>648</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -440,7 +440,7 @@
         <tr r="H9" s="1"/>
       </tp>
       <tp>
-        <v>94.149999999999991</v>
+        <v>93.174999999999997</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
@@ -448,7 +448,7 @@
         <tr r="G18" s="1"/>
       </tp>
       <tp>
-        <v>242566</v>
+        <v>169814</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -456,7 +456,7 @@
         <tr r="N5" s="1"/>
       </tp>
       <tp>
-        <v>94</v>
+        <v>88.25</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
@@ -464,7 +464,7 @@
         <tr r="K18" s="1"/>
       </tp>
       <tp>
-        <v>191</v>
+        <v>169.1</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -472,7 +472,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>334.4</v>
+        <v>312.10000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -480,7 +480,7 @@
         <tr r="H8" s="1"/>
       </tp>
       <tp>
-        <v>1047.2</v>
+        <v>955</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -488,7 +488,7 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>202.3</v>
+        <v>192.05</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
@@ -496,7 +496,7 @@
         <tr r="K17" s="1"/>
       </tp>
       <tp>
-        <v>202.7</v>
+        <v>209.15</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
@@ -504,7 +504,7 @@
         <tr r="G17" s="1"/>
       </tp>
       <tp>
-        <v>89.78</v>
+        <v>87.18</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -512,7 +512,7 @@
         <tr r="G10" s="1"/>
       </tp>
       <tp>
-        <v>89.42</v>
+        <v>82.460000000000008</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -520,7 +520,7 @@
         <tr r="K10" s="1"/>
       </tp>
       <tp>
-        <v>34.760000000000005</v>
+        <v>33.24</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -528,7 +528,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>206.9</v>
+        <v>194</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
@@ -536,7 +536,7 @@
         <tr r="H17" s="1"/>
       </tp>
       <tp>
-        <v>5229968</v>
+        <v>4050352</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -544,7 +544,7 @@
         <tr r="N11" s="1"/>
       </tp>
       <tp>
-        <v>262.2</v>
+        <v>235</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -552,7 +552,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>35.299999999999997</v>
+        <v>32.39</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -560,7 +560,7 @@
         <tr r="G11" s="1"/>
       </tp>
       <tp>
-        <v>33.86</v>
+        <v>29</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -568,7 +568,7 @@
         <tr r="K11" s="1"/>
       </tp>
       <tp>
-        <v>246.35000000000002</v>
+        <v>223.95000000000002</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -576,7 +576,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>133139</v>
+        <v>129537</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -584,7 +584,7 @@
         <tr r="N12" s="1"/>
       </tp>
       <tp>
-        <v>1080588</v>
+        <v>748718</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -592,7 +592,7 @@
         <tr r="N3" s="1"/>
       </tp>
       <tp>
-        <v>685607</v>
+        <v>568356</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -600,7 +600,7 @@
         <tr r="N8" s="1"/>
       </tp>
       <tp>
-        <v>268.89999999999998</v>
+        <v>247.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -608,7 +608,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>97.5</v>
+        <v>90</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
@@ -616,7 +616,7 @@
         <tr r="H18" s="1"/>
       </tp>
       <tp>
-        <v>83.3</v>
+        <v>72.64</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -624,7 +624,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>596</v>
+        <v>555.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -632,7 +632,7 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>98</v>
+        <v>84.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -640,7 +640,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>320.39999999999998</v>
+        <v>300.3</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -648,7 +648,7 @@
         <tr r="K8" s="1"/>
       </tp>
       <tp>
-        <v>986.9</v>
+        <v>911</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -656,7 +656,7 @@
         <tr r="K3" s="1"/>
       </tp>
       <tp>
-        <v>991.9</v>
+        <v>981.55</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -664,7 +664,7 @@
         <tr r="G3" s="1"/>
       </tp>
       <tp>
-        <v>321.8</v>
+        <v>327.54999999999995</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -672,7 +672,7 @@
         <tr r="G8" s="1"/>
       </tp>
       <tp>
-        <v>206.9</v>
+        <v>201.1</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LIFCO B</stp>
@@ -680,7 +680,7 @@
         <tr r="H17" s="1"/>
       </tp>
       <tp>
-        <v>12085205</v>
+        <v>5797009</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SINCH</stp>
@@ -688,7 +688,7 @@
         <tr r="N4" s="1"/>
       </tp>
       <tp>
-        <v>269.89999999999998</v>
+        <v>255.3</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LATO B</stp>
@@ -696,7 +696,7 @@
         <tr r="H5" s="1"/>
       </tp>
       <tp>
-        <v>35.299999999999997</v>
+        <v>29</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SF</stp>
@@ -704,7 +704,7 @@
         <tr r="H11" s="1"/>
       </tp>
       <tp>
-        <v>190.2</v>
+        <v>160</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -712,7 +712,7 @@
         <tr r="H12" s="1"/>
       </tp>
       <tp>
-        <v>16924275</v>
+        <v>21102557</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -720,7 +720,7 @@
         <tr r="N13" s="1"/>
       </tp>
       <tp>
-        <v>246.9</v>
+        <v>230.05</v>
         <stp/>
         <stp>SSE</stp>
         <stp>KINV B</stp>
@@ -728,7 +728,7 @@
         <tr r="H6" s="1"/>
       </tp>
       <tp>
-        <v>41.9</v>
+        <v>42.37</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SBB B</stp>
@@ -736,7 +736,7 @@
         <tr r="H13" s="1"/>
       </tp>
       <tp>
-        <v>598.20000000000005</v>
+        <v>568.20000000000005</v>
         <stp/>
         <stp>SSE</stp>
         <stp>BALD B</stp>
@@ -744,7 +744,7 @@
         <tr r="H14" s="1"/>
       </tp>
       <tp>
-        <v>246982</v>
+        <v>272807</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
@@ -752,7 +752,7 @@
         <tr r="N16" s="1"/>
       </tp>
       <tp>
-        <v>190.3</v>
+        <v>172.3</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -760,7 +760,7 @@
         <tr r="G12" s="1"/>
       </tp>
       <tp>
-        <v>118.7</v>
+        <v>85.8</v>
         <stp/>
         <stp>SSE</stp>
         <stp>STORY B</stp>
@@ -768,7 +768,7 @@
         <tr r="H10" s="1"/>
       </tp>
       <tp>
-        <v>187.8</v>
+        <v>152.1</v>
         <stp/>
         <stp>SSE</stp>
         <stp>PDX</stp>
@@ -776,7 +776,7 @@
         <tr r="K12" s="1"/>
       </tp>
       <tp>
-        <v>112607</v>
+        <v>62899</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -784,7 +784,7 @@
         <tr r="N9" s="1"/>
       </tp>
       <tp>
-        <v>97.5</v>
+        <v>91.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>LAGR B</stp>
@@ -792,7 +792,7 @@
         <tr r="H18" s="1"/>
       </tp>
       <tp>
-        <v>1045</v>
+        <v>925.6</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EVO</stp>
@@ -800,7 +800,7 @@
         <tr r="H3" s="1"/>
       </tp>
       <tp>
-        <v>262.39999999999998</v>
+        <v>241.4</v>
         <stp/>
         <stp>SSE</stp>
         <stp>SAGA B</stp>
@@ -808,7 +808,7 @@
         <tr r="H15" s="1"/>
       </tp>
       <tp>
-        <v>675</v>
+        <v>642</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -816,7 +816,7 @@
         <tr r="K9" s="1"/>
       </tp>
       <tp>
-        <v>678.5</v>
+        <v>694.75</v>
         <stp/>
         <stp>SSE</stp>
         <stp>MIPS</stp>
@@ -824,7 +824,7 @@
         <tr r="G9" s="1"/>
       </tp>
       <tp>
-        <v>207.5</v>
+        <v>211.2</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
@@ -832,7 +832,7 @@
         <tr r="G16" s="1"/>
       </tp>
       <tp>
-        <v>83.4</v>
+        <v>74.900000000000006</v>
         <stp/>
         <stp>SSE</stp>
         <stp>NIBE B</stp>
@@ -840,7 +840,7 @@
         <tr r="H7" s="1"/>
       </tp>
       <tp>
-        <v>206</v>
+        <v>196.5</v>
         <stp/>
         <stp>SSE</stp>
         <stp>INDT</stp>
@@ -848,7 +848,7 @@
         <tr r="K16" s="1"/>
       </tp>
       <tp>
-        <v>333.2</v>
+        <v>305</v>
         <stp/>
         <stp>SSE</stp>
         <stp>EQT</stp>
@@ -858,10 +858,6 @@
     </main>
   </volType>
 </volTypes>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1164,7 +1160,7 @@
   <dimension ref="C2:T41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D2" sqref="D2:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1213,36 +1209,36 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>1045</v>
+        <v>945.8</v>
       </c>
       <c r="E3">
-        <v>1018.8</v>
+        <v>911</v>
       </c>
       <c r="F3">
-        <v>75930</v>
+        <v>155880</v>
       </c>
       <c r="G3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"mid")</f>
-        <v>991.9</v>
+        <v>981.55</v>
       </c>
       <c r="H3" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C3,"open")/RTD("ontrade.quotes",,"SSE",C3,"lastvalidprevclose")-1</f>
-        <v>-2.1008403361344463E-3</v>
+        <v>-3.0785340314136156E-2</v>
       </c>
       <c r="I3" s="1">
         <f>(D3-E3)/AVERAGE(D3:E3)</f>
-        <v>2.5390057176082996E-2</v>
+        <v>3.7483843171046916E-2</v>
       </c>
       <c r="J3" s="3">
-        <v>144582.35</v>
+        <v>143037.04999999999</v>
       </c>
       <c r="K3">
         <f>RTD("ontrade.quotes",,"SSE",C3,"low")</f>
-        <v>986.9</v>
+        <v>911</v>
       </c>
       <c r="L3" t="str">
         <f>IF(G3&lt;E3,"Lows",IF(G3&gt;D3,"Highs",""))</f>
-        <v>Lows</v>
+        <v>Highs</v>
       </c>
       <c r="M3" t="str">
         <f>IF(H3&lt;=0,IF(I3&lt;0.02,IF(F3&gt;1.5*J3,IF(K3&lt;E3,-1,""),""),""),"")</f>
@@ -1250,11 +1246,11 @@
       </c>
       <c r="N3" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C3,"volume")/J3</f>
-        <v>7.4738583236473879</v>
+        <v>5.2344340155225524</v>
       </c>
       <c r="O3" s="5">
         <f>F3/J3</f>
-        <v>0.52516783687635449</v>
+        <v>1.0897875760161442</v>
       </c>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.35">
@@ -1262,36 +1258,36 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>76.64</v>
+        <v>68.260000000000005</v>
       </c>
       <c r="E4">
-        <v>74.599999999999994</v>
+        <v>62.56</v>
       </c>
       <c r="F4">
-        <v>766688</v>
+        <v>983189</v>
       </c>
       <c r="G4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"mid")</f>
-        <v>67.08</v>
+        <v>69.84</v>
       </c>
       <c r="H4" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"open")/RTD("ontrade.quotes",,"SSE",C4,"lastvalidprevclose")-1</f>
-        <v>0</v>
+        <v>-3.9866098600121691E-2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I18" si="0">(D4-E4)/AVERAGE(D4:E4)</f>
-        <v>2.697699021422912E-2</v>
+        <v>8.7142638740253825E-2</v>
       </c>
       <c r="J4" s="3">
-        <v>333835.40000000002</v>
+        <v>390600.95</v>
       </c>
       <c r="K4">
         <f>RTD("ontrade.quotes",,"SSE",C4,"low")</f>
-        <v>66.819999999999993</v>
+        <v>62.56</v>
       </c>
       <c r="L4" t="str">
         <f t="shared" ref="L4:L18" si="1">IF(G4&lt;E4,"Lows",IF(G4&gt;D4,"Highs",""))</f>
-        <v>Lows</v>
+        <v>Highs</v>
       </c>
       <c r="M4" t="str">
         <f>IF(H4&lt;=0,IF(I4&lt;0.02,IF(F4&gt;1.5*J4,IF(K4&lt;E4,-1,""),""),""),"")</f>
@@ -1299,11 +1295,11 @@
       </c>
       <c r="N4" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C4,"volume")/J4</f>
-        <v>36.201088919868894</v>
+        <v>14.84125678649783</v>
       </c>
       <c r="O4" s="5">
         <f>F4/J4</f>
-        <v>2.2966048537692525</v>
+        <v>2.5171188139711385</v>
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.35">
@@ -1311,36 +1307,36 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>269.7</v>
+        <v>254.3</v>
       </c>
       <c r="E5">
-        <v>264.89999999999998</v>
+        <v>245.2</v>
       </c>
       <c r="F5">
-        <v>19262</v>
+        <v>48525</v>
       </c>
       <c r="G5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"mid")</f>
-        <v>259.8</v>
+        <v>262.75</v>
       </c>
       <c r="H5" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C5,"open")/RTD("ontrade.quotes",,"SSE",C5,"lastvalidprevclose")-1</f>
-        <v>-3.7050759540571132E-3</v>
+        <v>-3.0160595377986765E-2</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>1.7957351290684671E-2</v>
+        <v>3.6436436436436528E-2</v>
       </c>
       <c r="J5" s="3">
-        <v>29687.599999999999</v>
+        <v>30522.400000000001</v>
       </c>
       <c r="K5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"low")</f>
-        <v>258.5</v>
+        <v>245.2</v>
       </c>
       <c r="L5" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v>Highs</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" ref="M5:M18" si="2">IF(H5&lt;=0,IF(I5&lt;0.02,IF(F5&gt;1.5*J5,IF(K5&lt;E5,-1,""),""),""),"")</f>
@@ -1348,11 +1344,11 @@
       </c>
       <c r="N5" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C5,"volume")/J5</f>
-        <v>8.1706166884490496</v>
+        <v>5.5635860875946843</v>
       </c>
       <c r="O5" s="5">
         <f t="shared" ref="O5:O18" si="3">F5/J5</f>
-        <v>0.6488230776485806</v>
+        <v>1.5898160039839593</v>
       </c>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.35">
@@ -1360,36 +1356,36 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>247.65</v>
+        <v>228.85</v>
       </c>
       <c r="E6">
-        <v>245</v>
+        <v>222.15</v>
       </c>
       <c r="F6">
-        <v>48862</v>
+        <v>113073</v>
       </c>
       <c r="G6">
         <f>RTD("ontrade.quotes",,"SSE",C6,"mid")</f>
-        <v>237.95000000000002</v>
+        <v>238.3</v>
       </c>
       <c r="H6" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C6,"open")/RTD("ontrade.quotes",,"SSE",C6,"lastvalidprevclose")-1</f>
-        <v>-2.2276225192384702E-3</v>
+        <v>-2.6515974788089536E-2</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>1.0758144727494187E-2</v>
+        <v>2.9711751662971124E-2</v>
       </c>
       <c r="J6" s="3">
-        <v>71072.149999999994</v>
+        <v>72674.2</v>
       </c>
       <c r="K6">
         <f>RTD("ontrade.quotes",,"SSE",C6,"low")</f>
-        <v>237.05</v>
+        <v>222.15</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v>Highs</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="2"/>
@@ -1397,11 +1393,11 @@
       </c>
       <c r="N6" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C6,"volume")/J6</f>
-        <v>9.5178631855093734</v>
+        <v>8.5280470923656537</v>
       </c>
       <c r="O6" s="5">
         <f t="shared" si="3"/>
-        <v>0.68749854900970353</v>
+        <v>1.5558891601145937</v>
       </c>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.35">
@@ -1409,36 +1405,36 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>83.3</v>
+        <v>74.5</v>
       </c>
       <c r="E7">
-        <v>81.040000000000006</v>
+        <v>72.3</v>
       </c>
       <c r="F7">
-        <v>479119</v>
+        <v>350076</v>
       </c>
       <c r="G7">
         <f>RTD("ontrade.quotes",,"SSE",C7,"mid")</f>
-        <v>77.2</v>
+        <v>78.039999999999992</v>
       </c>
       <c r="H7" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C7,"open")/RTD("ontrade.quotes",,"SSE",C7,"lastvalidprevclose")-1</f>
-        <v>-1.1990407673861947E-3</v>
+        <v>-3.0173564753004034E-2</v>
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>2.7503955214798478E-2</v>
+        <v>2.9972752043596767E-2</v>
       </c>
       <c r="J7" s="3">
-        <v>284333</v>
+        <v>297455.90000000002</v>
       </c>
       <c r="K7">
         <f>RTD("ontrade.quotes",,"SSE",C7,"low")</f>
-        <v>76.5</v>
+        <v>72.3</v>
       </c>
       <c r="L7" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v>Highs</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="2"/>
@@ -1446,11 +1442,11 @@
       </c>
       <c r="N7" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C7,"volume")/J7</f>
-        <v>21.632853027963691</v>
+        <v>7.2110151454383651</v>
       </c>
       <c r="O7" s="5">
         <f t="shared" si="3"/>
-        <v>1.6850629367678041</v>
+        <v>1.1769005086132094</v>
       </c>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.35">
@@ -1458,36 +1454,36 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>333.2</v>
+        <v>312.5</v>
       </c>
       <c r="E8">
-        <v>322.8</v>
+        <v>300.3</v>
       </c>
       <c r="F8">
-        <v>43300</v>
+        <v>109241</v>
       </c>
       <c r="G8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"mid")</f>
-        <v>321.8</v>
+        <v>327.54999999999995</v>
       </c>
       <c r="H8" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C8,"open")/RTD("ontrade.quotes",,"SSE",C8,"lastvalidprevclose")-1</f>
-        <v>-3.5885167464114742E-3</v>
+        <v>-2.2749118872156471E-2</v>
       </c>
       <c r="I8" s="1">
         <f t="shared" si="0"/>
-        <v>3.1707317073170663E-2</v>
+        <v>3.9817232375979075E-2</v>
       </c>
       <c r="J8" s="3">
-        <v>58149.35</v>
+        <v>54180</v>
       </c>
       <c r="K8">
         <f>RTD("ontrade.quotes",,"SSE",C8,"low")</f>
-        <v>320.39999999999998</v>
+        <v>300.3</v>
       </c>
       <c r="L8" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v>Highs</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="2"/>
@@ -1495,11 +1491,11 @@
       </c>
       <c r="N8" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C8,"volume")/J8</f>
-        <v>11.790449936241764</v>
+        <v>10.49014396456257</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" si="3"/>
-        <v>0.74463429083902055</v>
+        <v>2.0162606127722409</v>
       </c>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.35">
@@ -1507,36 +1503,36 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>699</v>
+        <v>665.5</v>
       </c>
       <c r="E9">
-        <v>686</v>
+        <v>642</v>
       </c>
       <c r="F9">
-        <v>6957</v>
+        <v>9418</v>
       </c>
       <c r="G9">
         <f>RTD("ontrade.quotes",,"SSE",C9,"mid")</f>
-        <v>678.5</v>
+        <v>694.75</v>
       </c>
       <c r="H9" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C9,"open")/RTD("ontrade.quotes",,"SSE",C9,"lastvalidprevclose")-1</f>
-        <v>0</v>
+        <v>-2.8485757121439303E-2</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>1.8772563176895306E-2</v>
+        <v>3.5946462715105161E-2</v>
       </c>
       <c r="J9" s="3">
-        <v>14344.4</v>
+        <v>13439.65</v>
       </c>
       <c r="K9">
         <f>RTD("ontrade.quotes",,"SSE",C9,"low")</f>
-        <v>675</v>
+        <v>642</v>
       </c>
       <c r="L9" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v>Highs</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="2"/>
@@ -1544,11 +1540,11 @@
       </c>
       <c r="N9" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C9,"volume")/J9</f>
-        <v>7.8502412091129639</v>
+        <v>4.6801069968339952</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" si="3"/>
-        <v>0.48499762973704025</v>
+        <v>0.70076229663718925</v>
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.35">
@@ -1556,36 +1552,36 @@
         <v>10</v>
       </c>
       <c r="D10">
-        <v>98</v>
+        <v>86.32</v>
       </c>
       <c r="E10">
-        <v>94</v>
+        <v>82.46</v>
       </c>
       <c r="F10">
-        <v>274295</v>
+        <v>97212</v>
       </c>
       <c r="G10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"mid")</f>
-        <v>89.78</v>
+        <v>87.18</v>
       </c>
       <c r="H10" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C10,"open")/RTD("ontrade.quotes",,"SSE",C10,"lastvalidprevclose")-1</f>
-        <v>-0.17438921651221573</v>
+        <v>-1.5151515151515138E-2</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>4.5740016589643322E-2</v>
       </c>
       <c r="J10" s="3">
-        <v>14584.95</v>
+        <v>34347.300000000003</v>
       </c>
       <c r="K10">
         <f>RTD("ontrade.quotes",,"SSE",C10,"low")</f>
-        <v>89.42</v>
+        <v>82.460000000000008</v>
       </c>
       <c r="L10" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v>Highs</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="2"/>
@@ -1593,11 +1589,11 @@
       </c>
       <c r="N10" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C10,"volume")/J10</f>
-        <v>289.26146472905288</v>
+        <v>32.948091989763384</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" si="3"/>
-        <v>18.806715141292909</v>
+        <v>2.8302661344559832</v>
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.35">
@@ -1605,36 +1601,36 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <v>35.76</v>
+        <v>31.52</v>
       </c>
       <c r="E11">
-        <v>33.86</v>
+        <v>29</v>
       </c>
       <c r="F11">
-        <v>450458</v>
+        <v>1385700</v>
       </c>
       <c r="G11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"mid")</f>
-        <v>35.299999999999997</v>
+        <v>32.39</v>
       </c>
       <c r="H11" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C11,"open")/RTD("ontrade.quotes",,"SSE",C11,"lastvalidprevclose")-1</f>
-        <v>1.5535097813578647E-2</v>
+        <v>-0.12755716004813478</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>5.4582016661878729E-2</v>
+        <v>8.3278255122273617E-2</v>
       </c>
       <c r="J11" s="3">
-        <v>163415.79999999999</v>
+        <v>189186.05</v>
       </c>
       <c r="K11">
         <f>RTD("ontrade.quotes",,"SSE",C11,"low")</f>
-        <v>33.86</v>
+        <v>29</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Highs</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="2"/>
@@ -1642,11 +1638,11 @@
       </c>
       <c r="N11" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C11,"volume")/J11</f>
-        <v>32.004053463618575</v>
+        <v>21.409358671001378</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" si="3"/>
-        <v>2.7565143639721499</v>
+        <v>7.3245358206907962</v>
       </c>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.35">
@@ -1654,48 +1650,48 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>192.6</v>
+        <v>162.9</v>
       </c>
       <c r="E12">
-        <v>189</v>
+        <v>152.1</v>
       </c>
       <c r="F12">
-        <v>22515</v>
+        <v>19566</v>
       </c>
       <c r="G12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"mid")</f>
-        <v>190.3</v>
+        <v>172.3</v>
       </c>
       <c r="H12" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C12,"open")/RTD("ontrade.quotes",,"SSE",C12,"lastvalidprevclose")-1</f>
-        <v>-4.1884816753927634E-3</v>
+        <v>-5.3814311058545172E-2</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>1.8867924528301855E-2</v>
+        <v>6.8571428571428644E-2</v>
       </c>
       <c r="J12" s="3">
-        <v>7237.35</v>
+        <v>8760.1</v>
       </c>
       <c r="K12">
         <f>RTD("ontrade.quotes",,"SSE",C12,"low")</f>
-        <v>187.8</v>
+        <v>152.1</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="1"/>
+        <v>Highs</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
         <v/>
-      </c>
-      <c r="M12">
-        <f t="shared" si="2"/>
-        <v>-1</v>
       </c>
       <c r="N12" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C12,"volume")/J12</f>
-        <v>18.396098019302645</v>
+        <v>14.787159963927351</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" si="3"/>
-        <v>3.1109453045658975</v>
+        <v>2.2335361468476385</v>
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.35">
@@ -1703,36 +1699,36 @@
         <v>13</v>
       </c>
       <c r="D13">
-        <v>42.05</v>
+        <v>44.85</v>
       </c>
       <c r="E13">
-        <v>41.2</v>
+        <v>41.62</v>
       </c>
       <c r="F13">
-        <v>1050539</v>
+        <v>4712089</v>
       </c>
       <c r="G13">
         <f>RTD("ontrade.quotes",,"SSE",C13,"mid")</f>
-        <v>41.28</v>
+        <v>47.515000000000001</v>
       </c>
       <c r="H13" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C13,"open")/RTD("ontrade.quotes",,"SSE",C13,"lastvalidprevclose")-1</f>
-        <v>-4.2775665399239493E-3</v>
+        <v>-3.2648401826483986E-2</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>2.0420420420420284E-2</v>
+        <v>7.4707991210824651E-2</v>
       </c>
       <c r="J13" s="3">
-        <v>1049752.75</v>
+        <v>1104153.5</v>
       </c>
       <c r="K13">
         <f>RTD("ontrade.quotes",,"SSE",C13,"low")</f>
-        <v>41.2</v>
+        <v>41.620000000000005</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Highs</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="2"/>
@@ -1740,11 +1736,11 @@
       </c>
       <c r="N13" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C13,"volume")/J13</f>
-        <v>16.122153526151752</v>
+        <v>19.111977637167296</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" si="3"/>
-        <v>1.0007489858921541</v>
+        <v>4.2676031910418253</v>
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.35">
@@ -1752,36 +1748,36 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>598.20000000000005</v>
+        <v>563.4</v>
       </c>
       <c r="E14">
-        <v>590.20000000000005</v>
+        <v>551.20000000000005</v>
       </c>
       <c r="F14">
-        <v>9770</v>
+        <v>18263</v>
       </c>
       <c r="G14">
         <f>RTD("ontrade.quotes",,"SSE",C14,"mid")</f>
-        <v>588.4</v>
+        <v>578.70000000000005</v>
       </c>
       <c r="H14" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C14,"open")/RTD("ontrade.quotes",,"SSE",C14,"lastvalidprevclose")-1</f>
-        <v>-3.6776997659646593E-3</v>
+        <v>-2.2175290390707536E-2</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>1.3463480309660046E-2</v>
+        <v>2.1891261439081162E-2</v>
       </c>
       <c r="J14" s="3">
-        <v>10933.15</v>
+        <v>11199.2</v>
       </c>
       <c r="K14">
         <f>RTD("ontrade.quotes",,"SSE",C14,"low")</f>
-        <v>583</v>
+        <v>551.20000000000005</v>
       </c>
       <c r="L14" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v>Highs</v>
       </c>
       <c r="M14" t="str">
         <f>IF(H14&lt;=0,IF(I14&lt;0.02,IF(F14&gt;1.5*J14,IF(K14&lt;E14,-1,""),""),""),"")</f>
@@ -1789,11 +1785,11 @@
       </c>
       <c r="N14" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C14,"volume")/J14</f>
-        <v>17.844079702555987</v>
+        <v>12.244803200228587</v>
       </c>
       <c r="O14" s="5">
         <f t="shared" si="3"/>
-        <v>0.89361254533231504</v>
+        <v>1.6307414815343952</v>
       </c>
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.35">
@@ -1801,36 +1797,36 @@
         <v>15</v>
       </c>
       <c r="D15">
-        <v>262.2</v>
+        <v>239.8</v>
       </c>
       <c r="E15">
-        <v>258.39999999999998</v>
+        <v>232.4</v>
       </c>
       <c r="F15">
-        <v>4750</v>
+        <v>12063</v>
       </c>
       <c r="G15">
         <f>RTD("ontrade.quotes",,"SSE",C15,"mid")</f>
-        <v>254</v>
+        <v>251.89999999999998</v>
       </c>
       <c r="H15" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C15,"open")/RTD("ontrade.quotes",,"SSE",C15,"lastvalidprevclose")-1</f>
-        <v>-7.6219512195119243E-4</v>
+        <v>-2.6512013256006606E-2</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
-        <v>1.4598540145985448E-2</v>
+        <v>3.1342651418890324E-2</v>
       </c>
       <c r="J15" s="3">
-        <v>19037.95</v>
+        <v>16325.2</v>
       </c>
       <c r="K15">
         <f>RTD("ontrade.quotes",,"SSE",C15,"low")</f>
-        <v>252.4</v>
+        <v>232.4</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v>Highs</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="2"/>
@@ -1838,11 +1834,11 @@
       </c>
       <c r="N15" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C15,"volume")/J15</f>
-        <v>9.3885108428165847</v>
+        <v>7.784284419180163</v>
       </c>
       <c r="O15" s="5">
         <f t="shared" si="3"/>
-        <v>0.24950165327674459</v>
+        <v>0.73891897189620948</v>
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.35">
@@ -1850,36 +1846,36 @@
         <v>23</v>
       </c>
       <c r="D16">
-        <v>211.4</v>
+        <v>202.2</v>
       </c>
       <c r="E16">
-        <v>207.3</v>
+        <v>196.5</v>
       </c>
       <c r="F16">
-        <v>8005</v>
+        <v>34285</v>
       </c>
       <c r="G16">
         <f>RTD("ontrade.quotes",,"SSE",C16,"mid")</f>
-        <v>207.5</v>
+        <v>211.2</v>
       </c>
       <c r="H16" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C16,"open")/RTD("ontrade.quotes",,"SSE",C16,"lastvalidprevclose")-1</f>
-        <v>0</v>
+        <v>-2.6380670611439783E-2</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="0"/>
-        <v>1.9584427991401931E-2</v>
+        <v>2.8592927012791515E-2</v>
       </c>
       <c r="J16" s="2">
-        <v>21946.6</v>
+        <v>21792.55</v>
       </c>
       <c r="K16" s="2">
         <f>RTD("ontrade.quotes",,"SSE",C16,"low")</f>
-        <v>206</v>
+        <v>196.5</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>Highs</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="2"/>
@@ -1887,11 +1883,11 @@
       </c>
       <c r="N16" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C16,"volume")/J16</f>
-        <v>11.253770515706305</v>
+        <v>12.518360632417959</v>
       </c>
       <c r="O16" s="5">
         <f t="shared" si="3"/>
-        <v>0.36474898161902075</v>
+        <v>1.5732440673532928</v>
       </c>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.35">
@@ -1899,36 +1895,36 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>206.9</v>
+        <v>199.7</v>
       </c>
       <c r="E17">
-        <v>203.8</v>
+        <v>192.05</v>
       </c>
       <c r="F17">
-        <v>8310</v>
+        <v>91068</v>
       </c>
       <c r="G17">
         <f>RTD("ontrade.quotes",,"SSE",C17,"mid")</f>
-        <v>202.7</v>
+        <v>209.15</v>
       </c>
       <c r="H17" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C17,"open")/RTD("ontrade.quotes",,"SSE",C17,"lastvalidprevclose")-1</f>
-        <v>0</v>
+        <v>-3.5305818000994527E-2</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="0"/>
-        <v>1.509617725833939E-2</v>
+        <v>3.905552010210582E-2</v>
       </c>
       <c r="J17" s="2">
-        <v>32293.9</v>
+        <v>30770.799999999999</v>
       </c>
       <c r="K17" s="2">
         <f>RTD("ontrade.quotes",,"SSE",C17,"low")</f>
-        <v>202.3</v>
+        <v>192.05</v>
       </c>
       <c r="L17" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v>Highs</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="2"/>
@@ -1936,11 +1932,11 @@
       </c>
       <c r="N17" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C17,"volume")/J17</f>
-        <v>16.054549001514218</v>
+        <v>17.223341609577911</v>
       </c>
       <c r="O17" s="5">
         <f t="shared" si="3"/>
-        <v>0.25732413861441322</v>
+        <v>2.9595590624878132</v>
       </c>
     </row>
     <row r="18" spans="3:18" x14ac:dyDescent="0.35">
@@ -1948,36 +1944,36 @@
         <v>25</v>
       </c>
       <c r="D18">
-        <v>97.5</v>
+        <v>90.55</v>
       </c>
       <c r="E18">
-        <v>95.8</v>
+        <v>88.25</v>
       </c>
       <c r="F18">
-        <v>6420</v>
+        <v>13861</v>
       </c>
       <c r="G18">
         <f>RTD("ontrade.quotes",,"SSE",C18,"mid")</f>
-        <v>94.149999999999991</v>
+        <v>93.174999999999997</v>
       </c>
       <c r="H18" s="4">
         <f>RTD("ontrade.quotes",,"SSE",C18,"open")/RTD("ontrade.quotes",,"SSE",C18,"lastvalidprevclose")-1</f>
-        <v>0</v>
+        <v>-1.6393442622950838E-2</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="0"/>
-        <v>1.7589239524055899E-2</v>
+        <v>2.572706935123039E-2</v>
       </c>
       <c r="J18" s="2">
-        <v>12600.3</v>
+        <v>13028.95</v>
       </c>
       <c r="K18" s="2">
         <f>RTD("ontrade.quotes",,"SSE",C18,"low")</f>
-        <v>94</v>
+        <v>88.25</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="1"/>
-        <v>Lows</v>
+        <v>Highs</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="2"/>
@@ -1985,11 +1981,11 @@
       </c>
       <c r="N18" s="5">
         <f>RTD("ontrade.quotes",,"SSE",C18,"volume")/J18</f>
-        <v>12.157250224201011</v>
+        <v>17.23761316145967</v>
       </c>
       <c r="O18" s="5">
         <f t="shared" si="3"/>
-        <v>0.50951167829337396</v>
+        <v>1.0638616312135667</v>
       </c>
     </row>
     <row r="32" spans="3:18" x14ac:dyDescent="0.35">
